--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -1116,20 +1116,14 @@
         <v>3.102683333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.048</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,20 +1151,14 @@
         <v>3.101</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1198,20 +1186,14 @@
         <v>3.100700000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.05</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1239,20 +1221,14 @@
         <v>3.100433333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.08</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1288,12 +1264,10 @@
       <c r="J25" t="n">
         <v>3.08</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1327,10 +1301,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>3.08</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1360,18 +1336,18 @@
         <v>3.098550000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>3.08</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1408,11 +1384,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1447,11 +1419,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1486,11 +1454,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1489,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1564,11 +1524,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1603,11 +1559,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1642,11 +1594,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1681,11 +1629,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1720,11 +1664,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1759,12 +1699,10 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3962,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3997,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4032,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4522,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.136</v>
+        <v>3.139</v>
       </c>
       <c r="C2" t="n">
-        <v>3.11</v>
+        <v>3.139</v>
       </c>
       <c r="D2" t="n">
-        <v>3.136</v>
+        <v>3.139</v>
       </c>
       <c r="E2" t="n">
-        <v>3.11</v>
+        <v>3.139</v>
       </c>
       <c r="F2" t="n">
-        <v>16609.186</v>
+        <v>833.9232</v>
       </c>
       <c r="G2" t="n">
-        <v>3.106083333333331</v>
+        <v>3.105916666666664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.12</v>
+        <v>3.136</v>
       </c>
       <c r="C3" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.12</v>
+        <v>3.136</v>
       </c>
       <c r="E3" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="F3" t="n">
-        <v>95535.9713</v>
+        <v>16609.186</v>
       </c>
       <c r="G3" t="n">
-        <v>3.106416666666665</v>
+        <v>3.106083333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>3.12</v>
       </c>
       <c r="F4" t="n">
-        <v>16359.1787</v>
+        <v>95535.9713</v>
       </c>
       <c r="G4" t="n">
-        <v>3.106749999999998</v>
+        <v>3.106416666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>3.12</v>
       </c>
       <c r="F5" t="n">
-        <v>32464.6698</v>
+        <v>16359.1787</v>
       </c>
       <c r="G5" t="n">
-        <v>3.107083333333331</v>
+        <v>3.106749999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>3.12</v>
       </c>
       <c r="C6" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="D6" t="n">
         <v>3.12</v>
       </c>
       <c r="E6" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="F6" t="n">
-        <v>56128.5472</v>
+        <v>32464.6698</v>
       </c>
       <c r="G6" t="n">
-        <v>3.107249999999999</v>
+        <v>3.107083333333331</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C7" t="n">
         <v>3.11</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.076</v>
-      </c>
       <c r="D7" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E7" t="n">
         <v>3.11</v>
       </c>
-      <c r="E7" t="n">
-        <v>3.076</v>
-      </c>
       <c r="F7" t="n">
-        <v>1839762.4106</v>
+        <v>56128.5472</v>
       </c>
       <c r="G7" t="n">
-        <v>3.106849999999999</v>
+        <v>3.107249999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C8" t="n">
         <v>3.076</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.11</v>
       </c>
       <c r="D8" t="n">
         <v>3.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3.074</v>
+        <v>3.076</v>
       </c>
       <c r="F8" t="n">
-        <v>105476.156</v>
+        <v>1839762.4106</v>
       </c>
       <c r="G8" t="n">
-        <v>3.107016666666666</v>
+        <v>3.106849999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.1</v>
+        <v>3.076</v>
       </c>
       <c r="C9" t="n">
         <v>3.11</v>
@@ -687,13 +687,13 @@
         <v>3.11</v>
       </c>
       <c r="E9" t="n">
-        <v>3.1</v>
+        <v>3.074</v>
       </c>
       <c r="F9" t="n">
-        <v>195483.6047</v>
+        <v>105476.156</v>
       </c>
       <c r="G9" t="n">
-        <v>3.107183333333333</v>
+        <v>3.107016666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.129</v>
+        <v>3.1</v>
       </c>
       <c r="C10" t="n">
-        <v>3.129</v>
+        <v>3.11</v>
       </c>
       <c r="D10" t="n">
-        <v>3.129</v>
+        <v>3.11</v>
       </c>
       <c r="E10" t="n">
-        <v>3.129</v>
+        <v>3.1</v>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>195483.6047</v>
       </c>
       <c r="G10" t="n">
-        <v>3.107666666666666</v>
+        <v>3.107183333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>3.129</v>
       </c>
       <c r="C11" t="n">
-        <v>3.139</v>
+        <v>3.129</v>
       </c>
       <c r="D11" t="n">
-        <v>3.139</v>
+        <v>3.129</v>
       </c>
       <c r="E11" t="n">
         <v>3.129</v>
       </c>
       <c r="F11" t="n">
-        <v>34220.603</v>
+        <v>200</v>
       </c>
       <c r="G11" t="n">
-        <v>3.108316666666666</v>
+        <v>3.107666666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.14</v>
+        <v>3.129</v>
       </c>
       <c r="C12" t="n">
-        <v>3.141</v>
+        <v>3.139</v>
       </c>
       <c r="D12" t="n">
-        <v>3.141</v>
+        <v>3.139</v>
       </c>
       <c r="E12" t="n">
-        <v>3.14</v>
+        <v>3.129</v>
       </c>
       <c r="F12" t="n">
-        <v>13302.3062</v>
+        <v>34220.603</v>
       </c>
       <c r="G12" t="n">
-        <v>3.109</v>
+        <v>3.108316666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="C13" t="n">
-        <v>3.087</v>
+        <v>3.141</v>
       </c>
       <c r="D13" t="n">
-        <v>3.09</v>
+        <v>3.141</v>
       </c>
       <c r="E13" t="n">
-        <v>3.087</v>
+        <v>3.14</v>
       </c>
       <c r="F13" t="n">
-        <v>92988.955</v>
+        <v>13302.3062</v>
       </c>
       <c r="G13" t="n">
-        <v>3.108783333333333</v>
+        <v>3.109</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.077</v>
+        <v>3.09</v>
       </c>
       <c r="C14" t="n">
-        <v>3.07</v>
+        <v>3.087</v>
       </c>
       <c r="D14" t="n">
-        <v>3.077</v>
+        <v>3.09</v>
       </c>
       <c r="E14" t="n">
-        <v>3.07</v>
+        <v>3.087</v>
       </c>
       <c r="F14" t="n">
-        <v>311947.58</v>
+        <v>92988.955</v>
       </c>
       <c r="G14" t="n">
-        <v>3.108283333333333</v>
+        <v>3.108783333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.108</v>
+        <v>3.077</v>
       </c>
       <c r="C15" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="D15" t="n">
-        <v>3.108</v>
+        <v>3.077</v>
       </c>
       <c r="E15" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="F15" t="n">
-        <v>22492.8479</v>
+        <v>311947.58</v>
       </c>
       <c r="G15" t="n">
-        <v>3.107616666666666</v>
+        <v>3.108283333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.056</v>
+        <v>3.108</v>
       </c>
       <c r="C16" t="n">
-        <v>3.051</v>
+        <v>3.06</v>
       </c>
       <c r="D16" t="n">
-        <v>3.056</v>
+        <v>3.108</v>
       </c>
       <c r="E16" t="n">
-        <v>3.051</v>
+        <v>3.06</v>
       </c>
       <c r="F16" t="n">
-        <v>333179.18</v>
+        <v>22492.8479</v>
       </c>
       <c r="G16" t="n">
-        <v>3.106799999999999</v>
+        <v>3.107616666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.06</v>
+        <v>3.056</v>
       </c>
       <c r="C17" t="n">
-        <v>3.06</v>
+        <v>3.051</v>
       </c>
       <c r="D17" t="n">
-        <v>3.06</v>
+        <v>3.056</v>
       </c>
       <c r="E17" t="n">
-        <v>3.06</v>
+        <v>3.051</v>
       </c>
       <c r="F17" t="n">
-        <v>5537.1881</v>
+        <v>333179.18</v>
       </c>
       <c r="G17" t="n">
-        <v>3.106133333333333</v>
+        <v>3.106799999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.051</v>
+        <v>3.06</v>
       </c>
       <c r="C18" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="D18" t="n">
-        <v>3.051</v>
+        <v>3.06</v>
       </c>
       <c r="E18" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="F18" t="n">
-        <v>215733.3279</v>
+        <v>5537.1881</v>
       </c>
       <c r="G18" t="n">
-        <v>3.105283333333333</v>
+        <v>3.106133333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="C19" t="n">
         <v>3.05</v>
       </c>
       <c r="D19" t="n">
-        <v>3.05</v>
+        <v>3.051</v>
       </c>
       <c r="E19" t="n">
         <v>3.05</v>
       </c>
       <c r="F19" t="n">
-        <v>52367.657</v>
+        <v>215733.3279</v>
       </c>
       <c r="G19" t="n">
-        <v>3.10445</v>
+        <v>3.105283333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>3.05</v>
       </c>
       <c r="F20" t="n">
-        <v>40000</v>
+        <v>52367.657</v>
       </c>
       <c r="G20" t="n">
-        <v>3.103616666666667</v>
+        <v>3.10445</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,31 +1098,35 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3.044</v>
+        <v>3.05</v>
       </c>
       <c r="D21" t="n">
-        <v>3.048</v>
+        <v>3.05</v>
       </c>
       <c r="E21" t="n">
-        <v>3.044</v>
+        <v>3.05</v>
       </c>
       <c r="F21" t="n">
-        <v>76179.1583</v>
+        <v>40000</v>
       </c>
       <c r="G21" t="n">
-        <v>3.102683333333334</v>
+        <v>3.103616666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.05</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1133,32 +1137,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="F22" t="n">
+        <v>76179.1583</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.102683333333334</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.05</v>
       </c>
-      <c r="C22" t="n">
+      <c r="K22" t="n">
         <v>3.05</v>
       </c>
-      <c r="D22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F22" t="n">
-        <v>33456.5232</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.101</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1171,29 +1183,37 @@
         <v>3.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3.078</v>
+        <v>3.05</v>
       </c>
       <c r="D23" t="n">
-        <v>3.078</v>
+        <v>3.05</v>
       </c>
       <c r="E23" t="n">
         <v>3.05</v>
       </c>
       <c r="F23" t="n">
-        <v>176486.6483</v>
+        <v>33456.5232</v>
       </c>
       <c r="G23" t="n">
-        <v>3.100700000000001</v>
+        <v>3.101</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1223,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3.08</v>
+        <v>3.078</v>
       </c>
       <c r="D24" t="n">
-        <v>3.08</v>
+        <v>3.078</v>
       </c>
       <c r="E24" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="F24" t="n">
-        <v>1840964.1953</v>
+        <v>176486.6483</v>
       </c>
       <c r="G24" t="n">
-        <v>3.100433333333334</v>
+        <v>3.100700000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1247,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1250,24 +1276,26 @@
         <v>3.08</v>
       </c>
       <c r="F25" t="n">
-        <v>16219.5121</v>
+        <v>1840964.1953</v>
       </c>
       <c r="G25" t="n">
-        <v>3.100266666666668</v>
+        <v>3.100433333333334</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.08</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+        <v>3.05</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1289,10 +1317,10 @@
         <v>3.08</v>
       </c>
       <c r="F26" t="n">
-        <v>830000</v>
+        <v>16219.5121</v>
       </c>
       <c r="G26" t="n">
-        <v>3.099100000000001</v>
+        <v>3.100266666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,11 +1330,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1318,22 +1346,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="C27" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="D27" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="E27" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>830000</v>
       </c>
       <c r="G27" t="n">
-        <v>3.098550000000001</v>
+        <v>3.099100000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,11 +1371,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1371,10 +1399,10 @@
         <v>3.108</v>
       </c>
       <c r="F28" t="n">
-        <v>19934.7854</v>
+        <v>200</v>
       </c>
       <c r="G28" t="n">
-        <v>3.098683333333335</v>
+        <v>3.098550000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1383,8 +1411,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1394,22 +1428,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.12</v>
+        <v>3.108</v>
       </c>
       <c r="C29" t="n">
-        <v>3.12</v>
+        <v>3.108</v>
       </c>
       <c r="D29" t="n">
-        <v>3.12</v>
+        <v>3.108</v>
       </c>
       <c r="E29" t="n">
-        <v>3.12</v>
+        <v>3.108</v>
       </c>
       <c r="F29" t="n">
-        <v>334.4651</v>
+        <v>19934.7854</v>
       </c>
       <c r="G29" t="n">
-        <v>3.098850000000001</v>
+        <v>3.098683333333335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1418,8 +1452,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1441,10 +1481,10 @@
         <v>3.12</v>
       </c>
       <c r="F30" t="n">
-        <v>128325.5232</v>
+        <v>334.4651</v>
       </c>
       <c r="G30" t="n">
-        <v>3.099183333333335</v>
+        <v>3.098850000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1453,8 +1493,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1464,22 +1510,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="C31" t="n">
-        <v>3.141</v>
+        <v>3.12</v>
       </c>
       <c r="D31" t="n">
-        <v>3.141</v>
+        <v>3.12</v>
       </c>
       <c r="E31" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="F31" t="n">
-        <v>8717.686299999999</v>
+        <v>128325.5232</v>
       </c>
       <c r="G31" t="n">
-        <v>3.099700000000001</v>
+        <v>3.099183333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1488,8 +1534,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1499,22 +1551,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C32" t="n">
         <v>3.141</v>
       </c>
-      <c r="C32" t="n">
-        <v>3.144</v>
-      </c>
       <c r="D32" t="n">
-        <v>3.144</v>
+        <v>3.141</v>
       </c>
       <c r="E32" t="n">
-        <v>3.141</v>
+        <v>3.13</v>
       </c>
       <c r="F32" t="n">
-        <v>18368.9425</v>
+        <v>8717.686299999999</v>
       </c>
       <c r="G32" t="n">
-        <v>3.100266666666668</v>
+        <v>3.099700000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1523,8 +1575,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1534,22 +1592,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.149</v>
+        <v>3.141</v>
       </c>
       <c r="C33" t="n">
-        <v>3.149</v>
+        <v>3.144</v>
       </c>
       <c r="D33" t="n">
-        <v>3.149</v>
+        <v>3.144</v>
       </c>
       <c r="E33" t="n">
-        <v>3.149</v>
+        <v>3.141</v>
       </c>
       <c r="F33" t="n">
-        <v>2361.7765</v>
+        <v>18368.9425</v>
       </c>
       <c r="G33" t="n">
-        <v>3.101083333333334</v>
+        <v>3.100266666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1558,8 +1616,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1569,22 +1633,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.144</v>
+        <v>3.149</v>
       </c>
       <c r="C34" t="n">
-        <v>3.144</v>
+        <v>3.149</v>
       </c>
       <c r="D34" t="n">
-        <v>3.144</v>
+        <v>3.149</v>
       </c>
       <c r="E34" t="n">
-        <v>3.144</v>
+        <v>3.149</v>
       </c>
       <c r="F34" t="n">
-        <v>6072.3544</v>
+        <v>2361.7765</v>
       </c>
       <c r="G34" t="n">
-        <v>3.102083333333334</v>
+        <v>3.101083333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1593,8 +1657,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1607,19 +1677,19 @@
         <v>3.144</v>
       </c>
       <c r="C35" t="n">
-        <v>3.379</v>
+        <v>3.144</v>
       </c>
       <c r="D35" t="n">
-        <v>3.379</v>
+        <v>3.144</v>
       </c>
       <c r="E35" t="n">
-        <v>3.139</v>
+        <v>3.144</v>
       </c>
       <c r="F35" t="n">
-        <v>1326183.480890974</v>
+        <v>6072.3544</v>
       </c>
       <c r="G35" t="n">
-        <v>3.107000000000001</v>
+        <v>3.102083333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1628,8 +1698,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1639,22 +1715,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.149</v>
+        <v>3.144</v>
       </c>
       <c r="C36" t="n">
-        <v>3.21</v>
+        <v>3.379</v>
       </c>
       <c r="D36" t="n">
-        <v>3.21</v>
+        <v>3.379</v>
       </c>
       <c r="E36" t="n">
-        <v>3.14</v>
+        <v>3.139</v>
       </c>
       <c r="F36" t="n">
-        <v>9137.305899999999</v>
+        <v>1326183.480890974</v>
       </c>
       <c r="G36" t="n">
-        <v>3.108833333333334</v>
+        <v>3.107000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1663,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1674,22 +1756,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>3.149</v>
+      </c>
+      <c r="C37" t="n">
         <v>3.21</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E37" t="n">
         <v>3.14</v>
       </c>
-      <c r="D37" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3.132</v>
-      </c>
       <c r="F37" t="n">
-        <v>97714.1758</v>
+        <v>9137.305899999999</v>
       </c>
       <c r="G37" t="n">
-        <v>3.109800000000001</v>
+        <v>3.108833333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1698,10 +1780,16 @@
         <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>1.047459016393443</v>
       </c>
     </row>
     <row r="38">
@@ -1709,28 +1797,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="C38" t="n">
         <v>3.14</v>
       </c>
-      <c r="C38" t="n">
-        <v>3.15</v>
-      </c>
       <c r="D38" t="n">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="E38" t="n">
-        <v>3.14</v>
+        <v>3.132</v>
       </c>
       <c r="F38" t="n">
-        <v>5833.14</v>
+        <v>97714.1758</v>
       </c>
       <c r="G38" t="n">
-        <v>3.110916666666668</v>
+        <v>3.109800000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1744,22 +1832,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="C39" t="n">
         <v>3.15</v>
       </c>
       <c r="D39" t="n">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="E39" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="F39" t="n">
-        <v>4371.83</v>
+        <v>5833.14</v>
       </c>
       <c r="G39" t="n">
-        <v>3.112050000000001</v>
+        <v>3.110916666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1791,10 +1879,10 @@
         <v>3.15</v>
       </c>
       <c r="F40" t="n">
-        <v>1761.22</v>
+        <v>4371.83</v>
       </c>
       <c r="G40" t="n">
-        <v>3.113183333333335</v>
+        <v>3.112050000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1817,19 +1905,19 @@
         <v>3.15</v>
       </c>
       <c r="C41" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="D41" t="n">
         <v>3.15</v>
       </c>
       <c r="E41" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="F41" t="n">
-        <v>79330.2424</v>
+        <v>1761.22</v>
       </c>
       <c r="G41" t="n">
-        <v>3.114150000000001</v>
+        <v>3.113183333333335</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1849,22 +1937,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.141</v>
+        <v>3.15</v>
       </c>
       <c r="C42" t="n">
         <v>3.14</v>
       </c>
       <c r="D42" t="n">
-        <v>3.141</v>
+        <v>3.15</v>
       </c>
       <c r="E42" t="n">
-        <v>3.131</v>
+        <v>3.14</v>
       </c>
       <c r="F42" t="n">
-        <v>95352.15150000001</v>
+        <v>79330.2424</v>
       </c>
       <c r="G42" t="n">
-        <v>3.115100000000001</v>
+        <v>3.114150000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1884,22 +1972,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.156</v>
+        <v>3.141</v>
       </c>
       <c r="C43" t="n">
-        <v>3.156</v>
+        <v>3.14</v>
       </c>
       <c r="D43" t="n">
-        <v>3.156</v>
+        <v>3.141</v>
       </c>
       <c r="E43" t="n">
-        <v>3.156</v>
+        <v>3.131</v>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>95352.15150000001</v>
       </c>
       <c r="G43" t="n">
-        <v>3.116316666666668</v>
+        <v>3.115100000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1931,10 +2019,10 @@
         <v>3.156</v>
       </c>
       <c r="F44" t="n">
-        <v>27020.7402</v>
+        <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>3.117733333333335</v>
+        <v>3.116316666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1954,22 +2042,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.123</v>
+        <v>3.156</v>
       </c>
       <c r="C45" t="n">
-        <v>3.123</v>
+        <v>3.156</v>
       </c>
       <c r="D45" t="n">
-        <v>3.123</v>
+        <v>3.156</v>
       </c>
       <c r="E45" t="n">
-        <v>3.123</v>
+        <v>3.156</v>
       </c>
       <c r="F45" t="n">
-        <v>31020</v>
+        <v>27020.7402</v>
       </c>
       <c r="G45" t="n">
-        <v>3.118566666666668</v>
+        <v>3.117733333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2001,10 +2089,10 @@
         <v>3.123</v>
       </c>
       <c r="F46" t="n">
-        <v>90500.0711</v>
+        <v>31020</v>
       </c>
       <c r="G46" t="n">
-        <v>3.118950000000001</v>
+        <v>3.118566666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,22 +2112,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.156</v>
+        <v>3.123</v>
       </c>
       <c r="C47" t="n">
-        <v>3.166</v>
+        <v>3.123</v>
       </c>
       <c r="D47" t="n">
-        <v>3.166</v>
+        <v>3.123</v>
       </c>
       <c r="E47" t="n">
-        <v>3.156</v>
+        <v>3.123</v>
       </c>
       <c r="F47" t="n">
-        <v>76060.1722</v>
+        <v>90500.0711</v>
       </c>
       <c r="G47" t="n">
-        <v>3.120050000000001</v>
+        <v>3.118950000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2059,22 +2147,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.168</v>
+        <v>3.156</v>
       </c>
       <c r="C48" t="n">
-        <v>3.177</v>
+        <v>3.166</v>
       </c>
       <c r="D48" t="n">
-        <v>3.177</v>
+        <v>3.166</v>
       </c>
       <c r="E48" t="n">
-        <v>3.168</v>
+        <v>3.156</v>
       </c>
       <c r="F48" t="n">
-        <v>21731.445</v>
+        <v>76060.1722</v>
       </c>
       <c r="G48" t="n">
-        <v>3.121166666666667</v>
+        <v>3.120050000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,22 +2182,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.123</v>
+        <v>3.168</v>
       </c>
       <c r="C49" t="n">
-        <v>3.123</v>
+        <v>3.177</v>
       </c>
       <c r="D49" t="n">
-        <v>3.123</v>
+        <v>3.177</v>
       </c>
       <c r="E49" t="n">
-        <v>3.123</v>
+        <v>3.168</v>
       </c>
       <c r="F49" t="n">
-        <v>52367.657</v>
+        <v>21731.445</v>
       </c>
       <c r="G49" t="n">
-        <v>3.121383333333334</v>
+        <v>3.121166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2141,10 +2229,10 @@
         <v>3.123</v>
       </c>
       <c r="F50" t="n">
-        <v>15150</v>
+        <v>52367.657</v>
       </c>
       <c r="G50" t="n">
-        <v>3.1216</v>
+        <v>3.121383333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2164,22 +2252,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.113</v>
+        <v>3.123</v>
       </c>
       <c r="C51" t="n">
-        <v>3.113</v>
+        <v>3.123</v>
       </c>
       <c r="D51" t="n">
-        <v>3.113</v>
+        <v>3.123</v>
       </c>
       <c r="E51" t="n">
-        <v>3.113</v>
+        <v>3.123</v>
       </c>
       <c r="F51" t="n">
-        <v>23911.8796</v>
+        <v>15150</v>
       </c>
       <c r="G51" t="n">
-        <v>3.12165</v>
+        <v>3.1216</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2199,22 +2287,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.08</v>
+        <v>3.113</v>
       </c>
       <c r="C52" t="n">
-        <v>3.08</v>
+        <v>3.113</v>
       </c>
       <c r="D52" t="n">
-        <v>3.08</v>
+        <v>3.113</v>
       </c>
       <c r="E52" t="n">
-        <v>3.07</v>
+        <v>3.113</v>
       </c>
       <c r="F52" t="n">
-        <v>58859.2573</v>
+        <v>23911.8796</v>
       </c>
       <c r="G52" t="n">
-        <v>3.120733333333333</v>
+        <v>3.12165</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2243,13 +2331,13 @@
         <v>3.08</v>
       </c>
       <c r="E53" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="F53" t="n">
-        <v>275290.62</v>
+        <v>58859.2573</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1198</v>
+        <v>3.120733333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2281,10 +2369,10 @@
         <v>3.08</v>
       </c>
       <c r="F54" t="n">
-        <v>12489.6492</v>
+        <v>275290.62</v>
       </c>
       <c r="G54" t="n">
-        <v>3.118866666666667</v>
+        <v>3.1198</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2307,19 +2395,19 @@
         <v>3.08</v>
       </c>
       <c r="C55" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="D55" t="n">
         <v>3.08</v>
       </c>
       <c r="E55" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="F55" t="n">
-        <v>106370.0712</v>
+        <v>12489.6492</v>
       </c>
       <c r="G55" t="n">
-        <v>3.117600000000001</v>
+        <v>3.118866666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2339,22 +2427,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="C56" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="D56" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="E56" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="F56" t="n">
-        <v>6439.4872</v>
+        <v>106370.0712</v>
       </c>
       <c r="G56" t="n">
-        <v>3.117</v>
+        <v>3.117600000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2386,10 +2474,10 @@
         <v>3.1</v>
       </c>
       <c r="F57" t="n">
-        <v>3282.1178</v>
+        <v>6439.4872</v>
       </c>
       <c r="G57" t="n">
-        <v>3.116400000000001</v>
+        <v>3.117</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2421,10 +2509,10 @@
         <v>3.1</v>
       </c>
       <c r="F58" t="n">
-        <v>3265.7485</v>
+        <v>3282.1178</v>
       </c>
       <c r="G58" t="n">
-        <v>3.11575</v>
+        <v>3.116400000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2456,10 +2544,10 @@
         <v>3.1</v>
       </c>
       <c r="F59" t="n">
-        <v>40566.6027</v>
+        <v>3265.7485</v>
       </c>
       <c r="G59" t="n">
-        <v>3.1151</v>
+        <v>3.11575</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2479,22 +2567,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="C60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="D60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="E60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="F60" t="n">
-        <v>992.8703</v>
+        <v>40566.6027</v>
       </c>
       <c r="G60" t="n">
-        <v>3.114783333333333</v>
+        <v>3.1151</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2514,22 +2602,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="C61" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="D61" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="E61" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="F61" t="n">
-        <v>14550</v>
+        <v>992.8703</v>
       </c>
       <c r="G61" t="n">
-        <v>3.1143</v>
+        <v>3.114783333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2549,22 +2637,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.101</v>
+        <v>3.11</v>
       </c>
       <c r="C62" t="n">
-        <v>3.101</v>
+        <v>3.11</v>
       </c>
       <c r="D62" t="n">
-        <v>3.102</v>
+        <v>3.11</v>
       </c>
       <c r="E62" t="n">
-        <v>3.101</v>
+        <v>3.11</v>
       </c>
       <c r="F62" t="n">
-        <v>314460.0517</v>
+        <v>14550</v>
       </c>
       <c r="G62" t="n">
-        <v>3.11415</v>
+        <v>3.1143</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2587,19 +2675,19 @@
         <v>3.101</v>
       </c>
       <c r="C63" t="n">
-        <v>3.123</v>
+        <v>3.101</v>
       </c>
       <c r="D63" t="n">
-        <v>3.123</v>
+        <v>3.102</v>
       </c>
       <c r="E63" t="n">
         <v>3.101</v>
       </c>
       <c r="F63" t="n">
-        <v>220416.1795</v>
+        <v>314460.0517</v>
       </c>
       <c r="G63" t="n">
-        <v>3.114199999999999</v>
+        <v>3.11415</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2619,7 +2707,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.123</v>
+        <v>3.101</v>
       </c>
       <c r="C64" t="n">
         <v>3.123</v>
@@ -2628,13 +2716,13 @@
         <v>3.123</v>
       </c>
       <c r="E64" t="n">
-        <v>3.123</v>
+        <v>3.101</v>
       </c>
       <c r="F64" t="n">
-        <v>294000</v>
+        <v>220416.1795</v>
       </c>
       <c r="G64" t="n">
-        <v>3.114249999999999</v>
+        <v>3.114199999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2654,22 +2742,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.124</v>
+        <v>3.123</v>
       </c>
       <c r="C65" t="n">
-        <v>3.124</v>
+        <v>3.123</v>
       </c>
       <c r="D65" t="n">
-        <v>3.124</v>
+        <v>3.123</v>
       </c>
       <c r="E65" t="n">
-        <v>3.124</v>
+        <v>3.123</v>
       </c>
       <c r="F65" t="n">
-        <v>364506.1791</v>
+        <v>294000</v>
       </c>
       <c r="G65" t="n">
-        <v>3.114316666666666</v>
+        <v>3.114249999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2689,22 +2777,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.123</v>
+        <v>3.124</v>
       </c>
       <c r="C66" t="n">
-        <v>3.07</v>
+        <v>3.124</v>
       </c>
       <c r="D66" t="n">
-        <v>3.123</v>
+        <v>3.124</v>
       </c>
       <c r="E66" t="n">
-        <v>3.07</v>
+        <v>3.124</v>
       </c>
       <c r="F66" t="n">
-        <v>643392.8205</v>
+        <v>364506.1791</v>
       </c>
       <c r="G66" t="n">
-        <v>3.113649999999999</v>
+        <v>3.114316666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2724,22 +2812,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.08</v>
+        <v>3.123</v>
       </c>
       <c r="C67" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="D67" t="n">
-        <v>3.08</v>
+        <v>3.123</v>
       </c>
       <c r="E67" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="F67" t="n">
-        <v>21025.3008</v>
+        <v>643392.8205</v>
       </c>
       <c r="G67" t="n">
-        <v>3.113716666666666</v>
+        <v>3.113649999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2759,22 +2847,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.071</v>
+        <v>3.08</v>
       </c>
       <c r="C68" t="n">
-        <v>3.071</v>
+        <v>3.08</v>
       </c>
       <c r="D68" t="n">
-        <v>3.071</v>
+        <v>3.08</v>
       </c>
       <c r="E68" t="n">
-        <v>3.071</v>
+        <v>3.08</v>
       </c>
       <c r="F68" t="n">
-        <v>133830.6071</v>
+        <v>21025.3008</v>
       </c>
       <c r="G68" t="n">
-        <v>3.113066666666666</v>
+        <v>3.113716666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2794,22 +2882,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="C69" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="D69" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="E69" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="F69" t="n">
-        <v>822.3694</v>
+        <v>133830.6071</v>
       </c>
       <c r="G69" t="n">
-        <v>3.112566666666666</v>
+        <v>3.113066666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2841,10 +2929,10 @@
         <v>3.08</v>
       </c>
       <c r="F70" t="n">
-        <v>150270.8744</v>
+        <v>822.3694</v>
       </c>
       <c r="G70" t="n">
-        <v>3.111749999999999</v>
+        <v>3.112566666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2876,10 +2964,10 @@
         <v>3.08</v>
       </c>
       <c r="F71" t="n">
-        <v>86978.8936</v>
+        <v>150270.8744</v>
       </c>
       <c r="G71" t="n">
-        <v>3.110766666666666</v>
+        <v>3.111749999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2899,22 +2987,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="C72" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="D72" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="E72" t="n">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="F72" t="n">
-        <v>1182.9201</v>
+        <v>86978.8936</v>
       </c>
       <c r="G72" t="n">
-        <v>3.110083333333333</v>
+        <v>3.110766666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2934,22 +3022,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="C73" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="D73" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="E73" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="F73" t="n">
-        <v>28822.4637</v>
+        <v>1182.9201</v>
       </c>
       <c r="G73" t="n">
-        <v>3.109966666666666</v>
+        <v>3.110083333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,22 +3057,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.075</v>
+        <v>3.08</v>
       </c>
       <c r="C74" t="n">
-        <v>3.075</v>
+        <v>3.08</v>
       </c>
       <c r="D74" t="n">
-        <v>3.075</v>
+        <v>3.08</v>
       </c>
       <c r="E74" t="n">
-        <v>3.075</v>
+        <v>3.08</v>
       </c>
       <c r="F74" t="n">
-        <v>135044.1922</v>
+        <v>28822.4637</v>
       </c>
       <c r="G74" t="n">
-        <v>3.11005</v>
+        <v>3.109966666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3016,10 +3104,10 @@
         <v>3.075</v>
       </c>
       <c r="F75" t="n">
-        <v>29907.3886</v>
+        <v>135044.1922</v>
       </c>
       <c r="G75" t="n">
-        <v>3.1103</v>
+        <v>3.11005</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3051,10 +3139,10 @@
         <v>3.075</v>
       </c>
       <c r="F76" t="n">
-        <v>22571.2777</v>
+        <v>29907.3886</v>
       </c>
       <c r="G76" t="n">
-        <v>3.1107</v>
+        <v>3.1103</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3086,10 +3174,10 @@
         <v>3.075</v>
       </c>
       <c r="F77" t="n">
-        <v>105618.362</v>
+        <v>22571.2777</v>
       </c>
       <c r="G77" t="n">
-        <v>3.110949999999999</v>
+        <v>3.1107</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,22 +3197,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.072</v>
+        <v>3.075</v>
       </c>
       <c r="C78" t="n">
-        <v>3.072</v>
+        <v>3.075</v>
       </c>
       <c r="D78" t="n">
-        <v>3.072</v>
+        <v>3.075</v>
       </c>
       <c r="E78" t="n">
-        <v>3.072</v>
+        <v>3.075</v>
       </c>
       <c r="F78" t="n">
-        <v>174784.7502</v>
+        <v>105618.362</v>
       </c>
       <c r="G78" t="n">
-        <v>3.111316666666666</v>
+        <v>3.110949999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,22 +3232,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.071</v>
+        <v>3.072</v>
       </c>
       <c r="C79" t="n">
-        <v>3.071</v>
+        <v>3.072</v>
       </c>
       <c r="D79" t="n">
-        <v>3.071</v>
+        <v>3.072</v>
       </c>
       <c r="E79" t="n">
-        <v>3.071</v>
+        <v>3.072</v>
       </c>
       <c r="F79" t="n">
-        <v>163269.802</v>
+        <v>174784.7502</v>
       </c>
       <c r="G79" t="n">
-        <v>3.111666666666665</v>
+        <v>3.111316666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3179,22 +3267,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="C80" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="D80" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="E80" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="F80" t="n">
-        <v>2949.1554</v>
+        <v>163269.802</v>
       </c>
       <c r="G80" t="n">
-        <v>3.112333333333332</v>
+        <v>3.111666666666665</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3214,22 +3302,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="C81" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="D81" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="E81" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="F81" t="n">
-        <v>16240.6382</v>
+        <v>2949.1554</v>
       </c>
       <c r="G81" t="n">
-        <v>3.112783333333332</v>
+        <v>3.112333333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3249,22 +3337,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.074</v>
+        <v>3.071</v>
       </c>
       <c r="C82" t="n">
-        <v>3.074</v>
+        <v>3.071</v>
       </c>
       <c r="D82" t="n">
-        <v>3.074</v>
+        <v>3.071</v>
       </c>
       <c r="E82" t="n">
-        <v>3.074</v>
+        <v>3.071</v>
       </c>
       <c r="F82" t="n">
-        <v>142901.8622</v>
+        <v>16240.6382</v>
       </c>
       <c r="G82" t="n">
-        <v>3.113183333333332</v>
+        <v>3.112783333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3284,22 +3372,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.073</v>
+        <v>3.074</v>
       </c>
       <c r="C83" t="n">
-        <v>3.07</v>
+        <v>3.074</v>
       </c>
       <c r="D83" t="n">
-        <v>3.073</v>
+        <v>3.074</v>
       </c>
       <c r="E83" t="n">
-        <v>3.07</v>
+        <v>3.074</v>
       </c>
       <c r="F83" t="n">
-        <v>1082595.6488</v>
+        <v>142901.8622</v>
       </c>
       <c r="G83" t="n">
-        <v>3.113049999999999</v>
+        <v>3.113183333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3319,22 +3407,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.07</v>
+        <v>3.073</v>
       </c>
       <c r="C84" t="n">
         <v>3.07</v>
       </c>
       <c r="D84" t="n">
-        <v>3.07</v>
+        <v>3.073</v>
       </c>
       <c r="E84" t="n">
         <v>3.07</v>
       </c>
       <c r="F84" t="n">
-        <v>64490.4353</v>
+        <v>1082595.6488</v>
       </c>
       <c r="G84" t="n">
-        <v>3.112883333333331</v>
+        <v>3.113049999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3354,22 +3442,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="C85" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="D85" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="E85" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="F85" t="n">
-        <v>90113.0765</v>
+        <v>64490.4353</v>
       </c>
       <c r="G85" t="n">
-        <v>3.113049999999998</v>
+        <v>3.112883333333331</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3389,22 +3477,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="C86" t="n">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="D86" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="E86" t="n">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="F86" t="n">
-        <v>1912290.9053</v>
+        <v>90113.0765</v>
       </c>
       <c r="G86" t="n">
-        <v>3.112883333333331</v>
+        <v>3.113049999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3424,22 +3512,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="C87" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="D87" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="E87" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="F87" t="n">
-        <v>247.7505</v>
+        <v>1912290.9053</v>
       </c>
       <c r="G87" t="n">
-        <v>3.112583333333331</v>
+        <v>3.112883333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3459,22 +3547,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="C88" t="n">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="D88" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="E88" t="n">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="F88" t="n">
-        <v>152591.8159</v>
+        <v>247.7505</v>
       </c>
       <c r="G88" t="n">
-        <v>3.111949999999998</v>
+        <v>3.112583333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3494,22 +3582,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="C89" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="D89" t="n">
-        <v>3.09</v>
+        <v>3.071</v>
       </c>
       <c r="E89" t="n">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="F89" t="n">
-        <v>16698.8353</v>
+        <v>152591.8159</v>
       </c>
       <c r="G89" t="n">
-        <v>3.111449999999997</v>
+        <v>3.111949999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3541,10 +3629,10 @@
         <v>3.09</v>
       </c>
       <c r="F90" t="n">
-        <v>9650.5152</v>
+        <v>16698.8353</v>
       </c>
       <c r="G90" t="n">
-        <v>3.110949999999997</v>
+        <v>3.111449999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3576,10 +3664,10 @@
         <v>3.09</v>
       </c>
       <c r="F91" t="n">
-        <v>14522.945</v>
+        <v>9650.5152</v>
       </c>
       <c r="G91" t="n">
-        <v>3.110099999999997</v>
+        <v>3.110949999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3611,10 +3699,10 @@
         <v>3.09</v>
       </c>
       <c r="F92" t="n">
-        <v>48706.0786</v>
+        <v>14522.945</v>
       </c>
       <c r="G92" t="n">
-        <v>3.109199999999997</v>
+        <v>3.110099999999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3634,22 +3722,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.098</v>
+        <v>3.09</v>
       </c>
       <c r="C93" t="n">
-        <v>3.098</v>
+        <v>3.09</v>
       </c>
       <c r="D93" t="n">
-        <v>3.098</v>
+        <v>3.09</v>
       </c>
       <c r="E93" t="n">
-        <v>3.098</v>
+        <v>3.09</v>
       </c>
       <c r="F93" t="n">
-        <v>166.9142</v>
+        <v>48706.0786</v>
       </c>
       <c r="G93" t="n">
-        <v>3.108349999999998</v>
+        <v>3.109199999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3681,10 +3769,10 @@
         <v>3.098</v>
       </c>
       <c r="F94" t="n">
-        <v>5349.651</v>
+        <v>166.9142</v>
       </c>
       <c r="G94" t="n">
-        <v>3.107583333333331</v>
+        <v>3.108349999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3716,10 +3804,10 @@
         <v>3.098</v>
       </c>
       <c r="F95" t="n">
-        <v>32163.9957</v>
+        <v>5349.651</v>
       </c>
       <c r="G95" t="n">
-        <v>3.102899999999998</v>
+        <v>3.107583333333331</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3739,22 +3827,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.09</v>
+        <v>3.098</v>
       </c>
       <c r="C96" t="n">
-        <v>3.09</v>
+        <v>3.098</v>
       </c>
       <c r="D96" t="n">
-        <v>3.09</v>
+        <v>3.098</v>
       </c>
       <c r="E96" t="n">
-        <v>3.09</v>
+        <v>3.098</v>
       </c>
       <c r="F96" t="n">
-        <v>66556.5209</v>
+        <v>32163.9957</v>
       </c>
       <c r="G96" t="n">
-        <v>3.100899999999998</v>
+        <v>3.102899999999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3774,22 +3862,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="C97" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="D97" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="E97" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="F97" t="n">
-        <v>374.5594</v>
+        <v>66556.5209</v>
       </c>
       <c r="G97" t="n">
-        <v>3.100416666666665</v>
+        <v>3.100899999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3809,22 +3897,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.09</v>
+        <v>3.111</v>
       </c>
       <c r="C98" t="n">
-        <v>3.09</v>
+        <v>3.111</v>
       </c>
       <c r="D98" t="n">
-        <v>3.09</v>
+        <v>3.111</v>
       </c>
       <c r="E98" t="n">
-        <v>3.09</v>
+        <v>3.111</v>
       </c>
       <c r="F98" t="n">
-        <v>203777.1082</v>
+        <v>374.5594</v>
       </c>
       <c r="G98" t="n">
-        <v>3.099416666666665</v>
+        <v>3.100416666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3844,22 +3932,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="C99" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="D99" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="E99" t="n">
-        <v>3.111</v>
+        <v>3.09</v>
       </c>
       <c r="F99" t="n">
-        <v>281.1245</v>
+        <v>203777.1082</v>
       </c>
       <c r="G99" t="n">
-        <v>3.098766666666664</v>
+        <v>3.099416666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3879,22 +3967,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.091</v>
+        <v>3.111</v>
       </c>
       <c r="C100" t="n">
-        <v>3.091</v>
+        <v>3.111</v>
       </c>
       <c r="D100" t="n">
-        <v>3.091</v>
+        <v>3.111</v>
       </c>
       <c r="E100" t="n">
-        <v>3.091</v>
+        <v>3.111</v>
       </c>
       <c r="F100" t="n">
-        <v>2651.1363</v>
+        <v>281.1245</v>
       </c>
       <c r="G100" t="n">
-        <v>3.097783333333331</v>
+        <v>3.098766666666664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3917,19 +4005,19 @@
         <v>3.091</v>
       </c>
       <c r="C101" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="D101" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="E101" t="n">
         <v>3.091</v>
       </c>
       <c r="F101" t="n">
-        <v>4807.1011</v>
+        <v>2651.1363</v>
       </c>
       <c r="G101" t="n">
-        <v>3.097299999999998</v>
+        <v>3.097783333333331</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +4037,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.093</v>
+        <v>3.091</v>
       </c>
       <c r="C102" t="n">
-        <v>3.091</v>
+        <v>3.111</v>
       </c>
       <c r="D102" t="n">
-        <v>3.093</v>
+        <v>3.111</v>
       </c>
       <c r="E102" t="n">
         <v>3.091</v>
       </c>
       <c r="F102" t="n">
-        <v>205005</v>
+        <v>4807.1011</v>
       </c>
       <c r="G102" t="n">
-        <v>3.096483333333332</v>
+        <v>3.097299999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3984,22 +4072,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.091</v>
+        <v>3.093</v>
       </c>
       <c r="C103" t="n">
         <v>3.091</v>
       </c>
       <c r="D103" t="n">
-        <v>3.091</v>
+        <v>3.093</v>
       </c>
       <c r="E103" t="n">
         <v>3.091</v>
       </c>
       <c r="F103" t="n">
-        <v>278644.782</v>
+        <v>205005</v>
       </c>
       <c r="G103" t="n">
-        <v>3.095399999999998</v>
+        <v>3.096483333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4019,22 +4107,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="C104" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="D104" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="E104" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="F104" t="n">
-        <v>280</v>
+        <v>278644.782</v>
       </c>
       <c r="G104" t="n">
-        <v>3.094649999999998</v>
+        <v>3.095399999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4066,10 +4154,10 @@
         <v>3.111</v>
       </c>
       <c r="F105" t="n">
-        <v>16031.7624</v>
+        <v>280</v>
       </c>
       <c r="G105" t="n">
-        <v>3.094449999999998</v>
+        <v>3.094649999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,22 +4177,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="C106" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="D106" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="E106" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="F106" t="n">
-        <v>1136.6059</v>
+        <v>16031.7624</v>
       </c>
       <c r="G106" t="n">
-        <v>3.093933333333332</v>
+        <v>3.094449999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4124,22 +4212,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.111</v>
+        <v>3.092</v>
       </c>
       <c r="C107" t="n">
-        <v>3.111</v>
+        <v>3.092</v>
       </c>
       <c r="D107" t="n">
-        <v>3.111</v>
+        <v>3.092</v>
       </c>
       <c r="E107" t="n">
-        <v>3.111</v>
+        <v>3.092</v>
       </c>
       <c r="F107" t="n">
-        <v>459.0808</v>
+        <v>1136.6059</v>
       </c>
       <c r="G107" t="n">
-        <v>3.093016666666665</v>
+        <v>3.093933333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4159,22 +4247,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="C108" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="D108" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="E108" t="n">
-        <v>3.092</v>
+        <v>3.111</v>
       </c>
       <c r="F108" t="n">
-        <v>144106.3789</v>
+        <v>459.0808</v>
       </c>
       <c r="G108" t="n">
-        <v>3.091599999999999</v>
+        <v>3.093016666666665</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4194,22 +4282,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.091</v>
+        <v>3.092</v>
       </c>
       <c r="C109" t="n">
-        <v>3.091</v>
+        <v>3.092</v>
       </c>
       <c r="D109" t="n">
-        <v>3.091</v>
+        <v>3.092</v>
       </c>
       <c r="E109" t="n">
-        <v>3.091</v>
+        <v>3.092</v>
       </c>
       <c r="F109" t="n">
-        <v>985378.7565</v>
+        <v>144106.3789</v>
       </c>
       <c r="G109" t="n">
-        <v>3.091066666666666</v>
+        <v>3.091599999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4229,22 +4317,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.09</v>
+        <v>3.091</v>
       </c>
       <c r="C110" t="n">
-        <v>3.09</v>
+        <v>3.091</v>
       </c>
       <c r="D110" t="n">
-        <v>3.09</v>
+        <v>3.091</v>
       </c>
       <c r="E110" t="n">
-        <v>3.09</v>
+        <v>3.091</v>
       </c>
       <c r="F110" t="n">
-        <v>4943.3986</v>
+        <v>985378.7565</v>
       </c>
       <c r="G110" t="n">
-        <v>3.090516666666666</v>
+        <v>3.091066666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4264,22 +4352,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.091</v>
+        <v>3.09</v>
       </c>
       <c r="C111" t="n">
-        <v>3.091</v>
+        <v>3.09</v>
       </c>
       <c r="D111" t="n">
-        <v>3.091</v>
+        <v>3.09</v>
       </c>
       <c r="E111" t="n">
-        <v>3.091</v>
+        <v>3.09</v>
       </c>
       <c r="F111" t="n">
-        <v>108008.0449</v>
+        <v>4943.3986</v>
       </c>
       <c r="G111" t="n">
-        <v>3.09015</v>
+        <v>3.090516666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4299,22 +4387,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="C112" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="D112" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="E112" t="n">
-        <v>3.111</v>
+        <v>3.091</v>
       </c>
       <c r="F112" t="n">
-        <v>31658.0991</v>
+        <v>108008.0449</v>
       </c>
       <c r="G112" t="n">
-        <v>3.090666666666666</v>
+        <v>3.09015</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4334,22 +4422,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.112</v>
+        <v>3.111</v>
       </c>
       <c r="C113" t="n">
         <v>3.111</v>
       </c>
       <c r="D113" t="n">
-        <v>3.112</v>
+        <v>3.111</v>
       </c>
       <c r="E113" t="n">
         <v>3.111</v>
       </c>
       <c r="F113" t="n">
-        <v>162614.129</v>
+        <v>31658.0991</v>
       </c>
       <c r="G113" t="n">
-        <v>3.091183333333332</v>
+        <v>3.090666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4369,22 +4457,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.125</v>
+        <v>3.112</v>
       </c>
       <c r="C114" t="n">
-        <v>3.125</v>
+        <v>3.111</v>
       </c>
       <c r="D114" t="n">
-        <v>3.125</v>
+        <v>3.112</v>
       </c>
       <c r="E114" t="n">
-        <v>3.125</v>
+        <v>3.111</v>
       </c>
       <c r="F114" t="n">
-        <v>124800</v>
+        <v>162614.129</v>
       </c>
       <c r="G114" t="n">
-        <v>3.091933333333332</v>
+        <v>3.091183333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4416,10 +4504,10 @@
         <v>3.125</v>
       </c>
       <c r="F115" t="n">
-        <v>3082.9894</v>
+        <v>124800</v>
       </c>
       <c r="G115" t="n">
-        <v>3.093016666666665</v>
+        <v>3.091933333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4439,19 +4527,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="C116" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="D116" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="E116" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="F116" t="n">
-        <v>245.38</v>
+        <v>3082.9894</v>
       </c>
       <c r="G116" t="n">
         <v>3.093016666666665</v>
@@ -4486,7 +4574,7 @@
         <v>3.1</v>
       </c>
       <c r="F117" t="n">
-        <v>643.1874</v>
+        <v>245.38</v>
       </c>
       <c r="G117" t="n">
         <v>3.093016666666665</v>
@@ -4521,7 +4609,7 @@
         <v>3.1</v>
       </c>
       <c r="F118" t="n">
-        <v>21339.2855</v>
+        <v>643.1874</v>
       </c>
       <c r="G118" t="n">
         <v>3.093016666666665</v>
@@ -4556,7 +4644,7 @@
         <v>3.1</v>
       </c>
       <c r="F119" t="n">
-        <v>6153.7444</v>
+        <v>21339.2855</v>
       </c>
       <c r="G119" t="n">
         <v>3.093016666666665</v>
@@ -4579,22 +4667,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="C120" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="D120" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="E120" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="F120" t="n">
-        <v>62005.0077</v>
+        <v>6153.7444</v>
       </c>
       <c r="G120" t="n">
-        <v>3.092849999999999</v>
+        <v>3.093016666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4626,7 +4714,7 @@
         <v>3.11</v>
       </c>
       <c r="F121" t="n">
-        <v>16088.7096</v>
+        <v>62005.0077</v>
       </c>
       <c r="G121" t="n">
         <v>3.092849999999999</v>
@@ -4649,22 +4737,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="C122" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="D122" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="E122" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="F122" t="n">
-        <v>411.422</v>
+        <v>16088.7096</v>
       </c>
       <c r="G122" t="n">
-        <v>3.093249999999999</v>
+        <v>3.092849999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4696,10 +4784,10 @@
         <v>3.125</v>
       </c>
       <c r="F123" t="n">
-        <v>26644.6553</v>
+        <v>411.422</v>
       </c>
       <c r="G123" t="n">
-        <v>3.093283333333332</v>
+        <v>3.093249999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4722,19 +4810,19 @@
         <v>3.125</v>
       </c>
       <c r="C124" t="n">
-        <v>3.111</v>
+        <v>3.125</v>
       </c>
       <c r="D124" t="n">
         <v>3.125</v>
       </c>
       <c r="E124" t="n">
-        <v>3.111</v>
+        <v>3.125</v>
       </c>
       <c r="F124" t="n">
-        <v>1330.92</v>
+        <v>26644.6553</v>
       </c>
       <c r="G124" t="n">
-        <v>3.093083333333332</v>
+        <v>3.093283333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4754,22 +4842,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="C125" t="n">
         <v>3.111</v>
       </c>
-      <c r="C125" t="n">
-        <v>3.112</v>
-      </c>
       <c r="D125" t="n">
-        <v>3.112</v>
+        <v>3.125</v>
       </c>
       <c r="E125" t="n">
         <v>3.111</v>
       </c>
       <c r="F125" t="n">
-        <v>2683.51</v>
+        <v>1330.92</v>
       </c>
       <c r="G125" t="n">
-        <v>3.092883333333332</v>
+        <v>3.093083333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4789,7 +4877,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.112</v>
+        <v>3.111</v>
       </c>
       <c r="C126" t="n">
         <v>3.112</v>
@@ -4798,13 +4886,13 @@
         <v>3.112</v>
       </c>
       <c r="E126" t="n">
-        <v>3.112</v>
+        <v>3.111</v>
       </c>
       <c r="F126" t="n">
-        <v>922.4299999999999</v>
+        <v>2683.51</v>
       </c>
       <c r="G126" t="n">
-        <v>3.093583333333332</v>
+        <v>3.092883333333332</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4824,22 +4912,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.113</v>
+        <v>3.112</v>
       </c>
       <c r="C127" t="n">
-        <v>3.113</v>
+        <v>3.112</v>
       </c>
       <c r="D127" t="n">
-        <v>3.113</v>
+        <v>3.112</v>
       </c>
       <c r="E127" t="n">
-        <v>3.113</v>
+        <v>3.112</v>
       </c>
       <c r="F127" t="n">
-        <v>300.03</v>
+        <v>922.4299999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>3.094133333333332</v>
+        <v>3.093583333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4871,10 +4959,10 @@
         <v>3.113</v>
       </c>
       <c r="F128" t="n">
-        <v>16654.1939</v>
+        <v>300.03</v>
       </c>
       <c r="G128" t="n">
-        <v>3.094833333333332</v>
+        <v>3.094133333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4894,22 +4982,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.112</v>
+        <v>3.113</v>
       </c>
       <c r="C129" t="n">
-        <v>3.112</v>
+        <v>3.113</v>
       </c>
       <c r="D129" t="n">
-        <v>3.112</v>
+        <v>3.113</v>
       </c>
       <c r="E129" t="n">
-        <v>3.112</v>
+        <v>3.113</v>
       </c>
       <c r="F129" t="n">
-        <v>46315.9988</v>
+        <v>16654.1939</v>
       </c>
       <c r="G129" t="n">
-        <v>3.095366666666665</v>
+        <v>3.094833333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4932,19 +5020,19 @@
         <v>3.112</v>
       </c>
       <c r="C130" t="n">
-        <v>3.1</v>
+        <v>3.112</v>
       </c>
       <c r="D130" t="n">
         <v>3.112</v>
       </c>
       <c r="E130" t="n">
-        <v>3.1</v>
+        <v>3.112</v>
       </c>
       <c r="F130" t="n">
-        <v>337240.656</v>
+        <v>46315.9988</v>
       </c>
       <c r="G130" t="n">
-        <v>3.095699999999998</v>
+        <v>3.095366666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4964,22 +5052,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.125</v>
+        <v>3.112</v>
       </c>
       <c r="C131" t="n">
-        <v>3.125</v>
+        <v>3.1</v>
       </c>
       <c r="D131" t="n">
-        <v>3.125</v>
+        <v>3.112</v>
       </c>
       <c r="E131" t="n">
-        <v>3.125</v>
+        <v>3.1</v>
       </c>
       <c r="F131" t="n">
-        <v>370.3697</v>
+        <v>337240.656</v>
       </c>
       <c r="G131" t="n">
-        <v>3.096449999999998</v>
+        <v>3.095699999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5011,10 +5099,10 @@
         <v>3.125</v>
       </c>
       <c r="F132" t="n">
-        <v>63007.6021</v>
+        <v>370.3697</v>
       </c>
       <c r="G132" t="n">
-        <v>3.096866666666664</v>
+        <v>3.096449999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5046,10 +5134,10 @@
         <v>3.125</v>
       </c>
       <c r="F133" t="n">
-        <v>1063123.3712</v>
+        <v>63007.6021</v>
       </c>
       <c r="G133" t="n">
-        <v>3.097616666666664</v>
+        <v>3.096866666666664</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5069,22 +5157,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.102</v>
+        <v>3.125</v>
       </c>
       <c r="C134" t="n">
-        <v>3.129</v>
+        <v>3.125</v>
       </c>
       <c r="D134" t="n">
-        <v>3.129</v>
+        <v>3.125</v>
       </c>
       <c r="E134" t="n">
-        <v>3.102</v>
+        <v>3.125</v>
       </c>
       <c r="F134" t="n">
-        <v>200200</v>
+        <v>1063123.3712</v>
       </c>
       <c r="G134" t="n">
-        <v>3.098516666666664</v>
+        <v>3.097616666666664</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5104,7 +5192,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.129</v>
+        <v>3.102</v>
       </c>
       <c r="C135" t="n">
         <v>3.129</v>
@@ -5113,13 +5201,13 @@
         <v>3.129</v>
       </c>
       <c r="E135" t="n">
-        <v>3.129</v>
+        <v>3.102</v>
       </c>
       <c r="F135" t="n">
-        <v>15939.5973</v>
+        <v>200200</v>
       </c>
       <c r="G135" t="n">
-        <v>3.099416666666664</v>
+        <v>3.098516666666664</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5142,19 +5230,19 @@
         <v>3.129</v>
       </c>
       <c r="C136" t="n">
-        <v>3.139</v>
+        <v>3.129</v>
       </c>
       <c r="D136" t="n">
-        <v>3.139</v>
+        <v>3.129</v>
       </c>
       <c r="E136" t="n">
         <v>3.129</v>
       </c>
       <c r="F136" t="n">
-        <v>46000</v>
+        <v>15939.5973</v>
       </c>
       <c r="G136" t="n">
-        <v>3.100483333333331</v>
+        <v>3.099416666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5174,22 +5262,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.112</v>
+        <v>3.129</v>
       </c>
       <c r="C137" t="n">
-        <v>3.112</v>
+        <v>3.139</v>
       </c>
       <c r="D137" t="n">
-        <v>3.112</v>
+        <v>3.139</v>
       </c>
       <c r="E137" t="n">
-        <v>3.112</v>
+        <v>3.129</v>
       </c>
       <c r="F137" t="n">
-        <v>39080</v>
+        <v>46000</v>
       </c>
       <c r="G137" t="n">
-        <v>3.101099999999998</v>
+        <v>3.100483333333331</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5221,10 +5309,10 @@
         <v>3.112</v>
       </c>
       <c r="F138" t="n">
-        <v>22950</v>
+        <v>39080</v>
       </c>
       <c r="G138" t="n">
-        <v>3.101766666666665</v>
+        <v>3.101099999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5244,22 +5332,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.102</v>
+        <v>3.112</v>
       </c>
       <c r="C139" t="n">
-        <v>3.102</v>
+        <v>3.112</v>
       </c>
       <c r="D139" t="n">
-        <v>3.102</v>
+        <v>3.112</v>
       </c>
       <c r="E139" t="n">
-        <v>3.102</v>
+        <v>3.112</v>
       </c>
       <c r="F139" t="n">
-        <v>500</v>
+        <v>22950</v>
       </c>
       <c r="G139" t="n">
-        <v>3.102283333333332</v>
+        <v>3.101766666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5279,22 +5367,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.129</v>
+        <v>3.102</v>
       </c>
       <c r="C140" t="n">
-        <v>3.129</v>
+        <v>3.102</v>
       </c>
       <c r="D140" t="n">
-        <v>3.129</v>
+        <v>3.102</v>
       </c>
       <c r="E140" t="n">
-        <v>3.129</v>
+        <v>3.102</v>
       </c>
       <c r="F140" t="n">
-        <v>332.9879</v>
+        <v>500</v>
       </c>
       <c r="G140" t="n">
-        <v>3.102933333333331</v>
+        <v>3.102283333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5402,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.102</v>
+        <v>3.129</v>
       </c>
       <c r="C141" t="n">
-        <v>3.102</v>
+        <v>3.129</v>
       </c>
       <c r="D141" t="n">
-        <v>3.102</v>
+        <v>3.129</v>
       </c>
       <c r="E141" t="n">
-        <v>3.102</v>
+        <v>3.129</v>
       </c>
       <c r="F141" t="n">
-        <v>71141.83</v>
+        <v>332.9879</v>
       </c>
       <c r="G141" t="n">
-        <v>3.103449999999998</v>
+        <v>3.102933333333331</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5352,19 +5440,19 @@
         <v>3.102</v>
       </c>
       <c r="C142" t="n">
-        <v>3.14</v>
+        <v>3.102</v>
       </c>
       <c r="D142" t="n">
-        <v>3.14</v>
+        <v>3.102</v>
       </c>
       <c r="E142" t="n">
         <v>3.102</v>
       </c>
       <c r="F142" t="n">
-        <v>497308.4475</v>
+        <v>71141.83</v>
       </c>
       <c r="G142" t="n">
-        <v>3.104549999999997</v>
+        <v>3.103449999999998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5384,22 +5472,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.139</v>
+        <v>3.102</v>
       </c>
       <c r="C143" t="n">
-        <v>3.129</v>
+        <v>3.14</v>
       </c>
       <c r="D143" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="E143" t="n">
-        <v>3.129</v>
+        <v>3.102</v>
       </c>
       <c r="F143" t="n">
-        <v>150645.2134</v>
+        <v>497308.4475</v>
       </c>
       <c r="G143" t="n">
-        <v>3.105533333333331</v>
+        <v>3.104549999999997</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,22 +5507,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.15</v>
+        <v>3.139</v>
       </c>
       <c r="C144" t="n">
-        <v>3.12</v>
+        <v>3.129</v>
       </c>
       <c r="D144" t="n">
         <v>3.15</v>
       </c>
       <c r="E144" t="n">
-        <v>3.11</v>
+        <v>3.129</v>
       </c>
       <c r="F144" t="n">
-        <v>81786.0668</v>
+        <v>150645.2134</v>
       </c>
       <c r="G144" t="n">
-        <v>3.106366666666664</v>
+        <v>3.105533333333331</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5454,22 +5542,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="C145" t="n">
         <v>3.12</v>
       </c>
       <c r="D145" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="E145" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="F145" t="n">
-        <v>32496.7872</v>
+        <v>81786.0668</v>
       </c>
       <c r="G145" t="n">
-        <v>3.106866666666664</v>
+        <v>3.106366666666664</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5489,7 +5577,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="C146" t="n">
         <v>3.12</v>
@@ -5501,10 +5589,10 @@
         <v>3.12</v>
       </c>
       <c r="F146" t="n">
-        <v>29528.8146</v>
+        <v>32496.7872</v>
       </c>
       <c r="G146" t="n">
-        <v>3.107699999999998</v>
+        <v>3.106866666666664</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5530,16 +5618,16 @@
         <v>3.12</v>
       </c>
       <c r="D147" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="E147" t="n">
         <v>3.12</v>
       </c>
       <c r="F147" t="n">
-        <v>3672.38</v>
+        <v>29528.8146</v>
       </c>
       <c r="G147" t="n">
-        <v>3.108199999999998</v>
+        <v>3.107699999999998</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5565,16 +5653,16 @@
         <v>3.12</v>
       </c>
       <c r="D148" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="E148" t="n">
-        <v>3.118</v>
+        <v>3.12</v>
       </c>
       <c r="F148" t="n">
-        <v>33753.1037</v>
+        <v>3672.38</v>
       </c>
       <c r="G148" t="n">
-        <v>3.109033333333331</v>
+        <v>3.108199999999998</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5594,22 +5682,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.112</v>
+        <v>3.12</v>
       </c>
       <c r="C149" t="n">
-        <v>3.113</v>
+        <v>3.12</v>
       </c>
       <c r="D149" t="n">
-        <v>3.113</v>
+        <v>3.14</v>
       </c>
       <c r="E149" t="n">
-        <v>3.112</v>
+        <v>3.118</v>
       </c>
       <c r="F149" t="n">
-        <v>2662.33</v>
+        <v>33753.1037</v>
       </c>
       <c r="G149" t="n">
-        <v>3.109416666666665</v>
+        <v>3.109033333333331</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5629,22 +5717,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C150" t="n">
         <v>3.113</v>
-      </c>
-      <c r="C150" t="n">
-        <v>3.11</v>
       </c>
       <c r="D150" t="n">
         <v>3.113</v>
       </c>
       <c r="E150" t="n">
-        <v>3.11</v>
+        <v>3.112</v>
       </c>
       <c r="F150" t="n">
-        <v>120380.4</v>
+        <v>2662.33</v>
       </c>
       <c r="G150" t="n">
-        <v>3.109749999999998</v>
+        <v>3.109416666666665</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,22 +5752,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.112</v>
+        <v>3.113</v>
       </c>
       <c r="C151" t="n">
-        <v>3.102</v>
+        <v>3.11</v>
       </c>
       <c r="D151" t="n">
-        <v>3.112</v>
+        <v>3.113</v>
       </c>
       <c r="E151" t="n">
-        <v>3.102</v>
+        <v>3.11</v>
       </c>
       <c r="F151" t="n">
-        <v>16111.3286</v>
+        <v>120380.4</v>
       </c>
       <c r="G151" t="n">
-        <v>3.109949999999998</v>
+        <v>3.109749999999998</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5711,10 +5799,10 @@
         <v>3.102</v>
       </c>
       <c r="F152" t="n">
-        <v>85449.52680000001</v>
+        <v>16111.3286</v>
       </c>
       <c r="G152" t="n">
-        <v>3.110149999999998</v>
+        <v>3.109949999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5734,22 +5822,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.102</v>
+        <v>3.112</v>
       </c>
       <c r="C153" t="n">
         <v>3.102</v>
       </c>
       <c r="D153" t="n">
-        <v>3.102</v>
+        <v>3.112</v>
       </c>
       <c r="E153" t="n">
         <v>3.102</v>
       </c>
       <c r="F153" t="n">
-        <v>696.35</v>
+        <v>85449.52680000001</v>
       </c>
       <c r="G153" t="n">
-        <v>3.110216666666665</v>
+        <v>3.110149999999998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5769,22 +5857,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.14</v>
+        <v>3.102</v>
       </c>
       <c r="C154" t="n">
-        <v>3.14</v>
+        <v>3.102</v>
       </c>
       <c r="D154" t="n">
-        <v>3.14</v>
+        <v>3.102</v>
       </c>
       <c r="E154" t="n">
-        <v>3.14</v>
+        <v>3.102</v>
       </c>
       <c r="F154" t="n">
-        <v>502.2745</v>
+        <v>696.35</v>
       </c>
       <c r="G154" t="n">
-        <v>3.110916666666664</v>
+        <v>3.110216666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5804,22 +5892,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="C155" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="D155" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="E155" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="F155" t="n">
-        <v>997.28</v>
+        <v>502.2745</v>
       </c>
       <c r="G155" t="n">
-        <v>3.111116666666665</v>
+        <v>3.110916666666664</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5851,10 +5939,10 @@
         <v>3.11</v>
       </c>
       <c r="F156" t="n">
-        <v>44986.8978</v>
+        <v>997.28</v>
       </c>
       <c r="G156" t="n">
-        <v>3.111449999999998</v>
+        <v>3.111116666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5874,22 +5962,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="C157" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="D157" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="E157" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="F157" t="n">
-        <v>16043.7579</v>
+        <v>44986.8978</v>
       </c>
       <c r="G157" t="n">
-        <v>3.111933333333331</v>
+        <v>3.111449999999998</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5909,22 +5997,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.112</v>
+        <v>3.14</v>
       </c>
       <c r="C158" t="n">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="D158" t="n">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="E158" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="F158" t="n">
-        <v>90596.0003</v>
+        <v>16043.7579</v>
       </c>
       <c r="G158" t="n">
-        <v>3.112599999999998</v>
+        <v>3.111933333333331</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5947,19 +6035,19 @@
         <v>3.112</v>
       </c>
       <c r="C159" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="D159" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="E159" t="n">
         <v>3.11</v>
       </c>
       <c r="F159" t="n">
-        <v>84913.29519999999</v>
+        <v>90596.0003</v>
       </c>
       <c r="G159" t="n">
-        <v>3.112583333333331</v>
+        <v>3.112599999999998</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5979,22 +6067,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C160" t="n">
         <v>3.11</v>
       </c>
-      <c r="C160" t="n">
-        <v>3.13</v>
-      </c>
       <c r="D160" t="n">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="E160" t="n">
         <v>3.11</v>
       </c>
       <c r="F160" t="n">
-        <v>24518.0845</v>
+        <v>84913.29519999999</v>
       </c>
       <c r="G160" t="n">
-        <v>3.113233333333331</v>
+        <v>3.112583333333331</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6014,22 +6102,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="C161" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="D161" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="E161" t="n">
         <v>3.11</v>
       </c>
       <c r="F161" t="n">
-        <v>52030.2496</v>
+        <v>24518.0845</v>
       </c>
       <c r="G161" t="n">
-        <v>3.113216666666665</v>
+        <v>3.113233333333331</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6049,22 +6137,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="C162" t="n">
         <v>3.11</v>
       </c>
       <c r="D162" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="E162" t="n">
         <v>3.11</v>
       </c>
       <c r="F162" t="n">
-        <v>12900</v>
+        <v>52030.2496</v>
       </c>
       <c r="G162" t="n">
-        <v>3.113533333333331</v>
+        <v>3.113216666666665</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6084,22 +6172,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="C163" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="D163" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="E163" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="F163" t="n">
-        <v>1275.5555</v>
+        <v>12900</v>
       </c>
       <c r="G163" t="n">
-        <v>3.114183333333331</v>
+        <v>3.113533333333331</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6119,22 +6207,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.108</v>
+        <v>3.13</v>
       </c>
       <c r="C164" t="n">
-        <v>3.108</v>
+        <v>3.13</v>
       </c>
       <c r="D164" t="n">
-        <v>3.108</v>
+        <v>3.13</v>
       </c>
       <c r="E164" t="n">
-        <v>3.108</v>
+        <v>3.13</v>
       </c>
       <c r="F164" t="n">
-        <v>19095.5314</v>
+        <v>1275.5555</v>
       </c>
       <c r="G164" t="n">
-        <v>3.114133333333332</v>
+        <v>3.114183333333331</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6166,10 +6254,10 @@
         <v>3.108</v>
       </c>
       <c r="F165" t="n">
-        <v>904.4686</v>
+        <v>19095.5314</v>
       </c>
       <c r="G165" t="n">
-        <v>3.114083333333332</v>
+        <v>3.114133333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6201,10 +6289,10 @@
         <v>3.108</v>
       </c>
       <c r="F166" t="n">
-        <v>15142.8286</v>
+        <v>904.4686</v>
       </c>
       <c r="G166" t="n">
-        <v>3.114349999999999</v>
+        <v>3.114083333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6224,22 +6312,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.106</v>
+        <v>3.108</v>
       </c>
       <c r="C167" t="n">
-        <v>3.106</v>
+        <v>3.108</v>
       </c>
       <c r="D167" t="n">
-        <v>3.106</v>
+        <v>3.108</v>
       </c>
       <c r="E167" t="n">
-        <v>3.106</v>
+        <v>3.108</v>
       </c>
       <c r="F167" t="n">
-        <v>46178.2822</v>
+        <v>15142.8286</v>
       </c>
       <c r="G167" t="n">
-        <v>3.114266666666665</v>
+        <v>3.114349999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6271,10 +6359,10 @@
         <v>3.106</v>
       </c>
       <c r="F168" t="n">
-        <v>379049.7462</v>
+        <v>46178.2822</v>
       </c>
       <c r="G168" t="n">
-        <v>3.114499999999998</v>
+        <v>3.114266666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6297,19 +6385,19 @@
         <v>3.106</v>
       </c>
       <c r="C169" t="n">
-        <v>3.104</v>
+        <v>3.106</v>
       </c>
       <c r="D169" t="n">
         <v>3.106</v>
       </c>
       <c r="E169" t="n">
-        <v>3.104</v>
+        <v>3.106</v>
       </c>
       <c r="F169" t="n">
-        <v>32971.8163</v>
+        <v>379049.7462</v>
       </c>
       <c r="G169" t="n">
-        <v>3.114716666666665</v>
+        <v>3.114499999999998</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6332,19 +6420,19 @@
         <v>3.106</v>
       </c>
       <c r="C170" t="n">
-        <v>3.106</v>
+        <v>3.104</v>
       </c>
       <c r="D170" t="n">
         <v>3.106</v>
       </c>
       <c r="E170" t="n">
-        <v>3.106</v>
+        <v>3.104</v>
       </c>
       <c r="F170" t="n">
-        <v>61661.7021</v>
+        <v>32971.8163</v>
       </c>
       <c r="G170" t="n">
-        <v>3.114983333333332</v>
+        <v>3.114716666666665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6376,10 +6464,10 @@
         <v>3.106</v>
       </c>
       <c r="F171" t="n">
-        <v>457.107</v>
+        <v>61661.7021</v>
       </c>
       <c r="G171" t="n">
-        <v>3.115233333333331</v>
+        <v>3.114983333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6399,22 +6487,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.139</v>
+        <v>3.106</v>
       </c>
       <c r="C172" t="n">
-        <v>3.139</v>
+        <v>3.106</v>
       </c>
       <c r="D172" t="n">
-        <v>3.139</v>
+        <v>3.106</v>
       </c>
       <c r="E172" t="n">
-        <v>3.139</v>
+        <v>3.106</v>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>457.107</v>
       </c>
       <c r="G172" t="n">
-        <v>3.115699999999998</v>
+        <v>3.115233333333331</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6434,22 +6522,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.106</v>
+        <v>3.139</v>
       </c>
       <c r="C173" t="n">
-        <v>3.106</v>
+        <v>3.139</v>
       </c>
       <c r="D173" t="n">
-        <v>3.106</v>
+        <v>3.139</v>
       </c>
       <c r="E173" t="n">
-        <v>3.106</v>
+        <v>3.139</v>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G173" t="n">
-        <v>3.115616666666665</v>
+        <v>3.115699999999998</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6469,22 +6557,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.139</v>
+        <v>3.106</v>
       </c>
       <c r="C174" t="n">
         <v>3.106</v>
       </c>
       <c r="D174" t="n">
-        <v>3.139</v>
+        <v>3.106</v>
       </c>
       <c r="E174" t="n">
         <v>3.106</v>
       </c>
       <c r="F174" t="n">
-        <v>805.0055</v>
+        <v>500</v>
       </c>
       <c r="G174" t="n">
-        <v>3.115299999999998</v>
+        <v>3.115616666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6504,22 +6592,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.128</v>
+        <v>3.139</v>
       </c>
       <c r="C175" t="n">
-        <v>3.128</v>
+        <v>3.106</v>
       </c>
       <c r="D175" t="n">
-        <v>3.128</v>
+        <v>3.139</v>
       </c>
       <c r="E175" t="n">
-        <v>3.128</v>
+        <v>3.106</v>
       </c>
       <c r="F175" t="n">
-        <v>689.322</v>
+        <v>805.0055</v>
       </c>
       <c r="G175" t="n">
-        <v>3.115349999999998</v>
+        <v>3.115299999999998</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6539,22 +6627,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.103</v>
+        <v>3.128</v>
       </c>
       <c r="C176" t="n">
-        <v>3.103</v>
+        <v>3.128</v>
       </c>
       <c r="D176" t="n">
-        <v>3.103</v>
+        <v>3.128</v>
       </c>
       <c r="E176" t="n">
-        <v>3.103</v>
+        <v>3.128</v>
       </c>
       <c r="F176" t="n">
-        <v>500</v>
+        <v>689.322</v>
       </c>
       <c r="G176" t="n">
-        <v>3.115399999999998</v>
+        <v>3.115349999999998</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6574,22 +6662,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.104</v>
+        <v>3.103</v>
       </c>
       <c r="C177" t="n">
-        <v>3.104</v>
+        <v>3.103</v>
       </c>
       <c r="D177" t="n">
-        <v>3.104</v>
+        <v>3.103</v>
       </c>
       <c r="E177" t="n">
-        <v>3.104</v>
+        <v>3.103</v>
       </c>
       <c r="F177" t="n">
-        <v>1000.3769</v>
+        <v>500</v>
       </c>
       <c r="G177" t="n">
-        <v>3.115466666666665</v>
+        <v>3.115399999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6621,10 +6709,10 @@
         <v>3.104</v>
       </c>
       <c r="F178" t="n">
-        <v>199.6231</v>
+        <v>1000.3769</v>
       </c>
       <c r="G178" t="n">
-        <v>3.115533333333332</v>
+        <v>3.115466666666665</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6644,22 +6732,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.109</v>
+        <v>3.104</v>
       </c>
       <c r="C179" t="n">
-        <v>3.109</v>
+        <v>3.104</v>
       </c>
       <c r="D179" t="n">
-        <v>3.109</v>
+        <v>3.104</v>
       </c>
       <c r="E179" t="n">
-        <v>3.109</v>
+        <v>3.104</v>
       </c>
       <c r="F179" t="n">
-        <v>160.8235</v>
+        <v>199.6231</v>
       </c>
       <c r="G179" t="n">
-        <v>3.115683333333332</v>
+        <v>3.115533333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6679,22 +6767,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.104</v>
+        <v>3.109</v>
       </c>
       <c r="C180" t="n">
-        <v>3.119</v>
+        <v>3.109</v>
       </c>
       <c r="D180" t="n">
-        <v>3.119</v>
+        <v>3.109</v>
       </c>
       <c r="E180" t="n">
-        <v>3.103</v>
+        <v>3.109</v>
       </c>
       <c r="F180" t="n">
-        <v>599641.2831999999</v>
+        <v>160.8235</v>
       </c>
       <c r="G180" t="n">
-        <v>3.115833333333332</v>
+        <v>3.115683333333332</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6714,22 +6802,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.103</v>
+        <v>3.104</v>
       </c>
       <c r="C181" t="n">
-        <v>3.103</v>
+        <v>3.119</v>
       </c>
       <c r="D181" t="n">
-        <v>3.103</v>
+        <v>3.119</v>
       </c>
       <c r="E181" t="n">
         <v>3.103</v>
       </c>
       <c r="F181" t="n">
-        <v>500</v>
+        <v>599641.2831999999</v>
       </c>
       <c r="G181" t="n">
-        <v>3.115716666666665</v>
+        <v>3.115833333333332</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6761,10 +6849,10 @@
         <v>3.103</v>
       </c>
       <c r="F182" t="n">
-        <v>243656.3451</v>
+        <v>500</v>
       </c>
       <c r="G182" t="n">
-        <v>3.115349999999999</v>
+        <v>3.115716666666665</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6784,22 +6872,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.119</v>
+        <v>3.103</v>
       </c>
       <c r="C183" t="n">
-        <v>3.119</v>
+        <v>3.103</v>
       </c>
       <c r="D183" t="n">
-        <v>3.119</v>
+        <v>3.103</v>
       </c>
       <c r="E183" t="n">
-        <v>3.119</v>
+        <v>3.103</v>
       </c>
       <c r="F183" t="n">
-        <v>500</v>
+        <v>243656.3451</v>
       </c>
       <c r="G183" t="n">
-        <v>3.115249999999999</v>
+        <v>3.115349999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6831,10 +6919,10 @@
         <v>3.119</v>
       </c>
       <c r="F184" t="n">
-        <v>3569.5979</v>
+        <v>500</v>
       </c>
       <c r="G184" t="n">
-        <v>3.115383333333333</v>
+        <v>3.115249999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6866,10 +6954,10 @@
         <v>3.119</v>
       </c>
       <c r="F185" t="n">
-        <v>13574.8676</v>
+        <v>3569.5979</v>
       </c>
       <c r="G185" t="n">
-        <v>3.115499999999999</v>
+        <v>3.115383333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6901,10 +6989,10 @@
         <v>3.119</v>
       </c>
       <c r="F186" t="n">
-        <v>6116.83</v>
+        <v>13574.8676</v>
       </c>
       <c r="G186" t="n">
-        <v>3.115616666666666</v>
+        <v>3.115499999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6930,16 +7018,16 @@
         <v>3.119</v>
       </c>
       <c r="D187" t="n">
-        <v>3.12</v>
+        <v>3.119</v>
       </c>
       <c r="E187" t="n">
         <v>3.119</v>
       </c>
       <c r="F187" t="n">
-        <v>52303.8959</v>
+        <v>6116.83</v>
       </c>
       <c r="G187" t="n">
-        <v>3.115716666666666</v>
+        <v>3.115616666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6959,22 +7047,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3.139</v>
+        <v>3.119</v>
       </c>
       <c r="C188" t="n">
-        <v>3.139</v>
+        <v>3.119</v>
       </c>
       <c r="D188" t="n">
-        <v>3.139</v>
+        <v>3.12</v>
       </c>
       <c r="E188" t="n">
-        <v>3.139</v>
+        <v>3.119</v>
       </c>
       <c r="F188" t="n">
-        <v>481.8639</v>
+        <v>52303.8959</v>
       </c>
       <c r="G188" t="n">
-        <v>3.116149999999999</v>
+        <v>3.115716666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6994,22 +7082,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.136</v>
+        <v>3.139</v>
       </c>
       <c r="C189" t="n">
-        <v>3.136</v>
+        <v>3.139</v>
       </c>
       <c r="D189" t="n">
-        <v>3.136</v>
+        <v>3.139</v>
       </c>
       <c r="E189" t="n">
-        <v>3.136</v>
+        <v>3.139</v>
       </c>
       <c r="F189" t="n">
-        <v>2261.3874</v>
+        <v>481.8639</v>
       </c>
       <c r="G189" t="n">
-        <v>3.116549999999999</v>
+        <v>3.116149999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7029,22 +7117,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.137</v>
+        <v>3.136</v>
       </c>
       <c r="C190" t="n">
-        <v>3.137</v>
+        <v>3.136</v>
       </c>
       <c r="D190" t="n">
-        <v>3.137</v>
+        <v>3.136</v>
       </c>
       <c r="E190" t="n">
-        <v>3.137</v>
+        <v>3.136</v>
       </c>
       <c r="F190" t="n">
-        <v>7133.7758</v>
+        <v>2261.3874</v>
       </c>
       <c r="G190" t="n">
-        <v>3.117166666666666</v>
+        <v>3.116549999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7064,22 +7152,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.138</v>
+        <v>3.137</v>
       </c>
       <c r="C191" t="n">
-        <v>3.138</v>
+        <v>3.137</v>
       </c>
       <c r="D191" t="n">
-        <v>3.138</v>
+        <v>3.137</v>
       </c>
       <c r="E191" t="n">
-        <v>3.138</v>
+        <v>3.137</v>
       </c>
       <c r="F191" t="n">
-        <v>592.6712</v>
+        <v>7133.7758</v>
       </c>
       <c r="G191" t="n">
-        <v>3.117383333333333</v>
+        <v>3.117166666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7099,22 +7187,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.139</v>
+        <v>3.138</v>
       </c>
       <c r="C192" t="n">
-        <v>3.14</v>
+        <v>3.138</v>
       </c>
       <c r="D192" t="n">
-        <v>3.14</v>
+        <v>3.138</v>
       </c>
       <c r="E192" t="n">
-        <v>3.139</v>
+        <v>3.138</v>
       </c>
       <c r="F192" t="n">
-        <v>31790.245</v>
+        <v>592.6712</v>
       </c>
       <c r="G192" t="n">
-        <v>3.117633333333333</v>
+        <v>3.117383333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7134,22 +7222,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="C193" t="n">
         <v>3.14</v>
       </c>
-      <c r="C193" t="n">
-        <v>3.147</v>
-      </c>
       <c r="D193" t="n">
-        <v>3.147</v>
+        <v>3.14</v>
       </c>
       <c r="E193" t="n">
-        <v>3.14</v>
+        <v>3.139</v>
       </c>
       <c r="F193" t="n">
-        <v>22695.8631</v>
+        <v>31790.245</v>
       </c>
       <c r="G193" t="n">
-        <v>3.117999999999999</v>
+        <v>3.117633333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7169,22 +7257,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3.139</v>
+        <v>3.14</v>
       </c>
       <c r="C194" t="n">
-        <v>3.138</v>
+        <v>3.147</v>
       </c>
       <c r="D194" t="n">
-        <v>3.139</v>
+        <v>3.147</v>
       </c>
       <c r="E194" t="n">
-        <v>3.138</v>
+        <v>3.14</v>
       </c>
       <c r="F194" t="n">
-        <v>13350.3319</v>
+        <v>22695.8631</v>
       </c>
       <c r="G194" t="n">
-        <v>3.11815</v>
+        <v>3.117999999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7204,22 +7292,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.147</v>
+        <v>3.139</v>
       </c>
       <c r="C195" t="n">
-        <v>3.147</v>
+        <v>3.138</v>
       </c>
       <c r="D195" t="n">
-        <v>3.147</v>
+        <v>3.139</v>
       </c>
       <c r="E195" t="n">
-        <v>3.147</v>
+        <v>3.138</v>
       </c>
       <c r="F195" t="n">
-        <v>162.9591</v>
+        <v>13350.3319</v>
       </c>
       <c r="G195" t="n">
-        <v>3.11845</v>
+        <v>3.11815</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7239,22 +7327,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="C196" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="D196" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="E196" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="F196" t="n">
-        <v>93040</v>
+        <v>162.9591</v>
       </c>
       <c r="G196" t="n">
-        <v>3.118466666666666</v>
+        <v>3.11845</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7286,10 +7374,10 @@
         <v>3.14</v>
       </c>
       <c r="F197" t="n">
-        <v>108008.0449</v>
+        <v>93040</v>
       </c>
       <c r="G197" t="n">
-        <v>3.118933333333332</v>
+        <v>3.118466666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7321,10 +7409,10 @@
         <v>3.14</v>
       </c>
       <c r="F198" t="n">
-        <v>264.4952</v>
+        <v>108008.0449</v>
       </c>
       <c r="G198" t="n">
-        <v>3.119399999999999</v>
+        <v>3.118933333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7344,22 +7432,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3.146</v>
+        <v>3.14</v>
       </c>
       <c r="C199" t="n">
-        <v>3.146</v>
+        <v>3.14</v>
       </c>
       <c r="D199" t="n">
-        <v>3.146</v>
+        <v>3.14</v>
       </c>
       <c r="E199" t="n">
-        <v>3.146</v>
+        <v>3.14</v>
       </c>
       <c r="F199" t="n">
-        <v>10500</v>
+        <v>264.4952</v>
       </c>
       <c r="G199" t="n">
-        <v>3.120133333333332</v>
+        <v>3.119399999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7379,22 +7467,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3.147</v>
+        <v>3.146</v>
       </c>
       <c r="C200" t="n">
-        <v>3.147</v>
+        <v>3.146</v>
       </c>
       <c r="D200" t="n">
-        <v>3.147</v>
+        <v>3.146</v>
       </c>
       <c r="E200" t="n">
-        <v>3.147</v>
+        <v>3.146</v>
       </c>
       <c r="F200" t="n">
-        <v>166.4293</v>
+        <v>10500</v>
       </c>
       <c r="G200" t="n">
-        <v>3.120433333333332</v>
+        <v>3.120133333333332</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7414,22 +7502,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="C201" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="D201" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="E201" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="F201" t="n">
-        <v>10000</v>
+        <v>166.4293</v>
       </c>
       <c r="G201" t="n">
-        <v>3.121066666666665</v>
+        <v>3.120433333333332</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7449,22 +7537,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>3.147</v>
+        <v>3.14</v>
       </c>
       <c r="C202" t="n">
-        <v>3.147</v>
+        <v>3.14</v>
       </c>
       <c r="D202" t="n">
-        <v>3.147</v>
+        <v>3.14</v>
       </c>
       <c r="E202" t="n">
-        <v>3.147</v>
+        <v>3.14</v>
       </c>
       <c r="F202" t="n">
-        <v>406.746</v>
+        <v>10000</v>
       </c>
       <c r="G202" t="n">
-        <v>3.121183333333332</v>
+        <v>3.121066666666665</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7484,22 +7572,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="C203" t="n">
-        <v>3.124</v>
+        <v>3.147</v>
       </c>
       <c r="D203" t="n">
         <v>3.147</v>
       </c>
       <c r="E203" t="n">
-        <v>3.124</v>
+        <v>3.147</v>
       </c>
       <c r="F203" t="n">
-        <v>43357.177</v>
+        <v>406.746</v>
       </c>
       <c r="G203" t="n">
-        <v>3.121099999999998</v>
+        <v>3.121183333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7514,6 +7602,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="F204" t="n">
+        <v>43357.177</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3.121099999999998</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>833.9232</v>
       </c>
       <c r="G2" t="n">
+        <v>3.127400000000003</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.105916666666664</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>16609.186</v>
       </c>
       <c r="G3" t="n">
+        <v>3.128066666666669</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.106083333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>95535.9713</v>
       </c>
       <c r="G4" t="n">
+        <v>3.128733333333336</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.106416666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>16359.1787</v>
       </c>
       <c r="G5" t="n">
+        <v>3.129400000000003</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.106749999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>32464.6698</v>
       </c>
       <c r="G6" t="n">
+        <v>3.130066666666669</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.107083333333331</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>56128.5472</v>
       </c>
       <c r="G7" t="n">
+        <v>3.130066666666669</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.107249999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1839762.4106</v>
       </c>
       <c r="G8" t="n">
+        <v>3.126133333333336</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.106849999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>105476.156</v>
       </c>
       <c r="G9" t="n">
+        <v>3.124400000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.107016666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>195483.6047</v>
       </c>
       <c r="G10" t="n">
+        <v>3.122666666666669</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.107183333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>200</v>
       </c>
       <c r="G11" t="n">
+        <v>3.122200000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.107666666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>34220.603</v>
       </c>
       <c r="G12" t="n">
+        <v>3.122400000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.108316666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>13302.3062</v>
       </c>
       <c r="G13" t="n">
+        <v>3.122733333333335</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.109</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>92988.955</v>
       </c>
       <c r="G14" t="n">
+        <v>3.119266666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.108783333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>311947.58</v>
       </c>
       <c r="G15" t="n">
+        <v>3.114666666666668</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.108283333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>22492.8479</v>
       </c>
       <c r="G16" t="n">
+        <v>3.109400000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.107616666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>333179.18</v>
       </c>
       <c r="G17" t="n">
+        <v>3.103533333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.106799999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5537.1881</v>
       </c>
       <c r="G18" t="n">
+        <v>3.100200000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.106133333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>215733.3279</v>
       </c>
       <c r="G19" t="n">
+        <v>3.095533333333335</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.105283333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>52367.657</v>
       </c>
       <c r="G20" t="n">
+        <v>3.090866666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.10445</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,22 +1175,21 @@
         <v>40000</v>
       </c>
       <c r="G21" t="n">
+        <v>3.086200000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.103616666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1152,26 +1213,21 @@
         <v>76179.1583</v>
       </c>
       <c r="G22" t="n">
+        <v>3.081800000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.102683333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1195,26 +1251,25 @@
         <v>33456.5232</v>
       </c>
       <c r="G23" t="n">
+        <v>3.080066666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.101</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.044</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,24 +1293,29 @@
         <v>176486.6483</v>
       </c>
       <c r="G24" t="n">
+        <v>3.077933333333335</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.100700000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
         <v>3.05</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1279,24 +1339,29 @@
         <v>1840964.1953</v>
       </c>
       <c r="G25" t="n">
+        <v>3.075933333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.100433333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>3.078</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1320,24 +1385,21 @@
         <v>16219.5121</v>
       </c>
       <c r="G26" t="n">
+        <v>3.072666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.100266666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1361,24 +1423,21 @@
         <v>830000</v>
       </c>
       <c r="G27" t="n">
+        <v>3.068733333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.099100000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1402,24 +1461,21 @@
         <v>200</v>
       </c>
       <c r="G28" t="n">
+        <v>3.066533333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.098550000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1443,24 +1499,21 @@
         <v>19934.7854</v>
       </c>
       <c r="G29" t="n">
+        <v>3.067933333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.098683333333335</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,24 +1537,21 @@
         <v>334.4651</v>
       </c>
       <c r="G30" t="n">
+        <v>3.071266666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.098850000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1525,24 +1575,21 @@
         <v>128325.5232</v>
       </c>
       <c r="G31" t="n">
+        <v>3.075266666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.099183333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1566,24 +1613,21 @@
         <v>8717.686299999999</v>
       </c>
       <c r="G32" t="n">
+        <v>3.081266666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.099700000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1607,24 +1651,21 @@
         <v>18368.9425</v>
       </c>
       <c r="G33" t="n">
+        <v>3.086866666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.100266666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1648,24 +1689,21 @@
         <v>2361.7765</v>
       </c>
       <c r="G34" t="n">
+        <v>3.093466666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.101083333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,24 +1727,21 @@
         <v>6072.3544</v>
       </c>
       <c r="G35" t="n">
+        <v>3.099733333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.102083333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,24 +1765,21 @@
         <v>1326183.480890974</v>
       </c>
       <c r="G36" t="n">
+        <v>3.121666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.107000000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1771,25 +1803,22 @@
         <v>9137.305899999999</v>
       </c>
       <c r="G37" t="n">
+        <v>3.132733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.108833333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1.047459016393443</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1812,18 +1841,21 @@
         <v>97714.1758</v>
       </c>
       <c r="G38" t="n">
+        <v>3.138733333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.109800000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1847,18 +1879,21 @@
         <v>5833.14</v>
       </c>
       <c r="G39" t="n">
+        <v>3.143533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.110916666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,18 +1917,21 @@
         <v>4371.83</v>
       </c>
       <c r="G40" t="n">
+        <v>3.1482</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.112050000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1917,18 +1955,21 @@
         <v>1761.22</v>
       </c>
       <c r="G41" t="n">
+        <v>3.152866666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.113183333333335</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,18 +1993,21 @@
         <v>79330.2424</v>
       </c>
       <c r="G42" t="n">
+        <v>3.156866666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.114150000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1987,18 +2031,21 @@
         <v>95352.15150000001</v>
       </c>
       <c r="G43" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.115100000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,18 +2069,21 @@
         <v>200</v>
       </c>
       <c r="G44" t="n">
+        <v>3.1622</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.116316666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2057,18 +2107,21 @@
         <v>27020.7402</v>
       </c>
       <c r="G45" t="n">
+        <v>3.164600000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.117733333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,18 +2145,21 @@
         <v>31020</v>
       </c>
       <c r="G46" t="n">
+        <v>3.164800000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.118566666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,18 +2183,21 @@
         <v>90500.0711</v>
       </c>
       <c r="G47" t="n">
+        <v>3.163600000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.118950000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,18 +2221,21 @@
         <v>76060.1722</v>
       </c>
       <c r="G48" t="n">
+        <v>3.165066666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.120050000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,18 +2259,21 @@
         <v>21731.445</v>
       </c>
       <c r="G49" t="n">
+        <v>3.166933333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.121166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,18 +2297,21 @@
         <v>52367.657</v>
       </c>
       <c r="G50" t="n">
+        <v>3.165533333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.121383333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2267,18 +2335,21 @@
         <v>15150</v>
       </c>
       <c r="G51" t="n">
+        <v>3.148466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.1216</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,18 +2373,21 @@
         <v>23911.8796</v>
       </c>
       <c r="G52" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.12165</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2337,18 +2411,21 @@
         <v>58859.2573</v>
       </c>
       <c r="G53" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.120733333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,18 +2449,21 @@
         <v>275290.62</v>
       </c>
       <c r="G54" t="n">
+        <v>3.133333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.1198</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,18 +2487,21 @@
         <v>12489.6492</v>
       </c>
       <c r="G55" t="n">
+        <v>3.128666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.118866666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,18 +2525,21 @@
         <v>106370.0712</v>
       </c>
       <c r="G56" t="n">
+        <v>3.122666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.117600000000001</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,18 +2563,21 @@
         <v>6439.4872</v>
       </c>
       <c r="G57" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.117</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,18 +2601,21 @@
         <v>3282.1178</v>
       </c>
       <c r="G58" t="n">
+        <v>3.117333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.116400000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,18 +2639,21 @@
         <v>3265.7485</v>
       </c>
       <c r="G59" t="n">
+        <v>3.1136</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.11575</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,18 +2677,21 @@
         <v>40566.6027</v>
       </c>
       <c r="G60" t="n">
+        <v>3.109866666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.1151</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,18 +2715,21 @@
         <v>992.8703</v>
       </c>
       <c r="G61" t="n">
+        <v>3.109666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.114783333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,18 +2753,21 @@
         <v>14550</v>
       </c>
       <c r="G62" t="n">
+        <v>3.108800000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.1143</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,18 +2791,21 @@
         <v>314460.0517</v>
       </c>
       <c r="G63" t="n">
+        <v>3.104466666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.11415</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,18 +2829,21 @@
         <v>220416.1795</v>
       </c>
       <c r="G64" t="n">
+        <v>3.100866666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.114199999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,18 +2867,21 @@
         <v>294000</v>
       </c>
       <c r="G65" t="n">
+        <v>3.100866666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.114249999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,18 +2905,21 @@
         <v>364506.1791</v>
       </c>
       <c r="G66" t="n">
+        <v>3.100933333333335</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.114316666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,18 +2943,21 @@
         <v>643392.8205</v>
       </c>
       <c r="G67" t="n">
+        <v>3.098066666666668</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.113649999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,18 +2981,21 @@
         <v>21025.3008</v>
       </c>
       <c r="G68" t="n">
+        <v>3.098066666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.113716666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,18 +3019,21 @@
         <v>133830.6071</v>
       </c>
       <c r="G69" t="n">
+        <v>3.097466666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.113066666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3057,21 @@
         <v>822.3694</v>
       </c>
       <c r="G70" t="n">
+        <v>3.097466666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.112566666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3095,21 @@
         <v>150270.8744</v>
       </c>
       <c r="G71" t="n">
+        <v>3.098800000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.111749999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3133,21 @@
         <v>86978.8936</v>
       </c>
       <c r="G72" t="n">
+        <v>3.097466666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.110766666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3171,21 @@
         <v>1182.9201</v>
       </c>
       <c r="G73" t="n">
+        <v>3.097466666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.110083333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3209,21 @@
         <v>28822.4637</v>
       </c>
       <c r="G74" t="n">
+        <v>3.096133333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.109966666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3247,21 @@
         <v>135044.1922</v>
       </c>
       <c r="G75" t="n">
+        <v>3.094466666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.11005</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3285,21 @@
         <v>29907.3886</v>
       </c>
       <c r="G76" t="n">
+        <v>3.091466666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.1103</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3323,21 @@
         <v>22571.2777</v>
       </c>
       <c r="G77" t="n">
+        <v>3.089133333333335</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.1107</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3361,21 @@
         <v>105618.362</v>
       </c>
       <c r="G78" t="n">
+        <v>3.087400000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.110949999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3399,21 @@
         <v>174784.7502</v>
       </c>
       <c r="G79" t="n">
+        <v>3.084000000000002</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.111316666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3437,21 @@
         <v>163269.802</v>
       </c>
       <c r="G80" t="n">
+        <v>3.080533333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.111666666666665</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3475,21 @@
         <v>2949.1554</v>
       </c>
       <c r="G81" t="n">
+        <v>3.078266666666669</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.112333333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +3513,21 @@
         <v>16240.6382</v>
       </c>
       <c r="G82" t="n">
+        <v>3.078333333333335</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.112783333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +3551,21 @@
         <v>142901.8622</v>
       </c>
       <c r="G83" t="n">
+        <v>3.077933333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.113183333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +3589,21 @@
         <v>1082595.6488</v>
       </c>
       <c r="G84" t="n">
+        <v>3.077866666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.113049999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +3627,21 @@
         <v>64490.4353</v>
       </c>
       <c r="G85" t="n">
+        <v>3.077200000000002</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.112883333333331</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +3665,21 @@
         <v>90113.0765</v>
       </c>
       <c r="G86" t="n">
+        <v>3.077866666666669</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.113049999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +3703,21 @@
         <v>1912290.9053</v>
       </c>
       <c r="G87" t="n">
+        <v>3.077200000000003</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.112883333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +3741,21 @@
         <v>247.7505</v>
       </c>
       <c r="G88" t="n">
+        <v>3.076533333333336</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.112583333333331</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +3779,21 @@
         <v>152591.8159</v>
       </c>
       <c r="G89" t="n">
+        <v>3.075866666666669</v>
+      </c>
+      <c r="H89" t="n">
         <v>3.111949999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +3817,21 @@
         <v>16698.8353</v>
       </c>
       <c r="G90" t="n">
+        <v>3.076866666666669</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.111449999999997</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +3855,21 @@
         <v>9650.5152</v>
       </c>
       <c r="G91" t="n">
+        <v>3.077866666666669</v>
+      </c>
+      <c r="H91" t="n">
         <v>3.110949999999997</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +3893,21 @@
         <v>14522.945</v>
       </c>
       <c r="G92" t="n">
+        <v>3.078866666666669</v>
+      </c>
+      <c r="H92" t="n">
         <v>3.110099999999997</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +3931,21 @@
         <v>48706.0786</v>
       </c>
       <c r="G93" t="n">
+        <v>3.079866666666669</v>
+      </c>
+      <c r="H93" t="n">
         <v>3.109199999999997</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +3969,21 @@
         <v>166.9142</v>
       </c>
       <c r="G94" t="n">
+        <v>3.081600000000002</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.108349999999998</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4007,21 @@
         <v>5349.651</v>
       </c>
       <c r="G95" t="n">
+        <v>3.083400000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.107583333333331</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4045,21 @@
         <v>32163.9957</v>
       </c>
       <c r="G96" t="n">
+        <v>3.083933333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.102899999999998</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4083,21 @@
         <v>66556.5209</v>
       </c>
       <c r="G97" t="n">
+        <v>3.085200000000002</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.100899999999998</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4121,21 @@
         <v>374.5594</v>
       </c>
       <c r="G98" t="n">
+        <v>3.087666666666669</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.100416666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4159,21 @@
         <v>203777.1082</v>
       </c>
       <c r="G99" t="n">
+        <v>3.089000000000002</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.099416666666665</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4197,21 @@
         <v>281.1245</v>
       </c>
       <c r="G100" t="n">
+        <v>3.091733333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.098766666666664</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4235,21 @@
         <v>2651.1363</v>
       </c>
       <c r="G101" t="n">
+        <v>3.091800000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.097783333333331</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4273,21 @@
         <v>4807.1011</v>
       </c>
       <c r="G102" t="n">
+        <v>3.094533333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.097299999999998</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4311,21 @@
         <v>205005</v>
       </c>
       <c r="G103" t="n">
+        <v>3.094600000000002</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.096483333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4349,21 @@
         <v>278644.782</v>
       </c>
       <c r="G104" t="n">
+        <v>3.096000000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.095399999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +4387,21 @@
         <v>280</v>
       </c>
       <c r="G105" t="n">
+        <v>3.097400000000002</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.094649999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +4425,21 @@
         <v>16031.7624</v>
       </c>
       <c r="G106" t="n">
+        <v>3.098800000000002</v>
+      </c>
+      <c r="H106" t="n">
         <v>3.094449999999998</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +4463,21 @@
         <v>1136.6059</v>
       </c>
       <c r="G107" t="n">
+        <v>3.098933333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>3.093933333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +4501,21 @@
         <v>459.0808</v>
       </c>
       <c r="G108" t="n">
+        <v>3.100333333333335</v>
+      </c>
+      <c r="H108" t="n">
         <v>3.093016666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +4539,21 @@
         <v>144106.3789</v>
       </c>
       <c r="G109" t="n">
+        <v>3.099933333333335</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.091599999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +4577,21 @@
         <v>985378.7565</v>
       </c>
       <c r="G110" t="n">
+        <v>3.099466666666669</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.091066666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +4615,21 @@
         <v>4943.3986</v>
       </c>
       <c r="G111" t="n">
+        <v>3.098933333333335</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.090516666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +4653,21 @@
         <v>108008.0449</v>
       </c>
       <c r="G112" t="n">
+        <v>3.099000000000002</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.09015</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +4691,21 @@
         <v>31658.0991</v>
       </c>
       <c r="G113" t="n">
+        <v>3.099000000000002</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.090666666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +4729,21 @@
         <v>162614.129</v>
       </c>
       <c r="G114" t="n">
+        <v>3.100400000000002</v>
+      </c>
+      <c r="H114" t="n">
         <v>3.091183333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +4767,21 @@
         <v>124800</v>
       </c>
       <c r="G115" t="n">
+        <v>3.101333333333335</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.091933333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +4805,21 @@
         <v>3082.9894</v>
       </c>
       <c r="G116" t="n">
+        <v>3.103600000000002</v>
+      </c>
+      <c r="H116" t="n">
         <v>3.093016666666665</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +4843,21 @@
         <v>245.38</v>
       </c>
       <c r="G117" t="n">
+        <v>3.102866666666669</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.093016666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +4881,21 @@
         <v>643.1874</v>
       </c>
       <c r="G118" t="n">
+        <v>3.103466666666669</v>
+      </c>
+      <c r="H118" t="n">
         <v>3.093016666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +4919,21 @@
         <v>21339.2855</v>
       </c>
       <c r="G119" t="n">
+        <v>3.104066666666669</v>
+      </c>
+      <c r="H119" t="n">
         <v>3.093016666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +4957,21 @@
         <v>6153.7444</v>
       </c>
       <c r="G120" t="n">
+        <v>3.103333333333336</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.093016666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +4995,21 @@
         <v>62005.0077</v>
       </c>
       <c r="G121" t="n">
+        <v>3.10326666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.092849999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5033,21 @@
         <v>16088.7096</v>
       </c>
       <c r="G122" t="n">
+        <v>3.104466666666669</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.092849999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5071,21 @@
         <v>411.422</v>
       </c>
       <c r="G123" t="n">
+        <v>3.105400000000003</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.093249999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5109,21 @@
         <v>26644.6553</v>
       </c>
       <c r="G124" t="n">
+        <v>3.107600000000003</v>
+      </c>
+      <c r="H124" t="n">
         <v>3.093283333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5147,21 @@
         <v>1330.92</v>
       </c>
       <c r="G125" t="n">
+        <v>3.108933333333336</v>
+      </c>
+      <c r="H125" t="n">
         <v>3.093083333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5185,21 @@
         <v>2683.51</v>
       </c>
       <c r="G126" t="n">
+        <v>3.110400000000003</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.092883333333332</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5223,21 @@
         <v>922.4299999999999</v>
       </c>
       <c r="G127" t="n">
+        <v>3.111800000000003</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.093583333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5261,21 @@
         <v>300.03</v>
       </c>
       <c r="G128" t="n">
+        <v>3.111933333333337</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.094133333333332</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5299,21 @@
         <v>16654.1939</v>
       </c>
       <c r="G129" t="n">
+        <v>3.11206666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>3.094833333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5337,21 @@
         <v>46315.9988</v>
       </c>
       <c r="G130" t="n">
+        <v>3.111200000000004</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.095366666666665</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +5375,21 @@
         <v>337240.656</v>
       </c>
       <c r="G131" t="n">
+        <v>3.109533333333337</v>
+      </c>
+      <c r="H131" t="n">
         <v>3.095699999999998</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +5413,21 @@
         <v>370.3697</v>
       </c>
       <c r="G132" t="n">
+        <v>3.111200000000004</v>
+      </c>
+      <c r="H132" t="n">
         <v>3.096449999999998</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +5451,21 @@
         <v>63007.6021</v>
       </c>
       <c r="G133" t="n">
+        <v>3.11286666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>3.096866666666664</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +5489,21 @@
         <v>1063123.3712</v>
       </c>
       <c r="G134" t="n">
+        <v>3.114533333333337</v>
+      </c>
+      <c r="H134" t="n">
         <v>3.097616666666664</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +5527,21 @@
         <v>200200</v>
       </c>
       <c r="G135" t="n">
+        <v>3.11646666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.098516666666664</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +5565,21 @@
         <v>15939.5973</v>
       </c>
       <c r="G136" t="n">
+        <v>3.117733333333336</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.099416666666664</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +5603,21 @@
         <v>46000</v>
       </c>
       <c r="G137" t="n">
+        <v>3.11966666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.100483333333331</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +5641,21 @@
         <v>39080</v>
       </c>
       <c r="G138" t="n">
+        <v>3.118800000000003</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.101099999999998</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +5679,21 @@
         <v>22950</v>
       </c>
       <c r="G139" t="n">
+        <v>3.117933333333337</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.101766666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +5717,21 @@
         <v>500</v>
       </c>
       <c r="G140" t="n">
+        <v>3.117333333333337</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.102283333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +5755,21 @@
         <v>332.9879</v>
       </c>
       <c r="G141" t="n">
+        <v>3.11846666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.102933333333331</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +5793,21 @@
         <v>71141.83</v>
       </c>
       <c r="G142" t="n">
+        <v>3.117800000000003</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.103449999999998</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +5831,21 @@
         <v>497308.4475</v>
       </c>
       <c r="G143" t="n">
+        <v>3.119600000000003</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.104549999999997</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +5869,21 @@
         <v>150645.2134</v>
       </c>
       <c r="G144" t="n">
+        <v>3.12066666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.105533333333331</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +5907,21 @@
         <v>81786.0668</v>
       </c>
       <c r="G145" t="n">
+        <v>3.121200000000003</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.106366666666664</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +5945,21 @@
         <v>32496.7872</v>
       </c>
       <c r="G146" t="n">
+        <v>3.122533333333336</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.106866666666664</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +5983,21 @@
         <v>29528.8146</v>
       </c>
       <c r="G147" t="n">
+        <v>3.122200000000002</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.107699999999998</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6021,21 @@
         <v>3672.38</v>
       </c>
       <c r="G148" t="n">
+        <v>3.121866666666669</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.108199999999998</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6059,21 @@
         <v>33753.1037</v>
       </c>
       <c r="G149" t="n">
+        <v>3.121533333333335</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.109033333333331</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +6097,21 @@
         <v>2662.33</v>
       </c>
       <c r="G150" t="n">
+        <v>3.120466666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.109416666666665</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +6135,21 @@
         <v>120380.4</v>
       </c>
       <c r="G151" t="n">
+        <v>3.119200000000002</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.109749999999998</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +6173,21 @@
         <v>16111.3286</v>
       </c>
       <c r="G152" t="n">
+        <v>3.116733333333335</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.109949999999998</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +6211,21 @@
         <v>85449.52680000001</v>
       </c>
       <c r="G153" t="n">
+        <v>3.116066666666668</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.110149999999998</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +6249,21 @@
         <v>696.35</v>
       </c>
       <c r="G154" t="n">
+        <v>3.115400000000001</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.110216666666665</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +6287,21 @@
         <v>502.2745</v>
       </c>
       <c r="G155" t="n">
+        <v>3.117933333333335</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.110916666666664</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,18 +6325,21 @@
         <v>997.28</v>
       </c>
       <c r="G156" t="n">
+        <v>3.116666666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.111116666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,18 +6363,21 @@
         <v>44986.8978</v>
       </c>
       <c r="G157" t="n">
+        <v>3.117200000000002</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.111449999999998</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,18 +6401,21 @@
         <v>16043.7579</v>
       </c>
       <c r="G158" t="n">
+        <v>3.117200000000002</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.111933333333331</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,18 +6439,21 @@
         <v>90596.0003</v>
       </c>
       <c r="G159" t="n">
+        <v>3.117266666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>3.112599999999998</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,18 +6477,21 @@
         <v>84913.29519999999</v>
       </c>
       <c r="G160" t="n">
+        <v>3.116600000000002</v>
+      </c>
+      <c r="H160" t="n">
         <v>3.112583333333331</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,18 +6515,21 @@
         <v>24518.0845</v>
       </c>
       <c r="G161" t="n">
+        <v>3.117266666666669</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.113233333333331</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,18 +6553,21 @@
         <v>52030.2496</v>
       </c>
       <c r="G162" t="n">
+        <v>3.116600000000003</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.113216666666665</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,18 +6591,21 @@
         <v>12900</v>
       </c>
       <c r="G163" t="n">
+        <v>3.115933333333336</v>
+      </c>
+      <c r="H163" t="n">
         <v>3.113533333333331</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,18 +6629,21 @@
         <v>1275.5555</v>
       </c>
       <c r="G164" t="n">
+        <v>3.116600000000003</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.114183333333331</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6257,18 +6667,21 @@
         <v>19095.5314</v>
       </c>
       <c r="G165" t="n">
+        <v>3.116266666666669</v>
+      </c>
+      <c r="H165" t="n">
         <v>3.114133333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,18 +6705,21 @@
         <v>904.4686</v>
       </c>
       <c r="G166" t="n">
+        <v>3.116133333333336</v>
+      </c>
+      <c r="H166" t="n">
         <v>3.114083333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6327,18 +6743,21 @@
         <v>15142.8286</v>
       </c>
       <c r="G167" t="n">
+        <v>3.116533333333336</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.114349999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,18 +6781,21 @@
         <v>46178.2822</v>
       </c>
       <c r="G168" t="n">
+        <v>3.116800000000003</v>
+      </c>
+      <c r="H168" t="n">
         <v>3.114266666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6397,18 +6819,21 @@
         <v>379049.7462</v>
       </c>
       <c r="G169" t="n">
+        <v>3.11706666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>3.114499999999998</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,18 +6857,21 @@
         <v>32971.8163</v>
       </c>
       <c r="G170" t="n">
+        <v>3.11466666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>3.114716666666665</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,18 +6895,21 @@
         <v>61661.7021</v>
       </c>
       <c r="G171" t="n">
+        <v>3.114400000000003</v>
+      </c>
+      <c r="H171" t="n">
         <v>3.114983333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,18 +6933,21 @@
         <v>457.107</v>
       </c>
       <c r="G172" t="n">
+        <v>3.114133333333337</v>
+      </c>
+      <c r="H172" t="n">
         <v>3.115233333333331</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6537,18 +6971,21 @@
         <v>200</v>
       </c>
       <c r="G173" t="n">
+        <v>3.114066666666671</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.115699999999998</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,18 +7009,21 @@
         <v>500</v>
       </c>
       <c r="G174" t="n">
+        <v>3.11246666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>3.115616666666665</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,18 +7047,21 @@
         <v>805.0055</v>
       </c>
       <c r="G175" t="n">
+        <v>3.112200000000004</v>
+      </c>
+      <c r="H175" t="n">
         <v>3.115299999999998</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,18 +7085,21 @@
         <v>689.322</v>
       </c>
       <c r="G176" t="n">
+        <v>3.11206666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>3.115349999999998</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6677,18 +7123,21 @@
         <v>500</v>
       </c>
       <c r="G177" t="n">
+        <v>3.111600000000004</v>
+      </c>
+      <c r="H177" t="n">
         <v>3.115399999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,18 +7161,21 @@
         <v>1000.3769</v>
       </c>
       <c r="G178" t="n">
+        <v>3.111200000000004</v>
+      </c>
+      <c r="H178" t="n">
         <v>3.115466666666665</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6747,18 +7199,21 @@
         <v>199.6231</v>
       </c>
       <c r="G179" t="n">
+        <v>3.10946666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>3.115533333333332</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,18 +7237,21 @@
         <v>160.8235</v>
       </c>
       <c r="G180" t="n">
+        <v>3.109533333333337</v>
+      </c>
+      <c r="H180" t="n">
         <v>3.115683333333332</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6817,18 +7275,21 @@
         <v>599641.2831999999</v>
       </c>
       <c r="G181" t="n">
+        <v>3.110266666666671</v>
+      </c>
+      <c r="H181" t="n">
         <v>3.115833333333332</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6852,18 +7313,21 @@
         <v>500</v>
       </c>
       <c r="G182" t="n">
+        <v>3.109933333333338</v>
+      </c>
+      <c r="H182" t="n">
         <v>3.115716666666665</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6887,18 +7351,21 @@
         <v>243656.3451</v>
       </c>
       <c r="G183" t="n">
+        <v>3.109733333333338</v>
+      </c>
+      <c r="H183" t="n">
         <v>3.115349999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,18 +7389,21 @@
         <v>500</v>
       </c>
       <c r="G184" t="n">
+        <v>3.110600000000004</v>
+      </c>
+      <c r="H184" t="n">
         <v>3.115249999999999</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6957,18 +7427,21 @@
         <v>3569.5979</v>
       </c>
       <c r="G185" t="n">
+        <v>3.111600000000004</v>
+      </c>
+      <c r="H185" t="n">
         <v>3.115383333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6992,18 +7465,21 @@
         <v>13574.8676</v>
       </c>
       <c r="G186" t="n">
+        <v>3.112466666666671</v>
+      </c>
+      <c r="H186" t="n">
         <v>3.115499999999999</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,18 +7503,21 @@
         <v>6116.83</v>
       </c>
       <c r="G187" t="n">
+        <v>3.113333333333337</v>
+      </c>
+      <c r="H187" t="n">
         <v>3.115616666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7062,18 +7541,21 @@
         <v>52303.8959</v>
       </c>
       <c r="G188" t="n">
+        <v>3.112000000000004</v>
+      </c>
+      <c r="H188" t="n">
         <v>3.115716666666666</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7097,18 +7579,21 @@
         <v>481.8639</v>
       </c>
       <c r="G189" t="n">
+        <v>3.114200000000004</v>
+      </c>
+      <c r="H189" t="n">
         <v>3.116149999999999</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7132,18 +7617,21 @@
         <v>2261.3874</v>
       </c>
       <c r="G190" t="n">
+        <v>3.116200000000004</v>
+      </c>
+      <c r="H190" t="n">
         <v>3.116549999999999</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7167,18 +7655,21 @@
         <v>7133.7758</v>
       </c>
       <c r="G191" t="n">
+        <v>3.116800000000004</v>
+      </c>
+      <c r="H191" t="n">
         <v>3.117166666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,18 +7693,21 @@
         <v>592.6712</v>
       </c>
       <c r="G192" t="n">
+        <v>3.119133333333337</v>
+      </c>
+      <c r="H192" t="n">
         <v>3.117383333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7237,18 +7731,21 @@
         <v>31790.245</v>
       </c>
       <c r="G193" t="n">
+        <v>3.121533333333337</v>
+      </c>
+      <c r="H193" t="n">
         <v>3.117633333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7272,18 +7769,21 @@
         <v>22695.8631</v>
       </c>
       <c r="G194" t="n">
+        <v>3.124400000000004</v>
+      </c>
+      <c r="H194" t="n">
         <v>3.117999999999999</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7307,18 +7807,21 @@
         <v>13350.3319</v>
       </c>
       <c r="G195" t="n">
+        <v>3.126333333333337</v>
+      </c>
+      <c r="H195" t="n">
         <v>3.11815</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,18 +7845,21 @@
         <v>162.9591</v>
       </c>
       <c r="G196" t="n">
+        <v>3.128200000000004</v>
+      </c>
+      <c r="H196" t="n">
         <v>3.11845</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,18 +7883,21 @@
         <v>93040</v>
       </c>
       <c r="G197" t="n">
+        <v>3.13066666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>3.118466666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7412,18 +7921,21 @@
         <v>108008.0449</v>
       </c>
       <c r="G198" t="n">
+        <v>3.133133333333336</v>
+      </c>
+      <c r="H198" t="n">
         <v>3.118933333333332</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,18 +7959,21 @@
         <v>264.4952</v>
       </c>
       <c r="G199" t="n">
+        <v>3.134533333333337</v>
+      </c>
+      <c r="H199" t="n">
         <v>3.119399999999999</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,18 +7997,21 @@
         <v>10500</v>
       </c>
       <c r="G200" t="n">
+        <v>3.136333333333337</v>
+      </c>
+      <c r="H200" t="n">
         <v>3.120133333333332</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7517,18 +8035,21 @@
         <v>166.4293</v>
       </c>
       <c r="G201" t="n">
+        <v>3.138200000000003</v>
+      </c>
+      <c r="H201" t="n">
         <v>3.120433333333332</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7552,18 +8073,21 @@
         <v>10000</v>
       </c>
       <c r="G202" t="n">
+        <v>3.139600000000003</v>
+      </c>
+      <c r="H202" t="n">
         <v>3.121066666666665</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7587,18 +8111,21 @@
         <v>406.746</v>
       </c>
       <c r="G203" t="n">
+        <v>3.14146666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>3.121183333333332</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7622,18 +8149,401 @@
         <v>43357.177</v>
       </c>
       <c r="G204" t="n">
+        <v>3.14046666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>3.121099999999998</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="F205" t="n">
+        <v>996.6122</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3.13966666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>3.121166666666665</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F206" t="n">
+        <v>300841.84</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3.138533333333336</v>
+      </c>
+      <c r="H206" t="n">
+        <v>3.121166666666665</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2272.68</v>
+      </c>
+      <c r="G207" t="n">
+        <v>3.137400000000004</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3.121183333333332</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6258.6</v>
+      </c>
+      <c r="G208" t="n">
+        <v>3.136133333333337</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.121199999999999</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2036.58</v>
+      </c>
+      <c r="G209" t="n">
+        <v>3.134400000000004</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3.121216666666665</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4637.15</v>
+      </c>
+      <c r="G210" t="n">
+        <v>3.133266666666671</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3.121349999999999</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4118.35</v>
+      </c>
+      <c r="G211" t="n">
+        <v>3.131533333333337</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3.121533333333332</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1524.77</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3.130266666666671</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.121849999999999</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2443.52</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3.129000000000004</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.122166666666665</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3045.05</v>
+      </c>
+      <c r="G214" t="n">
+        <v>3.127733333333338</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3.122483333333332</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.11</v>
+        <v>3.077</v>
       </c>
       <c r="C2" t="n">
-        <v>3.11</v>
+        <v>3.07</v>
       </c>
       <c r="D2" t="n">
-        <v>3.11</v>
+        <v>3.077</v>
       </c>
       <c r="E2" t="n">
-        <v>3.11</v>
+        <v>3.07</v>
       </c>
       <c r="F2" t="n">
-        <v>38970.7325</v>
+        <v>311947.58</v>
       </c>
       <c r="G2" t="n">
-        <v>-8325.134700000002</v>
+        <v>-1568002.4923</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.1</v>
+        <v>3.108</v>
       </c>
       <c r="C3" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>3.108</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="F3" t="n">
-        <v>44273.6953</v>
+        <v>22492.8479</v>
       </c>
       <c r="G3" t="n">
-        <v>-52598.83</v>
+        <v>-1590495.3402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.084</v>
+        <v>3.056</v>
       </c>
       <c r="C4" t="n">
-        <v>3.084</v>
+        <v>3.051</v>
       </c>
       <c r="D4" t="n">
-        <v>3.084</v>
+        <v>3.056</v>
       </c>
       <c r="E4" t="n">
-        <v>3.084</v>
+        <v>3.051</v>
       </c>
       <c r="F4" t="n">
-        <v>27323.5755</v>
+        <v>333179.18</v>
       </c>
       <c r="G4" t="n">
-        <v>-79922.40549999999</v>
+        <v>-1923674.5202</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.084</v>
+        <v>3.06</v>
       </c>
       <c r="C5" t="n">
-        <v>3.084</v>
+        <v>3.06</v>
       </c>
       <c r="D5" t="n">
-        <v>3.084</v>
+        <v>3.06</v>
       </c>
       <c r="E5" t="n">
-        <v>3.084</v>
+        <v>3.06</v>
       </c>
       <c r="F5" t="n">
-        <v>32088.0936</v>
+        <v>5537.1881</v>
       </c>
       <c r="G5" t="n">
-        <v>-79922.40549999999</v>
+        <v>-1918137.3321</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.084</v>
+        <v>3.051</v>
       </c>
       <c r="C6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1</v>
+        <v>3.051</v>
       </c>
       <c r="E6" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="F6" t="n">
-        <v>38251.5163</v>
+        <v>215733.3279</v>
       </c>
       <c r="G6" t="n">
-        <v>-41670.88919999999</v>
+        <v>-2133870.66</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.092</v>
+        <v>3.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="D7" t="n">
-        <v>3.092</v>
+        <v>3.05</v>
       </c>
       <c r="E7" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="F7" t="n">
-        <v>30961.1394</v>
+        <v>52367.657</v>
       </c>
       <c r="G7" t="n">
-        <v>-72632.02859999999</v>
+        <v>-2133870.66</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3.083</v>
+        <v>3.05</v>
       </c>
       <c r="D8" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="E8" t="n">
-        <v>3.083</v>
+        <v>3.05</v>
       </c>
       <c r="F8" t="n">
-        <v>44272.6519</v>
+        <v>40000</v>
       </c>
       <c r="G8" t="n">
-        <v>-28359.37669999999</v>
+        <v>-2133870.66</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.082</v>
+        <v>3.048</v>
       </c>
       <c r="C9" t="n">
-        <v>3.082</v>
+        <v>3.044</v>
       </c>
       <c r="D9" t="n">
-        <v>3.082</v>
+        <v>3.048</v>
       </c>
       <c r="E9" t="n">
-        <v>3.082</v>
+        <v>3.044</v>
       </c>
       <c r="F9" t="n">
-        <v>62859.9327</v>
+        <v>76179.1583</v>
       </c>
       <c r="G9" t="n">
-        <v>-91219.3094</v>
+        <v>-2210049.8183</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,238 +719,281 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="D10" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="E10" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="F10" t="n">
-        <v>79112.15119999999</v>
+        <v>33456.5232</v>
       </c>
       <c r="G10" t="n">
-        <v>-91219.3094</v>
+        <v>-2176593.2951</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.044</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3.082</v>
+        <v>3.078</v>
       </c>
       <c r="D11" t="n">
-        <v>3.082</v>
+        <v>3.078</v>
       </c>
       <c r="E11" t="n">
-        <v>3.082</v>
+        <v>3.05</v>
       </c>
       <c r="F11" t="n">
-        <v>405.3461</v>
+        <v>176486.6483</v>
       </c>
       <c r="G11" t="n">
-        <v>-91219.3094</v>
+        <v>-2000106.6468</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.082</v>
+        <v>3.08</v>
       </c>
       <c r="C12" t="n">
-        <v>3.083</v>
+        <v>3.08</v>
       </c>
       <c r="D12" t="n">
-        <v>3.083</v>
+        <v>3.08</v>
       </c>
       <c r="E12" t="n">
-        <v>3.082</v>
+        <v>3.08</v>
       </c>
       <c r="F12" t="n">
-        <v>6337.7139</v>
+        <v>1840964.1953</v>
       </c>
       <c r="G12" t="n">
-        <v>-84881.5955</v>
+        <v>-159142.4514999997</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3.078</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.083</v>
+        <v>3.08</v>
       </c>
       <c r="C13" t="n">
-        <v>3.083</v>
+        <v>3.08</v>
       </c>
       <c r="D13" t="n">
-        <v>3.083</v>
+        <v>3.08</v>
       </c>
       <c r="E13" t="n">
-        <v>3.083</v>
+        <v>3.08</v>
       </c>
       <c r="F13" t="n">
-        <v>35465.8753</v>
+        <v>16219.5121</v>
       </c>
       <c r="G13" t="n">
-        <v>-84881.5955</v>
+        <v>-159142.4514999997</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.08</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.081</v>
+        <v>3.08</v>
       </c>
       <c r="C14" t="n">
-        <v>3.071</v>
+        <v>3.08</v>
       </c>
       <c r="D14" t="n">
-        <v>3.081</v>
+        <v>3.08</v>
       </c>
       <c r="E14" t="n">
-        <v>3.071</v>
+        <v>3.08</v>
       </c>
       <c r="F14" t="n">
-        <v>51896.5764</v>
+        <v>830000</v>
       </c>
       <c r="G14" t="n">
-        <v>-136778.1719</v>
+        <v>-159142.4514999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.073</v>
+        <v>3.108</v>
       </c>
       <c r="C15" t="n">
-        <v>3.073</v>
+        <v>3.108</v>
       </c>
       <c r="D15" t="n">
-        <v>3.073</v>
+        <v>3.108</v>
       </c>
       <c r="E15" t="n">
-        <v>3.073</v>
+        <v>3.108</v>
       </c>
       <c r="F15" t="n">
-        <v>620405.1356</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>483626.9637000001</v>
+        <v>-158942.4514999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.1</v>
+        <v>3.108</v>
       </c>
       <c r="C16" t="n">
-        <v>3.1</v>
+        <v>3.108</v>
       </c>
       <c r="D16" t="n">
-        <v>3.1</v>
+        <v>3.108</v>
       </c>
       <c r="E16" t="n">
-        <v>3.1</v>
+        <v>3.108</v>
       </c>
       <c r="F16" t="n">
-        <v>6246.2216</v>
+        <v>19934.7854</v>
       </c>
       <c r="G16" t="n">
-        <v>489873.1853000001</v>
+        <v>-158942.4514999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +1007,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="C17" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="D17" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="E17" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="F17" t="n">
-        <v>214668.0955</v>
+        <v>334.4651</v>
       </c>
       <c r="G17" t="n">
-        <v>489873.1853000001</v>
+        <v>-158607.9863999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1043,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="C18" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="D18" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="E18" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="F18" t="n">
-        <v>2405.2569</v>
+        <v>128325.5232</v>
       </c>
       <c r="G18" t="n">
-        <v>492278.4422</v>
+        <v>-158607.9863999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1079,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="C19" t="n">
-        <v>3.11</v>
+        <v>3.141</v>
       </c>
       <c r="D19" t="n">
-        <v>3.11</v>
+        <v>3.141</v>
       </c>
       <c r="E19" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="F19" t="n">
-        <v>3820.239</v>
+        <v>8717.686299999999</v>
       </c>
       <c r="G19" t="n">
-        <v>492278.4422</v>
+        <v>-149890.3000999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1115,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.11</v>
+        <v>3.141</v>
       </c>
       <c r="C20" t="n">
-        <v>3.11</v>
+        <v>3.144</v>
       </c>
       <c r="D20" t="n">
-        <v>3.11</v>
+        <v>3.144</v>
       </c>
       <c r="E20" t="n">
-        <v>3.11</v>
+        <v>3.141</v>
       </c>
       <c r="F20" t="n">
-        <v>30938.9195</v>
+        <v>18368.9425</v>
       </c>
       <c r="G20" t="n">
-        <v>492278.4422</v>
+        <v>-131521.3575999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1151,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.11</v>
+        <v>3.149</v>
       </c>
       <c r="C21" t="n">
-        <v>3.11</v>
+        <v>3.149</v>
       </c>
       <c r="D21" t="n">
-        <v>3.11</v>
+        <v>3.149</v>
       </c>
       <c r="E21" t="n">
-        <v>3.11</v>
+        <v>3.149</v>
       </c>
       <c r="F21" t="n">
-        <v>8866.17</v>
+        <v>2361.7765</v>
       </c>
       <c r="G21" t="n">
-        <v>492278.4422</v>
+        <v>-129159.5810999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1187,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.135</v>
+        <v>3.144</v>
       </c>
       <c r="C22" t="n">
-        <v>3.135</v>
+        <v>3.144</v>
       </c>
       <c r="D22" t="n">
-        <v>3.135</v>
+        <v>3.144</v>
       </c>
       <c r="E22" t="n">
-        <v>3.135</v>
+        <v>3.144</v>
       </c>
       <c r="F22" t="n">
-        <v>5086.094</v>
+        <v>6072.3544</v>
       </c>
       <c r="G22" t="n">
-        <v>497364.5362</v>
+        <v>-135231.9354999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1223,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.136</v>
+        <v>3.144</v>
       </c>
       <c r="C23" t="n">
-        <v>3.136</v>
+        <v>3.379</v>
       </c>
       <c r="D23" t="n">
-        <v>3.136</v>
+        <v>3.379</v>
       </c>
       <c r="E23" t="n">
-        <v>3.136</v>
+        <v>3.139</v>
       </c>
       <c r="F23" t="n">
-        <v>2876.3921</v>
+        <v>1326183.480890974</v>
       </c>
       <c r="G23" t="n">
-        <v>500240.9283</v>
+        <v>1190951.545390974</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1259,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.136</v>
+        <v>3.149</v>
       </c>
       <c r="C24" t="n">
-        <v>3.136</v>
+        <v>3.21</v>
       </c>
       <c r="D24" t="n">
-        <v>3.136</v>
+        <v>3.21</v>
       </c>
       <c r="E24" t="n">
-        <v>3.136</v>
+        <v>3.14</v>
       </c>
       <c r="F24" t="n">
-        <v>2993.7314</v>
+        <v>9137.305899999999</v>
       </c>
       <c r="G24" t="n">
-        <v>500240.9283</v>
+        <v>1181814.239490974</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1295,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.136</v>
+        <v>3.21</v>
       </c>
       <c r="C25" t="n">
-        <v>3.136</v>
+        <v>3.14</v>
       </c>
       <c r="D25" t="n">
-        <v>3.136</v>
+        <v>3.23</v>
       </c>
       <c r="E25" t="n">
-        <v>3.136</v>
+        <v>3.132</v>
       </c>
       <c r="F25" t="n">
-        <v>1964.187</v>
+        <v>97714.1758</v>
       </c>
       <c r="G25" t="n">
-        <v>500240.9283</v>
+        <v>1084100.063690974</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1331,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.136</v>
+        <v>3.14</v>
       </c>
       <c r="C26" t="n">
-        <v>3.136</v>
+        <v>3.15</v>
       </c>
       <c r="D26" t="n">
-        <v>3.136</v>
+        <v>3.16</v>
       </c>
       <c r="E26" t="n">
-        <v>3.136</v>
+        <v>3.14</v>
       </c>
       <c r="F26" t="n">
-        <v>772.8717</v>
+        <v>5833.14</v>
       </c>
       <c r="G26" t="n">
-        <v>500240.9283</v>
+        <v>1089933.203690974</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1367,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.136</v>
+        <v>3.15</v>
       </c>
       <c r="C27" t="n">
-        <v>3.136</v>
+        <v>3.15</v>
       </c>
       <c r="D27" t="n">
-        <v>3.136</v>
+        <v>3.15</v>
       </c>
       <c r="E27" t="n">
-        <v>3.136</v>
+        <v>3.15</v>
       </c>
       <c r="F27" t="n">
-        <v>32314.4965</v>
+        <v>4371.83</v>
       </c>
       <c r="G27" t="n">
-        <v>500240.9283</v>
+        <v>1089933.203690974</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1403,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.139</v>
+        <v>3.15</v>
       </c>
       <c r="C28" t="n">
-        <v>3.139</v>
+        <v>3.15</v>
       </c>
       <c r="D28" t="n">
-        <v>3.139</v>
+        <v>3.15</v>
       </c>
       <c r="E28" t="n">
-        <v>3.139</v>
+        <v>3.15</v>
       </c>
       <c r="F28" t="n">
-        <v>458.2217</v>
+        <v>1761.22</v>
       </c>
       <c r="G28" t="n">
-        <v>500699.15</v>
+        <v>1089933.203690974</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1439,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.139</v>
+        <v>3.15</v>
       </c>
       <c r="C29" t="n">
-        <v>3.139</v>
+        <v>3.14</v>
       </c>
       <c r="D29" t="n">
-        <v>3.139</v>
+        <v>3.15</v>
       </c>
       <c r="E29" t="n">
-        <v>3.139</v>
+        <v>3.14</v>
       </c>
       <c r="F29" t="n">
-        <v>231.449</v>
+        <v>79330.2424</v>
       </c>
       <c r="G29" t="n">
-        <v>500699.15</v>
+        <v>1010602.961290974</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,28 +1475,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.136</v>
+        <v>3.141</v>
       </c>
       <c r="C30" t="n">
-        <v>3.139</v>
+        <v>3.14</v>
       </c>
       <c r="D30" t="n">
-        <v>3.139</v>
+        <v>3.141</v>
       </c>
       <c r="E30" t="n">
-        <v>3.136</v>
+        <v>3.131</v>
       </c>
       <c r="F30" t="n">
-        <v>5845.9963</v>
+        <v>95352.15150000001</v>
       </c>
       <c r="G30" t="n">
-        <v>500699.15</v>
+        <v>1010602.961290974</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1511,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.139</v>
+        <v>3.156</v>
       </c>
       <c r="C31" t="n">
-        <v>3.139</v>
+        <v>3.156</v>
       </c>
       <c r="D31" t="n">
-        <v>3.139</v>
+        <v>3.156</v>
       </c>
       <c r="E31" t="n">
-        <v>3.139</v>
+        <v>3.156</v>
       </c>
       <c r="F31" t="n">
-        <v>833.9232</v>
+        <v>200</v>
       </c>
       <c r="G31" t="n">
-        <v>500699.15</v>
+        <v>1010802.961290974</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1547,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.136</v>
+        <v>3.156</v>
       </c>
       <c r="C32" t="n">
-        <v>3.11</v>
+        <v>3.156</v>
       </c>
       <c r="D32" t="n">
-        <v>3.136</v>
+        <v>3.156</v>
       </c>
       <c r="E32" t="n">
-        <v>3.11</v>
+        <v>3.156</v>
       </c>
       <c r="F32" t="n">
-        <v>16609.186</v>
+        <v>27020.7402</v>
       </c>
       <c r="G32" t="n">
-        <v>484089.964</v>
+        <v>1010802.961290974</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1583,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="C33" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="D33" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="E33" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="F33" t="n">
-        <v>95535.9713</v>
+        <v>31020</v>
       </c>
       <c r="G33" t="n">
-        <v>579625.9353</v>
+        <v>979782.9612909741</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1619,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="C34" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="D34" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="E34" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="F34" t="n">
-        <v>16359.1787</v>
+        <v>90500.0711</v>
       </c>
       <c r="G34" t="n">
-        <v>579625.9353</v>
+        <v>979782.9612909741</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1655,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.12</v>
+        <v>3.156</v>
       </c>
       <c r="C35" t="n">
-        <v>3.12</v>
+        <v>3.166</v>
       </c>
       <c r="D35" t="n">
-        <v>3.12</v>
+        <v>3.166</v>
       </c>
       <c r="E35" t="n">
-        <v>3.12</v>
+        <v>3.156</v>
       </c>
       <c r="F35" t="n">
-        <v>32464.6698</v>
+        <v>76060.1722</v>
       </c>
       <c r="G35" t="n">
-        <v>579625.9353</v>
+        <v>1055843.133490974</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,34 +1691,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.12</v>
+        <v>3.168</v>
       </c>
       <c r="C36" t="n">
-        <v>3.11</v>
+        <v>3.177</v>
       </c>
       <c r="D36" t="n">
-        <v>3.12</v>
+        <v>3.177</v>
       </c>
       <c r="E36" t="n">
-        <v>3.11</v>
+        <v>3.168</v>
       </c>
       <c r="F36" t="n">
-        <v>56128.5472</v>
+        <v>21731.445</v>
       </c>
       <c r="G36" t="n">
-        <v>523497.3881</v>
+        <v>1077574.578490974</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1727,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.11</v>
+        <v>3.123</v>
       </c>
       <c r="C37" t="n">
-        <v>3.076</v>
+        <v>3.123</v>
       </c>
       <c r="D37" t="n">
-        <v>3.11</v>
+        <v>3.123</v>
       </c>
       <c r="E37" t="n">
-        <v>3.076</v>
+        <v>3.123</v>
       </c>
       <c r="F37" t="n">
-        <v>1839762.4106</v>
+        <v>52367.657</v>
       </c>
       <c r="G37" t="n">
-        <v>-1316265.0225</v>
+        <v>1025206.921490974</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1763,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.076</v>
+        <v>3.123</v>
       </c>
       <c r="C38" t="n">
-        <v>3.11</v>
+        <v>3.123</v>
       </c>
       <c r="D38" t="n">
-        <v>3.11</v>
+        <v>3.123</v>
       </c>
       <c r="E38" t="n">
-        <v>3.074</v>
+        <v>3.123</v>
       </c>
       <c r="F38" t="n">
-        <v>105476.156</v>
+        <v>15150</v>
       </c>
       <c r="G38" t="n">
-        <v>-1210788.8665</v>
+        <v>1025206.921490974</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1799,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.1</v>
+        <v>3.113</v>
       </c>
       <c r="C39" t="n">
-        <v>3.11</v>
+        <v>3.113</v>
       </c>
       <c r="D39" t="n">
-        <v>3.11</v>
+        <v>3.113</v>
       </c>
       <c r="E39" t="n">
-        <v>3.1</v>
+        <v>3.113</v>
       </c>
       <c r="F39" t="n">
-        <v>195483.6047</v>
+        <v>23911.8796</v>
       </c>
       <c r="G39" t="n">
-        <v>-1210788.8665</v>
+        <v>1001295.041890974</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,28 +1835,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.129</v>
+        <v>3.08</v>
       </c>
       <c r="C40" t="n">
-        <v>3.129</v>
+        <v>3.08</v>
       </c>
       <c r="D40" t="n">
-        <v>3.129</v>
+        <v>3.08</v>
       </c>
       <c r="E40" t="n">
-        <v>3.129</v>
+        <v>3.07</v>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>58859.2573</v>
       </c>
       <c r="G40" t="n">
-        <v>-1210588.8665</v>
+        <v>942435.7845909742</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1871,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.129</v>
+        <v>3.08</v>
       </c>
       <c r="C41" t="n">
-        <v>3.139</v>
+        <v>3.08</v>
       </c>
       <c r="D41" t="n">
-        <v>3.139</v>
+        <v>3.08</v>
       </c>
       <c r="E41" t="n">
-        <v>3.129</v>
+        <v>3.08</v>
       </c>
       <c r="F41" t="n">
-        <v>34220.603</v>
+        <v>275290.62</v>
       </c>
       <c r="G41" t="n">
-        <v>-1176368.2635</v>
+        <v>942435.7845909742</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1907,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="C42" t="n">
-        <v>3.141</v>
+        <v>3.08</v>
       </c>
       <c r="D42" t="n">
-        <v>3.141</v>
+        <v>3.08</v>
       </c>
       <c r="E42" t="n">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="F42" t="n">
-        <v>13302.3062</v>
+        <v>12489.6492</v>
       </c>
       <c r="G42" t="n">
-        <v>-1163065.9573</v>
+        <v>942435.7845909742</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1943,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="C43" t="n">
-        <v>3.087</v>
+        <v>3.06</v>
       </c>
       <c r="D43" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="E43" t="n">
-        <v>3.087</v>
+        <v>3.06</v>
       </c>
       <c r="F43" t="n">
-        <v>92988.955</v>
+        <v>106370.0712</v>
       </c>
       <c r="G43" t="n">
-        <v>-1256054.9123</v>
+        <v>836065.7133909742</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1979,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.077</v>
+        <v>3.1</v>
       </c>
       <c r="C44" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="D44" t="n">
-        <v>3.077</v>
+        <v>3.1</v>
       </c>
       <c r="E44" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="F44" t="n">
-        <v>311947.58</v>
+        <v>6439.4872</v>
       </c>
       <c r="G44" t="n">
-        <v>-1568002.4923</v>
+        <v>842505.2005909742</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +2015,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.108</v>
+        <v>3.1</v>
       </c>
       <c r="C45" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="D45" t="n">
-        <v>3.108</v>
+        <v>3.1</v>
       </c>
       <c r="E45" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="F45" t="n">
-        <v>22492.8479</v>
+        <v>3282.1178</v>
       </c>
       <c r="G45" t="n">
-        <v>-1590495.3402</v>
+        <v>842505.2005909742</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2051,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.056</v>
+        <v>3.1</v>
       </c>
       <c r="C46" t="n">
-        <v>3.051</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="n">
-        <v>3.056</v>
+        <v>3.1</v>
       </c>
       <c r="E46" t="n">
-        <v>3.051</v>
+        <v>3.1</v>
       </c>
       <c r="F46" t="n">
-        <v>333179.18</v>
+        <v>3265.7485</v>
       </c>
       <c r="G46" t="n">
-        <v>-1923674.5202</v>
+        <v>842505.2005909742</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2087,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="C47" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="D47" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="E47" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="F47" t="n">
-        <v>5537.1881</v>
+        <v>40566.6027</v>
       </c>
       <c r="G47" t="n">
-        <v>-1918137.3321</v>
+        <v>842505.2005909742</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2123,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.051</v>
+        <v>3.12</v>
       </c>
       <c r="C48" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="D48" t="n">
-        <v>3.051</v>
+        <v>3.12</v>
       </c>
       <c r="E48" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="F48" t="n">
-        <v>215733.3279</v>
+        <v>992.8703</v>
       </c>
       <c r="G48" t="n">
-        <v>-2133870.66</v>
+        <v>843498.0708909741</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2159,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="C49" t="n">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="D49" t="n">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="E49" t="n">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="F49" t="n">
-        <v>52367.657</v>
+        <v>14550</v>
       </c>
       <c r="G49" t="n">
-        <v>-2133870.66</v>
+        <v>828948.0708909741</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2195,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.05</v>
+        <v>3.101</v>
       </c>
       <c r="C50" t="n">
-        <v>3.05</v>
+        <v>3.101</v>
       </c>
       <c r="D50" t="n">
-        <v>3.05</v>
+        <v>3.102</v>
       </c>
       <c r="E50" t="n">
-        <v>3.05</v>
+        <v>3.101</v>
       </c>
       <c r="F50" t="n">
-        <v>40000</v>
+        <v>314460.0517</v>
       </c>
       <c r="G50" t="n">
-        <v>-2133870.66</v>
+        <v>514488.0191909741</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,34 +2231,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.048</v>
+        <v>3.101</v>
       </c>
       <c r="C51" t="n">
-        <v>3.044</v>
+        <v>3.123</v>
       </c>
       <c r="D51" t="n">
-        <v>3.048</v>
+        <v>3.123</v>
       </c>
       <c r="E51" t="n">
-        <v>3.044</v>
+        <v>3.101</v>
       </c>
       <c r="F51" t="n">
-        <v>76179.1583</v>
+        <v>220416.1795</v>
       </c>
       <c r="G51" t="n">
-        <v>-2210049.8183</v>
+        <v>734904.1986909742</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,131 +2267,115 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.05</v>
+        <v>3.123</v>
       </c>
       <c r="C52" t="n">
-        <v>3.05</v>
+        <v>3.123</v>
       </c>
       <c r="D52" t="n">
-        <v>3.05</v>
+        <v>3.123</v>
       </c>
       <c r="E52" t="n">
-        <v>3.05</v>
+        <v>3.123</v>
       </c>
       <c r="F52" t="n">
-        <v>33456.5232</v>
+        <v>294000</v>
       </c>
       <c r="G52" t="n">
-        <v>-2176593.2951</v>
+        <v>734904.1986909742</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.044</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.05</v>
+        <v>3.124</v>
       </c>
       <c r="C53" t="n">
-        <v>3.078</v>
+        <v>3.124</v>
       </c>
       <c r="D53" t="n">
-        <v>3.078</v>
+        <v>3.124</v>
       </c>
       <c r="E53" t="n">
-        <v>3.05</v>
+        <v>3.124</v>
       </c>
       <c r="F53" t="n">
-        <v>176486.6483</v>
+        <v>364506.1791</v>
       </c>
       <c r="G53" t="n">
-        <v>-2000106.6468</v>
+        <v>1099410.377790974</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.08</v>
+        <v>3.123</v>
       </c>
       <c r="C54" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="D54" t="n">
-        <v>3.08</v>
+        <v>3.123</v>
       </c>
       <c r="E54" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="F54" t="n">
-        <v>1840964.1953</v>
+        <v>643392.8205</v>
       </c>
       <c r="G54" t="n">
-        <v>-159142.4514999997</v>
+        <v>456017.5572909742</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>3.078</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2320,10 +2394,10 @@
         <v>3.08</v>
       </c>
       <c r="F55" t="n">
-        <v>16219.5121</v>
+        <v>21025.3008</v>
       </c>
       <c r="G55" t="n">
-        <v>-159142.4514999997</v>
+        <v>477042.8580909742</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2337,28 +2411,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="C56" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="D56" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="E56" t="n">
-        <v>3.08</v>
+        <v>3.071</v>
       </c>
       <c r="F56" t="n">
-        <v>830000</v>
+        <v>133830.6071</v>
       </c>
       <c r="G56" t="n">
-        <v>-159142.4514999997</v>
+        <v>343212.2509909743</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2372,28 +2447,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="C57" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="D57" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="E57" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>822.3694</v>
       </c>
       <c r="G57" t="n">
-        <v>-158942.4514999997</v>
+        <v>344034.6203909743</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2407,28 +2483,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="C58" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="D58" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="E58" t="n">
-        <v>3.108</v>
+        <v>3.08</v>
       </c>
       <c r="F58" t="n">
-        <v>19934.7854</v>
+        <v>150270.8744</v>
       </c>
       <c r="G58" t="n">
-        <v>-158942.4514999997</v>
+        <v>344034.6203909743</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2442,28 +2519,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="C59" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="D59" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="E59" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="F59" t="n">
-        <v>334.4651</v>
+        <v>86978.8936</v>
       </c>
       <c r="G59" t="n">
-        <v>-158607.9863999997</v>
+        <v>344034.6203909743</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2477,28 +2555,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="C60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="D60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="E60" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="F60" t="n">
-        <v>128325.5232</v>
+        <v>1182.9201</v>
       </c>
       <c r="G60" t="n">
-        <v>-158607.9863999997</v>
+        <v>345217.5404909743</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2512,28 +2591,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="C61" t="n">
-        <v>3.141</v>
+        <v>3.08</v>
       </c>
       <c r="D61" t="n">
-        <v>3.141</v>
+        <v>3.08</v>
       </c>
       <c r="E61" t="n">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="F61" t="n">
-        <v>8717.686299999999</v>
+        <v>28822.4637</v>
       </c>
       <c r="G61" t="n">
-        <v>-149890.3000999997</v>
+        <v>316395.0767909742</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2547,28 +2627,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.141</v>
+        <v>3.075</v>
       </c>
       <c r="C62" t="n">
-        <v>3.144</v>
+        <v>3.075</v>
       </c>
       <c r="D62" t="n">
-        <v>3.144</v>
+        <v>3.075</v>
       </c>
       <c r="E62" t="n">
-        <v>3.141</v>
+        <v>3.075</v>
       </c>
       <c r="F62" t="n">
-        <v>18368.9425</v>
+        <v>135044.1922</v>
       </c>
       <c r="G62" t="n">
-        <v>-131521.3575999997</v>
+        <v>181350.8845909743</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2582,28 +2663,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.149</v>
+        <v>3.075</v>
       </c>
       <c r="C63" t="n">
-        <v>3.149</v>
+        <v>3.075</v>
       </c>
       <c r="D63" t="n">
-        <v>3.149</v>
+        <v>3.075</v>
       </c>
       <c r="E63" t="n">
-        <v>3.149</v>
+        <v>3.075</v>
       </c>
       <c r="F63" t="n">
-        <v>2361.7765</v>
+        <v>29907.3886</v>
       </c>
       <c r="G63" t="n">
-        <v>-129159.5810999997</v>
+        <v>181350.8845909743</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2617,28 +2699,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.144</v>
+        <v>3.075</v>
       </c>
       <c r="C64" t="n">
-        <v>3.144</v>
+        <v>3.075</v>
       </c>
       <c r="D64" t="n">
-        <v>3.144</v>
+        <v>3.075</v>
       </c>
       <c r="E64" t="n">
-        <v>3.144</v>
+        <v>3.075</v>
       </c>
       <c r="F64" t="n">
-        <v>6072.3544</v>
+        <v>22571.2777</v>
       </c>
       <c r="G64" t="n">
-        <v>-135231.9354999997</v>
+        <v>181350.8845909743</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2652,28 +2735,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.144</v>
+        <v>3.075</v>
       </c>
       <c r="C65" t="n">
-        <v>3.379</v>
+        <v>3.075</v>
       </c>
       <c r="D65" t="n">
-        <v>3.379</v>
+        <v>3.075</v>
       </c>
       <c r="E65" t="n">
-        <v>3.139</v>
+        <v>3.075</v>
       </c>
       <c r="F65" t="n">
-        <v>1326183.480890974</v>
+        <v>105618.362</v>
       </c>
       <c r="G65" t="n">
-        <v>1190951.545390974</v>
+        <v>181350.8845909743</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2687,34 +2771,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.149</v>
+        <v>3.072</v>
       </c>
       <c r="C66" t="n">
-        <v>3.21</v>
+        <v>3.072</v>
       </c>
       <c r="D66" t="n">
-        <v>3.21</v>
+        <v>3.072</v>
       </c>
       <c r="E66" t="n">
-        <v>3.14</v>
+        <v>3.072</v>
       </c>
       <c r="F66" t="n">
-        <v>9137.305899999999</v>
+        <v>174784.7502</v>
       </c>
       <c r="G66" t="n">
-        <v>1181814.239490974</v>
+        <v>6566.134390974243</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2722,28 +2807,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.21</v>
+        <v>3.071</v>
       </c>
       <c r="C67" t="n">
-        <v>3.14</v>
+        <v>3.071</v>
       </c>
       <c r="D67" t="n">
-        <v>3.23</v>
+        <v>3.071</v>
       </c>
       <c r="E67" t="n">
-        <v>3.132</v>
+        <v>3.071</v>
       </c>
       <c r="F67" t="n">
-        <v>97714.1758</v>
+        <v>163269.802</v>
       </c>
       <c r="G67" t="n">
-        <v>1084100.063690974</v>
+        <v>-156703.6676090258</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2757,34 +2843,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="C68" t="n">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="D68" t="n">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="E68" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="F68" t="n">
-        <v>5833.14</v>
+        <v>2949.1554</v>
       </c>
       <c r="G68" t="n">
-        <v>1089933.203690974</v>
+        <v>-153754.5122090258</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2792,28 +2879,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.15</v>
+        <v>3.071</v>
       </c>
       <c r="C69" t="n">
-        <v>3.15</v>
+        <v>3.071</v>
       </c>
       <c r="D69" t="n">
-        <v>3.15</v>
+        <v>3.071</v>
       </c>
       <c r="E69" t="n">
-        <v>3.15</v>
+        <v>3.071</v>
       </c>
       <c r="F69" t="n">
-        <v>4371.83</v>
+        <v>16240.6382</v>
       </c>
       <c r="G69" t="n">
-        <v>1089933.203690974</v>
+        <v>-169995.1504090258</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2827,28 +2915,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.15</v>
+        <v>3.074</v>
       </c>
       <c r="C70" t="n">
-        <v>3.15</v>
+        <v>3.074</v>
       </c>
       <c r="D70" t="n">
-        <v>3.15</v>
+        <v>3.074</v>
       </c>
       <c r="E70" t="n">
-        <v>3.15</v>
+        <v>3.074</v>
       </c>
       <c r="F70" t="n">
-        <v>1761.22</v>
+        <v>142901.8622</v>
       </c>
       <c r="G70" t="n">
-        <v>1089933.203690974</v>
+        <v>-27093.28820902575</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2862,28 +2951,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.15</v>
+        <v>3.073</v>
       </c>
       <c r="C71" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="D71" t="n">
-        <v>3.15</v>
+        <v>3.073</v>
       </c>
       <c r="E71" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="F71" t="n">
-        <v>79330.2424</v>
+        <v>1082595.6488</v>
       </c>
       <c r="G71" t="n">
-        <v>1010602.961290974</v>
+        <v>-1109688.937009026</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2897,34 +2987,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.141</v>
+        <v>3.07</v>
       </c>
       <c r="C72" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="D72" t="n">
-        <v>3.141</v>
+        <v>3.07</v>
       </c>
       <c r="E72" t="n">
-        <v>3.131</v>
+        <v>3.07</v>
       </c>
       <c r="F72" t="n">
-        <v>95352.15150000001</v>
+        <v>64490.4353</v>
       </c>
       <c r="G72" t="n">
-        <v>1010602.961290974</v>
+        <v>-1109688.937009026</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2932,28 +3023,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.156</v>
+        <v>3.09</v>
       </c>
       <c r="C73" t="n">
-        <v>3.156</v>
+        <v>3.09</v>
       </c>
       <c r="D73" t="n">
-        <v>3.156</v>
+        <v>3.09</v>
       </c>
       <c r="E73" t="n">
-        <v>3.156</v>
+        <v>3.09</v>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>90113.0765</v>
       </c>
       <c r="G73" t="n">
-        <v>1010802.961290974</v>
+        <v>-1019575.860509026</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2967,28 +3059,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.156</v>
+        <v>3.071</v>
       </c>
       <c r="C74" t="n">
-        <v>3.156</v>
+        <v>3.07</v>
       </c>
       <c r="D74" t="n">
-        <v>3.156</v>
+        <v>3.071</v>
       </c>
       <c r="E74" t="n">
-        <v>3.156</v>
+        <v>3.07</v>
       </c>
       <c r="F74" t="n">
-        <v>27020.7402</v>
+        <v>1912290.9053</v>
       </c>
       <c r="G74" t="n">
-        <v>1010802.961290974</v>
+        <v>-2931866.765809026</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3002,34 +3095,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="C75" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="D75" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="E75" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="F75" t="n">
-        <v>31020</v>
+        <v>247.7505</v>
       </c>
       <c r="G75" t="n">
-        <v>979782.9612909741</v>
+        <v>-2931619.015309026</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3037,28 +3131,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.123</v>
+        <v>3.071</v>
       </c>
       <c r="C76" t="n">
-        <v>3.123</v>
+        <v>3.07</v>
       </c>
       <c r="D76" t="n">
-        <v>3.123</v>
+        <v>3.071</v>
       </c>
       <c r="E76" t="n">
-        <v>3.123</v>
+        <v>3.07</v>
       </c>
       <c r="F76" t="n">
-        <v>90500.0711</v>
+        <v>152591.8159</v>
       </c>
       <c r="G76" t="n">
-        <v>979782.9612909741</v>
+        <v>-3084210.831209025</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3072,34 +3167,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.156</v>
+        <v>3.09</v>
       </c>
       <c r="C77" t="n">
-        <v>3.166</v>
+        <v>3.09</v>
       </c>
       <c r="D77" t="n">
-        <v>3.166</v>
+        <v>3.09</v>
       </c>
       <c r="E77" t="n">
-        <v>3.156</v>
+        <v>3.09</v>
       </c>
       <c r="F77" t="n">
-        <v>76060.1722</v>
+        <v>16698.8353</v>
       </c>
       <c r="G77" t="n">
-        <v>1055843.133490974</v>
+        <v>-3067511.995909025</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3107,34 +3203,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.168</v>
+        <v>3.09</v>
       </c>
       <c r="C78" t="n">
-        <v>3.177</v>
+        <v>3.09</v>
       </c>
       <c r="D78" t="n">
-        <v>3.177</v>
+        <v>3.09</v>
       </c>
       <c r="E78" t="n">
-        <v>3.168</v>
+        <v>3.09</v>
       </c>
       <c r="F78" t="n">
-        <v>21731.445</v>
+        <v>9650.5152</v>
       </c>
       <c r="G78" t="n">
-        <v>1077574.578490974</v>
+        <v>-3067511.995909025</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3142,34 +3239,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="C79" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="D79" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="E79" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="F79" t="n">
-        <v>52367.657</v>
+        <v>14522.945</v>
       </c>
       <c r="G79" t="n">
-        <v>1025206.921490974</v>
+        <v>-3067511.995909025</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3177,28 +3275,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="C80" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="D80" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="E80" t="n">
-        <v>3.123</v>
+        <v>3.09</v>
       </c>
       <c r="F80" t="n">
-        <v>15150</v>
+        <v>48706.0786</v>
       </c>
       <c r="G80" t="n">
-        <v>1025206.921490974</v>
+        <v>-3067511.995909025</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3212,28 +3311,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.113</v>
+        <v>3.098</v>
       </c>
       <c r="C81" t="n">
-        <v>3.113</v>
+        <v>3.098</v>
       </c>
       <c r="D81" t="n">
-        <v>3.113</v>
+        <v>3.098</v>
       </c>
       <c r="E81" t="n">
-        <v>3.113</v>
+        <v>3.098</v>
       </c>
       <c r="F81" t="n">
-        <v>23911.8796</v>
+        <v>166.9142</v>
       </c>
       <c r="G81" t="n">
-        <v>1001295.041890974</v>
+        <v>-3067345.081709025</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3247,28 +3347,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.08</v>
+        <v>3.098</v>
       </c>
       <c r="C82" t="n">
-        <v>3.08</v>
+        <v>3.098</v>
       </c>
       <c r="D82" t="n">
-        <v>3.08</v>
+        <v>3.098</v>
       </c>
       <c r="E82" t="n">
-        <v>3.07</v>
+        <v>3.098</v>
       </c>
       <c r="F82" t="n">
-        <v>58859.2573</v>
+        <v>5349.651</v>
       </c>
       <c r="G82" t="n">
-        <v>942435.7845909742</v>
+        <v>-3067345.081709025</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3282,28 +3383,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.08</v>
+        <v>3.098</v>
       </c>
       <c r="C83" t="n">
-        <v>3.08</v>
+        <v>3.098</v>
       </c>
       <c r="D83" t="n">
-        <v>3.08</v>
+        <v>3.098</v>
       </c>
       <c r="E83" t="n">
-        <v>3.08</v>
+        <v>3.098</v>
       </c>
       <c r="F83" t="n">
-        <v>275290.62</v>
+        <v>32163.9957</v>
       </c>
       <c r="G83" t="n">
-        <v>942435.7845909742</v>
+        <v>-3067345.081709025</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3317,28 +3419,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="C84" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="D84" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="E84" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="F84" t="n">
-        <v>12489.6492</v>
+        <v>66556.5209</v>
       </c>
       <c r="G84" t="n">
-        <v>942435.7845909742</v>
+        <v>-3133901.602609025</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3352,28 +3455,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="C85" t="n">
-        <v>3.06</v>
+        <v>3.111</v>
       </c>
       <c r="D85" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="E85" t="n">
-        <v>3.06</v>
+        <v>3.111</v>
       </c>
       <c r="F85" t="n">
-        <v>106370.0712</v>
+        <v>374.5594</v>
       </c>
       <c r="G85" t="n">
-        <v>836065.7133909742</v>
+        <v>-3133527.043209025</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3387,28 +3491,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="C86" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="D86" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="E86" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="F86" t="n">
-        <v>6439.4872</v>
+        <v>203777.1082</v>
       </c>
       <c r="G86" t="n">
-        <v>842505.2005909742</v>
+        <v>-3337304.151409025</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3422,28 +3527,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.1</v>
+        <v>3.111</v>
       </c>
       <c r="C87" t="n">
-        <v>3.1</v>
+        <v>3.111</v>
       </c>
       <c r="D87" t="n">
-        <v>3.1</v>
+        <v>3.111</v>
       </c>
       <c r="E87" t="n">
-        <v>3.1</v>
+        <v>3.111</v>
       </c>
       <c r="F87" t="n">
-        <v>3282.1178</v>
+        <v>281.1245</v>
       </c>
       <c r="G87" t="n">
-        <v>842505.2005909742</v>
+        <v>-3337023.026909025</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3457,28 +3563,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.1</v>
+        <v>3.091</v>
       </c>
       <c r="C88" t="n">
-        <v>3.1</v>
+        <v>3.091</v>
       </c>
       <c r="D88" t="n">
-        <v>3.1</v>
+        <v>3.091</v>
       </c>
       <c r="E88" t="n">
-        <v>3.1</v>
+        <v>3.091</v>
       </c>
       <c r="F88" t="n">
-        <v>3265.7485</v>
+        <v>2651.1363</v>
       </c>
       <c r="G88" t="n">
-        <v>842505.2005909742</v>
+        <v>-3339674.163209025</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3492,28 +3599,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.1</v>
+        <v>3.091</v>
       </c>
       <c r="C89" t="n">
-        <v>3.1</v>
+        <v>3.111</v>
       </c>
       <c r="D89" t="n">
-        <v>3.1</v>
+        <v>3.111</v>
       </c>
       <c r="E89" t="n">
-        <v>3.1</v>
+        <v>3.091</v>
       </c>
       <c r="F89" t="n">
-        <v>40566.6027</v>
+        <v>4807.1011</v>
       </c>
       <c r="G89" t="n">
-        <v>842505.2005909742</v>
+        <v>-3334867.062109025</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3527,28 +3635,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.12</v>
+        <v>3.093</v>
       </c>
       <c r="C90" t="n">
-        <v>3.12</v>
+        <v>3.091</v>
       </c>
       <c r="D90" t="n">
-        <v>3.12</v>
+        <v>3.093</v>
       </c>
       <c r="E90" t="n">
-        <v>3.12</v>
+        <v>3.091</v>
       </c>
       <c r="F90" t="n">
-        <v>992.8703</v>
+        <v>205005</v>
       </c>
       <c r="G90" t="n">
-        <v>843498.0708909741</v>
+        <v>-3539872.062109025</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3562,28 +3671,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.11</v>
+        <v>3.091</v>
       </c>
       <c r="C91" t="n">
-        <v>3.11</v>
+        <v>3.091</v>
       </c>
       <c r="D91" t="n">
-        <v>3.11</v>
+        <v>3.091</v>
       </c>
       <c r="E91" t="n">
-        <v>3.11</v>
+        <v>3.091</v>
       </c>
       <c r="F91" t="n">
-        <v>14550</v>
+        <v>278644.782</v>
       </c>
       <c r="G91" t="n">
-        <v>828948.0708909741</v>
+        <v>-3539872.062109025</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3597,28 +3707,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.101</v>
+        <v>3.111</v>
       </c>
       <c r="C92" t="n">
-        <v>3.101</v>
+        <v>3.111</v>
       </c>
       <c r="D92" t="n">
-        <v>3.102</v>
+        <v>3.111</v>
       </c>
       <c r="E92" t="n">
-        <v>3.101</v>
+        <v>3.111</v>
       </c>
       <c r="F92" t="n">
-        <v>314460.0517</v>
+        <v>280</v>
       </c>
       <c r="G92" t="n">
-        <v>514488.0191909741</v>
+        <v>-3539592.062109025</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3632,28 +3743,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.101</v>
+        <v>3.111</v>
       </c>
       <c r="C93" t="n">
-        <v>3.123</v>
+        <v>3.111</v>
       </c>
       <c r="D93" t="n">
-        <v>3.123</v>
+        <v>3.111</v>
       </c>
       <c r="E93" t="n">
-        <v>3.101</v>
+        <v>3.111</v>
       </c>
       <c r="F93" t="n">
-        <v>220416.1795</v>
+        <v>16031.7624</v>
       </c>
       <c r="G93" t="n">
-        <v>734904.1986909742</v>
+        <v>-3539592.062109025</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3667,28 +3779,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.123</v>
+        <v>3.092</v>
       </c>
       <c r="C94" t="n">
-        <v>3.123</v>
+        <v>3.092</v>
       </c>
       <c r="D94" t="n">
-        <v>3.123</v>
+        <v>3.092</v>
       </c>
       <c r="E94" t="n">
-        <v>3.123</v>
+        <v>3.092</v>
       </c>
       <c r="F94" t="n">
-        <v>294000</v>
+        <v>1136.6059</v>
       </c>
       <c r="G94" t="n">
-        <v>734904.1986909742</v>
+        <v>-3540728.668009025</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3702,34 +3815,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.124</v>
+        <v>3.111</v>
       </c>
       <c r="C95" t="n">
-        <v>3.124</v>
+        <v>3.111</v>
       </c>
       <c r="D95" t="n">
-        <v>3.124</v>
+        <v>3.111</v>
       </c>
       <c r="E95" t="n">
-        <v>3.124</v>
+        <v>3.111</v>
       </c>
       <c r="F95" t="n">
-        <v>364506.1791</v>
+        <v>459.0808</v>
       </c>
       <c r="G95" t="n">
-        <v>1099410.377790974</v>
+        <v>-3540269.587209025</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3737,28 +3851,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.123</v>
+        <v>3.092</v>
       </c>
       <c r="C96" t="n">
-        <v>3.07</v>
+        <v>3.092</v>
       </c>
       <c r="D96" t="n">
-        <v>3.123</v>
+        <v>3.092</v>
       </c>
       <c r="E96" t="n">
-        <v>3.07</v>
+        <v>3.092</v>
       </c>
       <c r="F96" t="n">
-        <v>643392.8205</v>
+        <v>144106.3789</v>
       </c>
       <c r="G96" t="n">
-        <v>456017.5572909742</v>
+        <v>-3684375.966109025</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3772,28 +3887,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="C97" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="D97" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="E97" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="F97" t="n">
-        <v>21025.3008</v>
+        <v>985378.7565</v>
       </c>
       <c r="G97" t="n">
-        <v>477042.8580909742</v>
+        <v>-4669754.722609024</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3807,28 +3923,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="C98" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="D98" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="E98" t="n">
-        <v>3.071</v>
+        <v>3.09</v>
       </c>
       <c r="F98" t="n">
-        <v>133830.6071</v>
+        <v>4943.3986</v>
       </c>
       <c r="G98" t="n">
-        <v>343212.2509909743</v>
+        <v>-4674698.121209024</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3842,28 +3959,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="C99" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="D99" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="E99" t="n">
-        <v>3.08</v>
+        <v>3.091</v>
       </c>
       <c r="F99" t="n">
-        <v>822.3694</v>
+        <v>108008.0449</v>
       </c>
       <c r="G99" t="n">
-        <v>344034.6203909743</v>
+        <v>-4566690.076309024</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3877,28 +3995,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="C100" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="D100" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="E100" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="F100" t="n">
-        <v>150270.8744</v>
+        <v>31658.0991</v>
       </c>
       <c r="G100" t="n">
-        <v>344034.6203909743</v>
+        <v>-4535031.977209024</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3912,28 +4031,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.08</v>
+        <v>3.112</v>
       </c>
       <c r="C101" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="D101" t="n">
-        <v>3.08</v>
+        <v>3.112</v>
       </c>
       <c r="E101" t="n">
-        <v>3.08</v>
+        <v>3.111</v>
       </c>
       <c r="F101" t="n">
-        <v>86978.8936</v>
+        <v>162614.129</v>
       </c>
       <c r="G101" t="n">
-        <v>344034.6203909743</v>
+        <v>-4535031.977209024</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3947,28 +4067,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="C102" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="D102" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="E102" t="n">
-        <v>3.1</v>
+        <v>3.125</v>
       </c>
       <c r="F102" t="n">
-        <v>1182.9201</v>
+        <v>124800</v>
       </c>
       <c r="G102" t="n">
-        <v>345217.5404909743</v>
+        <v>-4410231.977209024</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3982,28 +4103,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.08</v>
+        <v>3.125</v>
       </c>
       <c r="C103" t="n">
-        <v>3.08</v>
+        <v>3.125</v>
       </c>
       <c r="D103" t="n">
-        <v>3.08</v>
+        <v>3.125</v>
       </c>
       <c r="E103" t="n">
-        <v>3.08</v>
+        <v>3.125</v>
       </c>
       <c r="F103" t="n">
-        <v>28822.4637</v>
+        <v>3082.9894</v>
       </c>
       <c r="G103" t="n">
-        <v>316395.0767909742</v>
+        <v>-4410231.977209024</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4017,28 +4139,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="C104" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="D104" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="E104" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="F104" t="n">
-        <v>135044.1922</v>
+        <v>245.38</v>
       </c>
       <c r="G104" t="n">
-        <v>181350.8845909743</v>
+        <v>-4410477.357209024</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4052,28 +4175,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="C105" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="D105" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="E105" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="F105" t="n">
-        <v>29907.3886</v>
+        <v>643.1874</v>
       </c>
       <c r="G105" t="n">
-        <v>181350.8845909743</v>
+        <v>-4410477.357209024</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4087,28 +4211,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="C106" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="D106" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="E106" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="F106" t="n">
-        <v>22571.2777</v>
+        <v>21339.2855</v>
       </c>
       <c r="G106" t="n">
-        <v>181350.8845909743</v>
+        <v>-4410477.357209024</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4122,28 +4247,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="C107" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="D107" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="E107" t="n">
-        <v>3.075</v>
+        <v>3.1</v>
       </c>
       <c r="F107" t="n">
-        <v>105618.362</v>
+        <v>6153.7444</v>
       </c>
       <c r="G107" t="n">
-        <v>181350.8845909743</v>
+        <v>-4410477.357209024</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4157,34 +4283,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.072</v>
+        <v>3.11</v>
       </c>
       <c r="C108" t="n">
-        <v>3.072</v>
+        <v>3.11</v>
       </c>
       <c r="D108" t="n">
-        <v>3.072</v>
+        <v>3.11</v>
       </c>
       <c r="E108" t="n">
-        <v>3.072</v>
+        <v>3.11</v>
       </c>
       <c r="F108" t="n">
-        <v>174784.7502</v>
+        <v>62005.0077</v>
       </c>
       <c r="G108" t="n">
-        <v>6566.134390974243</v>
+        <v>-4348472.349509024</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4192,34 +4319,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.071</v>
+        <v>3.11</v>
       </c>
       <c r="C109" t="n">
-        <v>3.071</v>
+        <v>3.11</v>
       </c>
       <c r="D109" t="n">
-        <v>3.071</v>
+        <v>3.11</v>
       </c>
       <c r="E109" t="n">
-        <v>3.071</v>
+        <v>3.11</v>
       </c>
       <c r="F109" t="n">
-        <v>163269.802</v>
+        <v>16088.7096</v>
       </c>
       <c r="G109" t="n">
-        <v>-156703.6676090258</v>
+        <v>-4348472.349509024</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4227,28 +4355,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="C110" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="D110" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="E110" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="F110" t="n">
-        <v>2949.1554</v>
+        <v>411.422</v>
       </c>
       <c r="G110" t="n">
-        <v>-153754.5122090258</v>
+        <v>-4348060.927509024</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4262,34 +4391,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.071</v>
+        <v>3.125</v>
       </c>
       <c r="C111" t="n">
-        <v>3.071</v>
+        <v>3.125</v>
       </c>
       <c r="D111" t="n">
-        <v>3.071</v>
+        <v>3.125</v>
       </c>
       <c r="E111" t="n">
-        <v>3.071</v>
+        <v>3.125</v>
       </c>
       <c r="F111" t="n">
-        <v>16240.6382</v>
+        <v>26644.6553</v>
       </c>
       <c r="G111" t="n">
-        <v>-169995.1504090258</v>
+        <v>-4348060.927509024</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4297,28 +4427,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.074</v>
+        <v>3.125</v>
       </c>
       <c r="C112" t="n">
-        <v>3.074</v>
+        <v>3.111</v>
       </c>
       <c r="D112" t="n">
-        <v>3.074</v>
+        <v>3.125</v>
       </c>
       <c r="E112" t="n">
-        <v>3.074</v>
+        <v>3.111</v>
       </c>
       <c r="F112" t="n">
-        <v>142901.8622</v>
+        <v>1330.92</v>
       </c>
       <c r="G112" t="n">
-        <v>-27093.28820902575</v>
+        <v>-4349391.847509024</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4332,28 +4463,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.073</v>
+        <v>3.111</v>
       </c>
       <c r="C113" t="n">
-        <v>3.07</v>
+        <v>3.112</v>
       </c>
       <c r="D113" t="n">
-        <v>3.073</v>
+        <v>3.112</v>
       </c>
       <c r="E113" t="n">
-        <v>3.07</v>
+        <v>3.111</v>
       </c>
       <c r="F113" t="n">
-        <v>1082595.6488</v>
+        <v>2683.51</v>
       </c>
       <c r="G113" t="n">
-        <v>-1109688.937009026</v>
+        <v>-4346708.337509024</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4367,28 +4499,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.07</v>
+        <v>3.112</v>
       </c>
       <c r="C114" t="n">
-        <v>3.07</v>
+        <v>3.112</v>
       </c>
       <c r="D114" t="n">
-        <v>3.07</v>
+        <v>3.112</v>
       </c>
       <c r="E114" t="n">
-        <v>3.07</v>
+        <v>3.112</v>
       </c>
       <c r="F114" t="n">
-        <v>64490.4353</v>
+        <v>922.4299999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>-1109688.937009026</v>
+        <v>-4346708.337509024</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4402,28 +4535,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09</v>
+        <v>3.113</v>
       </c>
       <c r="C115" t="n">
-        <v>3.09</v>
+        <v>3.113</v>
       </c>
       <c r="D115" t="n">
-        <v>3.09</v>
+        <v>3.113</v>
       </c>
       <c r="E115" t="n">
-        <v>3.09</v>
+        <v>3.113</v>
       </c>
       <c r="F115" t="n">
-        <v>90113.0765</v>
+        <v>300.03</v>
       </c>
       <c r="G115" t="n">
-        <v>-1019575.860509026</v>
+        <v>-4346408.307509024</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4437,28 +4571,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.071</v>
+        <v>3.113</v>
       </c>
       <c r="C116" t="n">
-        <v>3.07</v>
+        <v>3.113</v>
       </c>
       <c r="D116" t="n">
-        <v>3.071</v>
+        <v>3.113</v>
       </c>
       <c r="E116" t="n">
-        <v>3.07</v>
+        <v>3.113</v>
       </c>
       <c r="F116" t="n">
-        <v>1912290.9053</v>
+        <v>16654.1939</v>
       </c>
       <c r="G116" t="n">
-        <v>-2931866.765809026</v>
+        <v>-4346408.307509024</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4472,34 +4607,35 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="C117" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="D117" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="E117" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="F117" t="n">
-        <v>247.7505</v>
+        <v>46315.9988</v>
       </c>
       <c r="G117" t="n">
-        <v>-2931619.015309026</v>
+        <v>-4392724.306309024</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4507,28 +4643,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.071</v>
+        <v>3.112</v>
       </c>
       <c r="C118" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="D118" t="n">
-        <v>3.071</v>
+        <v>3.112</v>
       </c>
       <c r="E118" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="F118" t="n">
-        <v>152591.8159</v>
+        <v>337240.656</v>
       </c>
       <c r="G118" t="n">
-        <v>-3084210.831209025</v>
+        <v>-4729964.962309024</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4542,28 +4679,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="C119" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="D119" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="E119" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="F119" t="n">
-        <v>16698.8353</v>
+        <v>370.3697</v>
       </c>
       <c r="G119" t="n">
-        <v>-3067511.995909025</v>
+        <v>-4729594.592609025</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4577,28 +4715,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="C120" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="D120" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="E120" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="F120" t="n">
-        <v>9650.5152</v>
+        <v>63007.6021</v>
       </c>
       <c r="G120" t="n">
-        <v>-3067511.995909025</v>
+        <v>-4729594.592609025</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4612,28 +4751,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="C121" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="D121" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="E121" t="n">
-        <v>3.09</v>
+        <v>3.125</v>
       </c>
       <c r="F121" t="n">
-        <v>14522.945</v>
+        <v>1063123.3712</v>
       </c>
       <c r="G121" t="n">
-        <v>-3067511.995909025</v>
+        <v>-4729594.592609025</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4647,28 +4787,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.09</v>
+        <v>3.102</v>
       </c>
       <c r="C122" t="n">
-        <v>3.09</v>
+        <v>3.129</v>
       </c>
       <c r="D122" t="n">
-        <v>3.09</v>
+        <v>3.129</v>
       </c>
       <c r="E122" t="n">
-        <v>3.09</v>
+        <v>3.102</v>
       </c>
       <c r="F122" t="n">
-        <v>48706.0786</v>
+        <v>200200</v>
       </c>
       <c r="G122" t="n">
-        <v>-3067511.995909025</v>
+        <v>-4529394.592609025</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4682,28 +4823,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.098</v>
+        <v>3.129</v>
       </c>
       <c r="C123" t="n">
-        <v>3.098</v>
+        <v>3.129</v>
       </c>
       <c r="D123" t="n">
-        <v>3.098</v>
+        <v>3.129</v>
       </c>
       <c r="E123" t="n">
-        <v>3.098</v>
+        <v>3.129</v>
       </c>
       <c r="F123" t="n">
-        <v>166.9142</v>
+        <v>15939.5973</v>
       </c>
       <c r="G123" t="n">
-        <v>-3067345.081709025</v>
+        <v>-4529394.592609025</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4717,28 +4859,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.098</v>
+        <v>3.129</v>
       </c>
       <c r="C124" t="n">
-        <v>3.098</v>
+        <v>3.139</v>
       </c>
       <c r="D124" t="n">
-        <v>3.098</v>
+        <v>3.139</v>
       </c>
       <c r="E124" t="n">
-        <v>3.098</v>
+        <v>3.129</v>
       </c>
       <c r="F124" t="n">
-        <v>5349.651</v>
+        <v>46000</v>
       </c>
       <c r="G124" t="n">
-        <v>-3067345.081709025</v>
+        <v>-4483394.592609025</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4752,28 +4895,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.098</v>
+        <v>3.112</v>
       </c>
       <c r="C125" t="n">
-        <v>3.098</v>
+        <v>3.112</v>
       </c>
       <c r="D125" t="n">
-        <v>3.098</v>
+        <v>3.112</v>
       </c>
       <c r="E125" t="n">
-        <v>3.098</v>
+        <v>3.112</v>
       </c>
       <c r="F125" t="n">
-        <v>32163.9957</v>
+        <v>39080</v>
       </c>
       <c r="G125" t="n">
-        <v>-3067345.081709025</v>
+        <v>-4522474.592609025</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4787,28 +4931,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="C126" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="D126" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="E126" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="F126" t="n">
-        <v>66556.5209</v>
+        <v>22950</v>
       </c>
       <c r="G126" t="n">
-        <v>-3133901.602609025</v>
+        <v>-4522474.592609025</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4822,28 +4967,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="C127" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="D127" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="E127" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="F127" t="n">
-        <v>374.5594</v>
+        <v>500</v>
       </c>
       <c r="G127" t="n">
-        <v>-3133527.043209025</v>
+        <v>-4522974.592609025</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4857,28 +5003,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.09</v>
+        <v>3.129</v>
       </c>
       <c r="C128" t="n">
-        <v>3.09</v>
+        <v>3.129</v>
       </c>
       <c r="D128" t="n">
-        <v>3.09</v>
+        <v>3.129</v>
       </c>
       <c r="E128" t="n">
-        <v>3.09</v>
+        <v>3.129</v>
       </c>
       <c r="F128" t="n">
-        <v>203777.1082</v>
+        <v>332.9879</v>
       </c>
       <c r="G128" t="n">
-        <v>-3337304.151409025</v>
+        <v>-4522641.604709025</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4892,28 +5039,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="C129" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="D129" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="E129" t="n">
-        <v>3.111</v>
+        <v>3.102</v>
       </c>
       <c r="F129" t="n">
-        <v>281.1245</v>
+        <v>71141.83</v>
       </c>
       <c r="G129" t="n">
-        <v>-3337023.026909025</v>
+        <v>-4593783.434709025</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4927,28 +5075,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="C130" t="n">
-        <v>3.091</v>
+        <v>3.14</v>
       </c>
       <c r="D130" t="n">
-        <v>3.091</v>
+        <v>3.14</v>
       </c>
       <c r="E130" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="F130" t="n">
-        <v>2651.1363</v>
+        <v>497308.4475</v>
       </c>
       <c r="G130" t="n">
-        <v>-3339674.163209025</v>
+        <v>-4096474.987209025</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4962,28 +5111,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.091</v>
+        <v>3.139</v>
       </c>
       <c r="C131" t="n">
-        <v>3.111</v>
+        <v>3.129</v>
       </c>
       <c r="D131" t="n">
-        <v>3.111</v>
+        <v>3.15</v>
       </c>
       <c r="E131" t="n">
-        <v>3.091</v>
+        <v>3.129</v>
       </c>
       <c r="F131" t="n">
-        <v>4807.1011</v>
+        <v>150645.2134</v>
       </c>
       <c r="G131" t="n">
-        <v>-3334867.062109025</v>
+        <v>-4247120.200609025</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4997,28 +5147,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.093</v>
+        <v>3.15</v>
       </c>
       <c r="C132" t="n">
-        <v>3.091</v>
+        <v>3.12</v>
       </c>
       <c r="D132" t="n">
-        <v>3.093</v>
+        <v>3.15</v>
       </c>
       <c r="E132" t="n">
-        <v>3.091</v>
+        <v>3.11</v>
       </c>
       <c r="F132" t="n">
-        <v>205005</v>
+        <v>81786.0668</v>
       </c>
       <c r="G132" t="n">
-        <v>-3539872.062109025</v>
+        <v>-4328906.267409025</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5032,28 +5183,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.091</v>
+        <v>3.14</v>
       </c>
       <c r="C133" t="n">
-        <v>3.091</v>
+        <v>3.12</v>
       </c>
       <c r="D133" t="n">
-        <v>3.091</v>
+        <v>3.14</v>
       </c>
       <c r="E133" t="n">
-        <v>3.091</v>
+        <v>3.12</v>
       </c>
       <c r="F133" t="n">
-        <v>278644.782</v>
+        <v>32496.7872</v>
       </c>
       <c r="G133" t="n">
-        <v>-3539872.062109025</v>
+        <v>-4328906.267409025</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5067,28 +5219,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.111</v>
+        <v>3.12</v>
       </c>
       <c r="C134" t="n">
-        <v>3.111</v>
+        <v>3.12</v>
       </c>
       <c r="D134" t="n">
-        <v>3.111</v>
+        <v>3.14</v>
       </c>
       <c r="E134" t="n">
-        <v>3.111</v>
+        <v>3.12</v>
       </c>
       <c r="F134" t="n">
-        <v>280</v>
+        <v>29528.8146</v>
       </c>
       <c r="G134" t="n">
-        <v>-3539592.062109025</v>
+        <v>-4328906.267409025</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5102,28 +5255,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.111</v>
+        <v>3.12</v>
       </c>
       <c r="C135" t="n">
-        <v>3.111</v>
+        <v>3.12</v>
       </c>
       <c r="D135" t="n">
-        <v>3.111</v>
+        <v>3.12</v>
       </c>
       <c r="E135" t="n">
-        <v>3.111</v>
+        <v>3.12</v>
       </c>
       <c r="F135" t="n">
-        <v>16031.7624</v>
+        <v>3672.38</v>
       </c>
       <c r="G135" t="n">
-        <v>-3539592.062109025</v>
+        <v>-4328906.267409025</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5137,28 +5291,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.092</v>
+        <v>3.12</v>
       </c>
       <c r="C136" t="n">
-        <v>3.092</v>
+        <v>3.12</v>
       </c>
       <c r="D136" t="n">
-        <v>3.092</v>
+        <v>3.14</v>
       </c>
       <c r="E136" t="n">
-        <v>3.092</v>
+        <v>3.118</v>
       </c>
       <c r="F136" t="n">
-        <v>1136.6059</v>
+        <v>33753.1037</v>
       </c>
       <c r="G136" t="n">
-        <v>-3540728.668009025</v>
+        <v>-4328906.267409025</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5172,28 +5327,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.111</v>
+        <v>3.112</v>
       </c>
       <c r="C137" t="n">
-        <v>3.111</v>
+        <v>3.113</v>
       </c>
       <c r="D137" t="n">
-        <v>3.111</v>
+        <v>3.113</v>
       </c>
       <c r="E137" t="n">
-        <v>3.111</v>
+        <v>3.112</v>
       </c>
       <c r="F137" t="n">
-        <v>459.0808</v>
+        <v>2662.33</v>
       </c>
       <c r="G137" t="n">
-        <v>-3540269.587209025</v>
+        <v>-4331568.597409025</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5207,28 +5363,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.092</v>
+        <v>3.113</v>
       </c>
       <c r="C138" t="n">
-        <v>3.092</v>
+        <v>3.11</v>
       </c>
       <c r="D138" t="n">
-        <v>3.092</v>
+        <v>3.113</v>
       </c>
       <c r="E138" t="n">
-        <v>3.092</v>
+        <v>3.11</v>
       </c>
       <c r="F138" t="n">
-        <v>144106.3789</v>
+        <v>120380.4</v>
       </c>
       <c r="G138" t="n">
-        <v>-3684375.966109025</v>
+        <v>-4451948.997409025</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5242,28 +5399,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.091</v>
+        <v>3.112</v>
       </c>
       <c r="C139" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="D139" t="n">
-        <v>3.091</v>
+        <v>3.112</v>
       </c>
       <c r="E139" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="F139" t="n">
-        <v>985378.7565</v>
+        <v>16111.3286</v>
       </c>
       <c r="G139" t="n">
-        <v>-4669754.722609024</v>
+        <v>-4468060.326009025</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5277,28 +5435,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="C140" t="n">
-        <v>3.09</v>
+        <v>3.102</v>
       </c>
       <c r="D140" t="n">
-        <v>3.09</v>
+        <v>3.112</v>
       </c>
       <c r="E140" t="n">
-        <v>3.09</v>
+        <v>3.102</v>
       </c>
       <c r="F140" t="n">
-        <v>4943.3986</v>
+        <v>85449.52680000001</v>
       </c>
       <c r="G140" t="n">
-        <v>-4674698.121209024</v>
+        <v>-4468060.326009025</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5312,28 +5471,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="C141" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="D141" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="E141" t="n">
-        <v>3.091</v>
+        <v>3.102</v>
       </c>
       <c r="F141" t="n">
-        <v>108008.0449</v>
+        <v>696.35</v>
       </c>
       <c r="G141" t="n">
-        <v>-4566690.076309024</v>
+        <v>-4468060.326009025</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5347,28 +5507,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.111</v>
+        <v>3.14</v>
       </c>
       <c r="C142" t="n">
-        <v>3.111</v>
+        <v>3.14</v>
       </c>
       <c r="D142" t="n">
-        <v>3.111</v>
+        <v>3.14</v>
       </c>
       <c r="E142" t="n">
-        <v>3.111</v>
+        <v>3.14</v>
       </c>
       <c r="F142" t="n">
-        <v>31658.0991</v>
+        <v>502.2745</v>
       </c>
       <c r="G142" t="n">
-        <v>-4535031.977209024</v>
+        <v>-4467558.051509025</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5382,28 +5543,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.112</v>
+        <v>3.11</v>
       </c>
       <c r="C143" t="n">
-        <v>3.111</v>
+        <v>3.11</v>
       </c>
       <c r="D143" t="n">
-        <v>3.112</v>
+        <v>3.11</v>
       </c>
       <c r="E143" t="n">
-        <v>3.111</v>
+        <v>3.11</v>
       </c>
       <c r="F143" t="n">
-        <v>162614.129</v>
+        <v>997.28</v>
       </c>
       <c r="G143" t="n">
-        <v>-4535031.977209024</v>
+        <v>-4468555.331509025</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5417,28 +5579,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="C144" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="D144" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="E144" t="n">
-        <v>3.125</v>
+        <v>3.11</v>
       </c>
       <c r="F144" t="n">
-        <v>124800</v>
+        <v>44986.8978</v>
       </c>
       <c r="G144" t="n">
-        <v>-4410231.977209024</v>
+        <v>-4468555.331509025</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5452,28 +5615,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.125</v>
+        <v>3.14</v>
       </c>
       <c r="C145" t="n">
-        <v>3.125</v>
+        <v>3.14</v>
       </c>
       <c r="D145" t="n">
-        <v>3.125</v>
+        <v>3.14</v>
       </c>
       <c r="E145" t="n">
-        <v>3.125</v>
+        <v>3.14</v>
       </c>
       <c r="F145" t="n">
-        <v>3082.9894</v>
+        <v>16043.7579</v>
       </c>
       <c r="G145" t="n">
-        <v>-4410231.977209024</v>
+        <v>-4452511.573609025</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5487,28 +5651,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.1</v>
+        <v>3.112</v>
       </c>
       <c r="C146" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="D146" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="E146" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="F146" t="n">
-        <v>245.38</v>
+        <v>90596.0003</v>
       </c>
       <c r="G146" t="n">
-        <v>-4410477.357209024</v>
+        <v>-4543107.573909026</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5522,28 +5687,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.1</v>
+        <v>3.112</v>
       </c>
       <c r="C147" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="D147" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="E147" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="F147" t="n">
-        <v>643.1874</v>
+        <v>84913.29519999999</v>
       </c>
       <c r="G147" t="n">
-        <v>-4410477.357209024</v>
+        <v>-4628020.869109025</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5557,28 +5723,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="C148" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="D148" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="E148" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="F148" t="n">
-        <v>21339.2855</v>
+        <v>24518.0845</v>
       </c>
       <c r="G148" t="n">
-        <v>-4410477.357209024</v>
+        <v>-4603502.784609025</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5592,28 +5759,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="C149" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="D149" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="E149" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="F149" t="n">
-        <v>6153.7444</v>
+        <v>52030.2496</v>
       </c>
       <c r="G149" t="n">
-        <v>-4410477.357209024</v>
+        <v>-4655533.034209025</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5627,6 +5795,7 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5645,10 +5814,10 @@
         <v>3.11</v>
       </c>
       <c r="F150" t="n">
-        <v>62005.0077</v>
+        <v>12900</v>
       </c>
       <c r="G150" t="n">
-        <v>-4348472.349509024</v>
+        <v>-4655533.034209025</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5662,28 +5831,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="C151" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="D151" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="E151" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="F151" t="n">
-        <v>16088.7096</v>
+        <v>1275.5555</v>
       </c>
       <c r="G151" t="n">
-        <v>-4348472.349509024</v>
+        <v>-4654257.478709025</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5697,28 +5867,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="C152" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="D152" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="E152" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="F152" t="n">
-        <v>411.422</v>
+        <v>19095.5314</v>
       </c>
       <c r="G152" t="n">
-        <v>-4348060.927509024</v>
+        <v>-4673353.010109025</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5732,28 +5903,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="C153" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="D153" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="E153" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="F153" t="n">
-        <v>26644.6553</v>
+        <v>904.4686</v>
       </c>
       <c r="G153" t="n">
-        <v>-4348060.927509024</v>
+        <v>-4673353.010109025</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5767,28 +5939,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="C154" t="n">
-        <v>3.111</v>
+        <v>3.108</v>
       </c>
       <c r="D154" t="n">
-        <v>3.125</v>
+        <v>3.108</v>
       </c>
       <c r="E154" t="n">
-        <v>3.111</v>
+        <v>3.108</v>
       </c>
       <c r="F154" t="n">
-        <v>1330.92</v>
+        <v>15142.8286</v>
       </c>
       <c r="G154" t="n">
-        <v>-4349391.847509024</v>
+        <v>-4673353.010109025</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5802,28 +5975,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.111</v>
+        <v>3.106</v>
       </c>
       <c r="C155" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="D155" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="E155" t="n">
-        <v>3.111</v>
+        <v>3.106</v>
       </c>
       <c r="F155" t="n">
-        <v>2683.51</v>
+        <v>46178.2822</v>
       </c>
       <c r="G155" t="n">
-        <v>-4346708.337509024</v>
+        <v>-4719531.292309025</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5837,28 +6011,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="C156" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="D156" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="E156" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="F156" t="n">
-        <v>922.4299999999999</v>
+        <v>379049.7462</v>
       </c>
       <c r="G156" t="n">
-        <v>-4346708.337509024</v>
+        <v>-4719531.292309025</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5872,28 +6047,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.113</v>
+        <v>3.106</v>
       </c>
       <c r="C157" t="n">
-        <v>3.113</v>
+        <v>3.104</v>
       </c>
       <c r="D157" t="n">
-        <v>3.113</v>
+        <v>3.106</v>
       </c>
       <c r="E157" t="n">
-        <v>3.113</v>
+        <v>3.104</v>
       </c>
       <c r="F157" t="n">
-        <v>300.03</v>
+        <v>32971.8163</v>
       </c>
       <c r="G157" t="n">
-        <v>-4346408.307509024</v>
+        <v>-4752503.108609025</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5907,28 +6083,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.113</v>
+        <v>3.106</v>
       </c>
       <c r="C158" t="n">
-        <v>3.113</v>
+        <v>3.106</v>
       </c>
       <c r="D158" t="n">
-        <v>3.113</v>
+        <v>3.106</v>
       </c>
       <c r="E158" t="n">
-        <v>3.113</v>
+        <v>3.106</v>
       </c>
       <c r="F158" t="n">
-        <v>16654.1939</v>
+        <v>61661.7021</v>
       </c>
       <c r="G158" t="n">
-        <v>-4346408.307509024</v>
+        <v>-4690841.406509025</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5942,28 +6119,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="C159" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="D159" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="E159" t="n">
-        <v>3.112</v>
+        <v>3.106</v>
       </c>
       <c r="F159" t="n">
-        <v>46315.9988</v>
+        <v>457.107</v>
       </c>
       <c r="G159" t="n">
-        <v>-4392724.306309024</v>
+        <v>-4690841.406509025</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5977,28 +6155,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.112</v>
+        <v>3.139</v>
       </c>
       <c r="C160" t="n">
-        <v>3.1</v>
+        <v>3.139</v>
       </c>
       <c r="D160" t="n">
-        <v>3.112</v>
+        <v>3.139</v>
       </c>
       <c r="E160" t="n">
-        <v>3.1</v>
+        <v>3.139</v>
       </c>
       <c r="F160" t="n">
-        <v>337240.656</v>
+        <v>200</v>
       </c>
       <c r="G160" t="n">
-        <v>-4729964.962309024</v>
+        <v>-4690641.406509025</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6012,28 +6191,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="C161" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="D161" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="E161" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="F161" t="n">
-        <v>370.3697</v>
+        <v>500</v>
       </c>
       <c r="G161" t="n">
-        <v>-4729594.592609025</v>
+        <v>-4691141.406509025</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6047,28 +6227,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.125</v>
+        <v>3.139</v>
       </c>
       <c r="C162" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="D162" t="n">
-        <v>3.125</v>
+        <v>3.139</v>
       </c>
       <c r="E162" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="F162" t="n">
-        <v>63007.6021</v>
+        <v>805.0055</v>
       </c>
       <c r="G162" t="n">
-        <v>-4729594.592609025</v>
+        <v>-4691141.406509025</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6082,28 +6263,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.125</v>
+        <v>3.128</v>
       </c>
       <c r="C163" t="n">
-        <v>3.125</v>
+        <v>3.128</v>
       </c>
       <c r="D163" t="n">
-        <v>3.125</v>
+        <v>3.128</v>
       </c>
       <c r="E163" t="n">
-        <v>3.125</v>
+        <v>3.128</v>
       </c>
       <c r="F163" t="n">
-        <v>1063123.3712</v>
+        <v>689.322</v>
       </c>
       <c r="G163" t="n">
-        <v>-4729594.592609025</v>
+        <v>-4690452.084509025</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6117,28 +6299,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.102</v>
+        <v>3.103</v>
       </c>
       <c r="C164" t="n">
-        <v>3.129</v>
+        <v>3.103</v>
       </c>
       <c r="D164" t="n">
-        <v>3.129</v>
+        <v>3.103</v>
       </c>
       <c r="E164" t="n">
-        <v>3.102</v>
+        <v>3.103</v>
       </c>
       <c r="F164" t="n">
-        <v>200200</v>
+        <v>500</v>
       </c>
       <c r="G164" t="n">
-        <v>-4529394.592609025</v>
+        <v>-4690952.084509025</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6152,28 +6335,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.129</v>
+        <v>3.104</v>
       </c>
       <c r="C165" t="n">
-        <v>3.129</v>
+        <v>3.104</v>
       </c>
       <c r="D165" t="n">
-        <v>3.129</v>
+        <v>3.104</v>
       </c>
       <c r="E165" t="n">
-        <v>3.129</v>
+        <v>3.104</v>
       </c>
       <c r="F165" t="n">
-        <v>15939.5973</v>
+        <v>1000.3769</v>
       </c>
       <c r="G165" t="n">
-        <v>-4529394.592609025</v>
+        <v>-4689951.707609026</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6187,28 +6371,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.129</v>
+        <v>3.104</v>
       </c>
       <c r="C166" t="n">
-        <v>3.139</v>
+        <v>3.104</v>
       </c>
       <c r="D166" t="n">
-        <v>3.139</v>
+        <v>3.104</v>
       </c>
       <c r="E166" t="n">
-        <v>3.129</v>
+        <v>3.104</v>
       </c>
       <c r="F166" t="n">
-        <v>46000</v>
+        <v>199.6231</v>
       </c>
       <c r="G166" t="n">
-        <v>-4483394.592609025</v>
+        <v>-4689951.707609026</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6222,28 +6407,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.112</v>
+        <v>3.109</v>
       </c>
       <c r="C167" t="n">
-        <v>3.112</v>
+        <v>3.109</v>
       </c>
       <c r="D167" t="n">
-        <v>3.112</v>
+        <v>3.109</v>
       </c>
       <c r="E167" t="n">
-        <v>3.112</v>
+        <v>3.109</v>
       </c>
       <c r="F167" t="n">
-        <v>39080</v>
+        <v>160.8235</v>
       </c>
       <c r="G167" t="n">
-        <v>-4522474.592609025</v>
+        <v>-4689790.884109026</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6257,28 +6443,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.112</v>
+        <v>3.104</v>
       </c>
       <c r="C168" t="n">
-        <v>3.112</v>
+        <v>3.119</v>
       </c>
       <c r="D168" t="n">
-        <v>3.112</v>
+        <v>3.119</v>
       </c>
       <c r="E168" t="n">
-        <v>3.112</v>
+        <v>3.103</v>
       </c>
       <c r="F168" t="n">
-        <v>22950</v>
+        <v>599641.2831999999</v>
       </c>
       <c r="G168" t="n">
-        <v>-4522474.592609025</v>
+        <v>-4090149.600909026</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6292,28 +6479,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.102</v>
+        <v>3.103</v>
       </c>
       <c r="C169" t="n">
-        <v>3.102</v>
+        <v>3.103</v>
       </c>
       <c r="D169" t="n">
-        <v>3.102</v>
+        <v>3.103</v>
       </c>
       <c r="E169" t="n">
-        <v>3.102</v>
+        <v>3.103</v>
       </c>
       <c r="F169" t="n">
         <v>500</v>
       </c>
       <c r="G169" t="n">
-        <v>-4522974.592609025</v>
+        <v>-4090649.600909026</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6327,28 +6515,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.129</v>
+        <v>3.103</v>
       </c>
       <c r="C170" t="n">
-        <v>3.129</v>
+        <v>3.103</v>
       </c>
       <c r="D170" t="n">
-        <v>3.129</v>
+        <v>3.103</v>
       </c>
       <c r="E170" t="n">
-        <v>3.129</v>
+        <v>3.103</v>
       </c>
       <c r="F170" t="n">
-        <v>332.9879</v>
+        <v>243656.3451</v>
       </c>
       <c r="G170" t="n">
-        <v>-4522641.604709025</v>
+        <v>-4090649.600909026</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6362,28 +6551,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.102</v>
+        <v>3.119</v>
       </c>
       <c r="C171" t="n">
-        <v>3.102</v>
+        <v>3.119</v>
       </c>
       <c r="D171" t="n">
-        <v>3.102</v>
+        <v>3.119</v>
       </c>
       <c r="E171" t="n">
-        <v>3.102</v>
+        <v>3.119</v>
       </c>
       <c r="F171" t="n">
-        <v>71141.83</v>
+        <v>500</v>
       </c>
       <c r="G171" t="n">
-        <v>-4593783.434709025</v>
+        <v>-4090149.600909026</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6397,28 +6587,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.102</v>
+        <v>3.119</v>
       </c>
       <c r="C172" t="n">
-        <v>3.14</v>
+        <v>3.119</v>
       </c>
       <c r="D172" t="n">
-        <v>3.14</v>
+        <v>3.119</v>
       </c>
       <c r="E172" t="n">
-        <v>3.102</v>
+        <v>3.119</v>
       </c>
       <c r="F172" t="n">
-        <v>497308.4475</v>
+        <v>3569.5979</v>
       </c>
       <c r="G172" t="n">
-        <v>-4096474.987209025</v>
+        <v>-4090149.600909026</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6432,28 +6623,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.139</v>
+        <v>3.119</v>
       </c>
       <c r="C173" t="n">
-        <v>3.129</v>
+        <v>3.119</v>
       </c>
       <c r="D173" t="n">
-        <v>3.15</v>
+        <v>3.119</v>
       </c>
       <c r="E173" t="n">
-        <v>3.129</v>
+        <v>3.119</v>
       </c>
       <c r="F173" t="n">
-        <v>150645.2134</v>
+        <v>13574.8676</v>
       </c>
       <c r="G173" t="n">
-        <v>-4247120.200609025</v>
+        <v>-4090149.600909026</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6467,28 +6659,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.15</v>
+        <v>3.119</v>
       </c>
       <c r="C174" t="n">
-        <v>3.12</v>
+        <v>3.119</v>
       </c>
       <c r="D174" t="n">
-        <v>3.15</v>
+        <v>3.119</v>
       </c>
       <c r="E174" t="n">
-        <v>3.11</v>
+        <v>3.119</v>
       </c>
       <c r="F174" t="n">
-        <v>81786.0668</v>
+        <v>6116.83</v>
       </c>
       <c r="G174" t="n">
-        <v>-4328906.267409025</v>
+        <v>-4090149.600909026</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6502,28 +6695,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.14</v>
+        <v>3.119</v>
       </c>
       <c r="C175" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="D175" t="n">
         <v>3.12</v>
       </c>
-      <c r="D175" t="n">
-        <v>3.14</v>
-      </c>
       <c r="E175" t="n">
-        <v>3.12</v>
+        <v>3.119</v>
       </c>
       <c r="F175" t="n">
-        <v>32496.7872</v>
+        <v>52303.8959</v>
       </c>
       <c r="G175" t="n">
-        <v>-4328906.267409025</v>
+        <v>-4090149.600909026</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6537,28 +6731,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.12</v>
+        <v>3.139</v>
       </c>
       <c r="C176" t="n">
-        <v>3.12</v>
+        <v>3.139</v>
       </c>
       <c r="D176" t="n">
-        <v>3.14</v>
+        <v>3.139</v>
       </c>
       <c r="E176" t="n">
-        <v>3.12</v>
+        <v>3.139</v>
       </c>
       <c r="F176" t="n">
-        <v>29528.8146</v>
+        <v>481.8639</v>
       </c>
       <c r="G176" t="n">
-        <v>-4328906.267409025</v>
+        <v>-4089667.737009026</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6572,28 +6767,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.12</v>
+        <v>3.136</v>
       </c>
       <c r="C177" t="n">
-        <v>3.12</v>
+        <v>3.136</v>
       </c>
       <c r="D177" t="n">
-        <v>3.12</v>
+        <v>3.136</v>
       </c>
       <c r="E177" t="n">
-        <v>3.12</v>
+        <v>3.136</v>
       </c>
       <c r="F177" t="n">
-        <v>3672.38</v>
+        <v>2261.3874</v>
       </c>
       <c r="G177" t="n">
-        <v>-4328906.267409025</v>
+        <v>-4091929.124409026</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6607,28 +6803,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.12</v>
+        <v>3.137</v>
       </c>
       <c r="C178" t="n">
-        <v>3.12</v>
+        <v>3.137</v>
       </c>
       <c r="D178" t="n">
-        <v>3.14</v>
+        <v>3.137</v>
       </c>
       <c r="E178" t="n">
-        <v>3.118</v>
+        <v>3.137</v>
       </c>
       <c r="F178" t="n">
-        <v>33753.1037</v>
+        <v>7133.7758</v>
       </c>
       <c r="G178" t="n">
-        <v>-4328906.267409025</v>
+        <v>-4084795.348609026</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6642,28 +6839,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.112</v>
+        <v>3.138</v>
       </c>
       <c r="C179" t="n">
-        <v>3.113</v>
+        <v>3.138</v>
       </c>
       <c r="D179" t="n">
-        <v>3.113</v>
+        <v>3.138</v>
       </c>
       <c r="E179" t="n">
-        <v>3.112</v>
+        <v>3.138</v>
       </c>
       <c r="F179" t="n">
-        <v>2662.33</v>
+        <v>592.6712</v>
       </c>
       <c r="G179" t="n">
-        <v>-4331568.597409025</v>
+        <v>-4084202.677409025</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6677,28 +6875,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.113</v>
+        <v>3.139</v>
       </c>
       <c r="C180" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="D180" t="n">
-        <v>3.113</v>
+        <v>3.14</v>
       </c>
       <c r="E180" t="n">
-        <v>3.11</v>
+        <v>3.139</v>
       </c>
       <c r="F180" t="n">
-        <v>120380.4</v>
+        <v>31790.245</v>
       </c>
       <c r="G180" t="n">
-        <v>-4451948.997409025</v>
+        <v>-4052412.432409025</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6712,28 +6911,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.112</v>
+        <v>3.14</v>
       </c>
       <c r="C181" t="n">
-        <v>3.102</v>
+        <v>3.147</v>
       </c>
       <c r="D181" t="n">
-        <v>3.112</v>
+        <v>3.147</v>
       </c>
       <c r="E181" t="n">
-        <v>3.102</v>
+        <v>3.14</v>
       </c>
       <c r="F181" t="n">
-        <v>16111.3286</v>
+        <v>22695.8631</v>
       </c>
       <c r="G181" t="n">
-        <v>-4468060.326009025</v>
+        <v>-4029716.569309025</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6747,28 +6947,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.112</v>
+        <v>3.139</v>
       </c>
       <c r="C182" t="n">
-        <v>3.102</v>
+        <v>3.138</v>
       </c>
       <c r="D182" t="n">
-        <v>3.112</v>
+        <v>3.139</v>
       </c>
       <c r="E182" t="n">
-        <v>3.102</v>
+        <v>3.138</v>
       </c>
       <c r="F182" t="n">
-        <v>85449.52680000001</v>
+        <v>13350.3319</v>
       </c>
       <c r="G182" t="n">
-        <v>-4468060.326009025</v>
+        <v>-4043066.901209025</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6782,28 +6983,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.102</v>
+        <v>3.147</v>
       </c>
       <c r="C183" t="n">
-        <v>3.102</v>
+        <v>3.147</v>
       </c>
       <c r="D183" t="n">
-        <v>3.102</v>
+        <v>3.147</v>
       </c>
       <c r="E183" t="n">
-        <v>3.102</v>
+        <v>3.147</v>
       </c>
       <c r="F183" t="n">
-        <v>696.35</v>
+        <v>162.9591</v>
       </c>
       <c r="G183" t="n">
-        <v>-4468060.326009025</v>
+        <v>-4042903.942109025</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6817,6 +7019,7 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6835,10 +7038,10 @@
         <v>3.14</v>
       </c>
       <c r="F184" t="n">
-        <v>502.2745</v>
+        <v>93040</v>
       </c>
       <c r="G184" t="n">
-        <v>-4467558.051509025</v>
+        <v>-4135943.942109025</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6852,28 +7055,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="C185" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="D185" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="E185" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="F185" t="n">
-        <v>997.28</v>
+        <v>108008.0449</v>
       </c>
       <c r="G185" t="n">
-        <v>-4468555.331509025</v>
+        <v>-4135943.942109025</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6887,28 +7091,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="C186" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="D186" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="E186" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="F186" t="n">
-        <v>44986.8978</v>
+        <v>264.4952</v>
       </c>
       <c r="G186" t="n">
-        <v>-4468555.331509025</v>
+        <v>-4135943.942109025</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6922,28 +7127,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.14</v>
+        <v>3.146</v>
       </c>
       <c r="C187" t="n">
-        <v>3.14</v>
+        <v>3.146</v>
       </c>
       <c r="D187" t="n">
-        <v>3.14</v>
+        <v>3.146</v>
       </c>
       <c r="E187" t="n">
-        <v>3.14</v>
+        <v>3.146</v>
       </c>
       <c r="F187" t="n">
-        <v>16043.7579</v>
+        <v>10500</v>
       </c>
       <c r="G187" t="n">
-        <v>-4452511.573609025</v>
+        <v>-4125443.942109025</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6957,28 +7163,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3.112</v>
+        <v>3.147</v>
       </c>
       <c r="C188" t="n">
-        <v>3.13</v>
+        <v>3.147</v>
       </c>
       <c r="D188" t="n">
-        <v>3.13</v>
+        <v>3.147</v>
       </c>
       <c r="E188" t="n">
-        <v>3.11</v>
+        <v>3.147</v>
       </c>
       <c r="F188" t="n">
-        <v>90596.0003</v>
+        <v>166.4293</v>
       </c>
       <c r="G188" t="n">
-        <v>-4543107.573909026</v>
+        <v>-4125277.512809025</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6992,28 +7199,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.112</v>
+        <v>3.14</v>
       </c>
       <c r="C189" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="D189" t="n">
         <v>3.14</v>
       </c>
       <c r="E189" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="F189" t="n">
-        <v>84913.29519999999</v>
+        <v>10000</v>
       </c>
       <c r="G189" t="n">
-        <v>-4628020.869109025</v>
+        <v>-4135277.512809025</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7027,28 +7235,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.11</v>
+        <v>3.147</v>
       </c>
       <c r="C190" t="n">
-        <v>3.13</v>
+        <v>3.147</v>
       </c>
       <c r="D190" t="n">
-        <v>3.13</v>
+        <v>3.147</v>
       </c>
       <c r="E190" t="n">
-        <v>3.11</v>
+        <v>3.147</v>
       </c>
       <c r="F190" t="n">
-        <v>24518.0845</v>
+        <v>406.746</v>
       </c>
       <c r="G190" t="n">
-        <v>-4603502.784609025</v>
+        <v>-4134870.766809025</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7062,6 +7271,7 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7071,19 +7281,19 @@
         <v>3.14</v>
       </c>
       <c r="C191" t="n">
-        <v>3.11</v>
+        <v>3.124</v>
       </c>
       <c r="D191" t="n">
-        <v>3.14</v>
+        <v>3.147</v>
       </c>
       <c r="E191" t="n">
-        <v>3.11</v>
+        <v>3.124</v>
       </c>
       <c r="F191" t="n">
-        <v>52030.2496</v>
+        <v>43357.177</v>
       </c>
       <c r="G191" t="n">
-        <v>-4655533.034209025</v>
+        <v>-4178227.943809025</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7097,28 +7307,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.11</v>
+        <v>3.138</v>
       </c>
       <c r="C192" t="n">
-        <v>3.11</v>
+        <v>3.124</v>
       </c>
       <c r="D192" t="n">
-        <v>3.11</v>
+        <v>3.138</v>
       </c>
       <c r="E192" t="n">
-        <v>3.11</v>
+        <v>3.124</v>
       </c>
       <c r="F192" t="n">
-        <v>12900</v>
+        <v>996.6122</v>
       </c>
       <c r="G192" t="n">
-        <v>-4655533.034209025</v>
+        <v>-4178227.943809025</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7132,28 +7343,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.13</v>
+        <v>3.124</v>
       </c>
       <c r="C193" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="D193" t="n">
-        <v>3.13</v>
+        <v>3.124</v>
       </c>
       <c r="E193" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="F193" t="n">
-        <v>1275.5555</v>
+        <v>300841.84</v>
       </c>
       <c r="G193" t="n">
-        <v>-4654257.478709025</v>
+        <v>-4479069.783809026</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7167,28 +7379,29 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3.108</v>
+        <v>3.12</v>
       </c>
       <c r="C194" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="D194" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="E194" t="n">
-        <v>3.108</v>
+        <v>3.12</v>
       </c>
       <c r="F194" t="n">
-        <v>19095.5314</v>
+        <v>2272.68</v>
       </c>
       <c r="G194" t="n">
-        <v>-4673353.010109025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7202,28 +7415,29 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="C195" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="D195" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="E195" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="F195" t="n">
-        <v>904.4686</v>
+        <v>6258.6</v>
       </c>
       <c r="G195" t="n">
-        <v>-4673353.010109025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7237,28 +7451,29 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="C196" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="D196" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="E196" t="n">
-        <v>3.108</v>
+        <v>3.121</v>
       </c>
       <c r="F196" t="n">
-        <v>15142.8286</v>
+        <v>2036.58</v>
       </c>
       <c r="G196" t="n">
-        <v>-4673353.010109025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7272,28 +7487,29 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="C197" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="D197" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="E197" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="F197" t="n">
-        <v>46178.2822</v>
+        <v>4637.15</v>
       </c>
       <c r="G197" t="n">
-        <v>-4719531.292309025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7307,28 +7523,29 @@
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="C198" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="D198" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="E198" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="F198" t="n">
-        <v>379049.7462</v>
+        <v>4118.35</v>
       </c>
       <c r="G198" t="n">
-        <v>-4719531.292309025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7342,28 +7559,29 @@
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="C199" t="n">
-        <v>3.104</v>
+        <v>3.121</v>
       </c>
       <c r="D199" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="E199" t="n">
-        <v>3.104</v>
+        <v>3.121</v>
       </c>
       <c r="F199" t="n">
-        <v>32971.8163</v>
+        <v>1524.77</v>
       </c>
       <c r="G199" t="n">
-        <v>-4752503.108609025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7377,28 +7595,29 @@
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="C200" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="D200" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="E200" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="F200" t="n">
-        <v>61661.7021</v>
+        <v>2443.52</v>
       </c>
       <c r="G200" t="n">
-        <v>-4690841.406509025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7412,28 +7631,29 @@
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="C201" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="D201" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="E201" t="n">
-        <v>3.106</v>
+        <v>3.121</v>
       </c>
       <c r="F201" t="n">
-        <v>457.107</v>
+        <v>3045.05</v>
       </c>
       <c r="G201" t="n">
-        <v>-4690841.406509025</v>
+        <v>-4476797.103809026</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7447,1476 +7667,7 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="D202" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="E202" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="F202" t="n">
-        <v>200</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-4690641.406509025</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="D203" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="E203" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="F203" t="n">
-        <v>500</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-4691141.406509025</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="D204" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="E204" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="F204" t="n">
-        <v>805.0055</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-4691141.406509025</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="D205" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="E205" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="F205" t="n">
-        <v>689.322</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-4690452.084509025</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="D206" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="E206" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="F206" t="n">
-        <v>500</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-4690952.084509025</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="C207" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="D207" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="E207" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1000.3769</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-4689951.707609026</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="D208" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="F208" t="n">
-        <v>199.6231</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-4689951.707609026</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>3.109</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.109</v>
-      </c>
-      <c r="D209" t="n">
-        <v>3.109</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3.109</v>
-      </c>
-      <c r="F209" t="n">
-        <v>160.8235</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-4689790.884109026</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D210" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="E210" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="F210" t="n">
-        <v>599641.2831999999</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="D211" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="E211" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="F211" t="n">
-        <v>500</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-4090649.600909026</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="D212" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="E212" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="F212" t="n">
-        <v>243656.3451</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-4090649.600909026</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D213" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="E213" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="F213" t="n">
-        <v>500</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D214" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="E214" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="F214" t="n">
-        <v>3569.5979</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D215" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="E215" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="F215" t="n">
-        <v>13574.8676</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D216" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="E216" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="F216" t="n">
-        <v>6116.83</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D217" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E217" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="F217" t="n">
-        <v>52303.8959</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="D218" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="E218" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="F218" t="n">
-        <v>481.8639</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-4089667.737009026</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D219" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E219" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F219" t="n">
-        <v>2261.3874</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-4091929.124409026</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="D220" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="E220" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="F220" t="n">
-        <v>7133.7758</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-4084795.348609026</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D221" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E221" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="F221" t="n">
-        <v>592.6712</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-4084202.677409025</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D222" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E222" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="F222" t="n">
-        <v>31790.245</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-4052412.432409025</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="D223" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="E223" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F223" t="n">
-        <v>22695.8631</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-4029716.569309025</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="C224" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D224" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="E224" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="F224" t="n">
-        <v>13350.3319</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-4043066.901209025</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="D225" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="E225" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="F225" t="n">
-        <v>162.9591</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-4042903.942109025</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C226" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D226" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E226" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F226" t="n">
-        <v>93040</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-4135943.942109025</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C227" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D227" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E227" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F227" t="n">
-        <v>108008.0449</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-4135943.942109025</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C228" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D228" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E228" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F228" t="n">
-        <v>264.4952</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-4135943.942109025</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="C229" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="D229" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="E229" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="F229" t="n">
-        <v>10500</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-4125443.942109025</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="C230" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="D230" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="E230" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="F230" t="n">
-        <v>166.4293</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-4125277.512809025</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C231" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D231" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E231" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F231" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-4135277.512809025</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="D232" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="E232" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="F232" t="n">
-        <v>406.746</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-4134870.766809025</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C233" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="D233" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="E233" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="F233" t="n">
-        <v>43357.177</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-4178227.943809025</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="D234" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E234" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="F234" t="n">
-        <v>996.6122</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-4178227.943809025</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="C235" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D235" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="E235" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F235" t="n">
-        <v>300841.84</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-4479069.783809026</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C236" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D236" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E236" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2272.68</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D237" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E237" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="F237" t="n">
-        <v>6258.6</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="C238" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D238" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E238" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2036.58</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="C239" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D239" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E239" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="F239" t="n">
-        <v>4637.15</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D240" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E240" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="F240" t="n">
-        <v>4118.35</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="C241" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D241" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E241" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1524.77</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="C242" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D242" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E242" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2443.52</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="C243" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="D243" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="E243" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="F243" t="n">
-        <v>3045.05</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
+      <c r="N201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N272"/>
+  <dimension ref="A1:M272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>74609.6069</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>74609.6069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>75009.6069</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>45009.6069</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>45009.6069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>45009.6069</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>45209.6069</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>26298.5545</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>26298.5545</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>9042.281299999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>18659.95</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-27309.92260000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-42230.5613</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>1558.133999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-46332.4774</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-52598.83</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-91219.3094</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-84881.5955</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-84881.5955</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-136778.1719</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>483626.9637000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>492278.4422</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>492278.4422</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>492278.4422</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>492278.4422</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>497364.5362</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>500240.9283</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>500240.9283</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>500240.9283</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>500240.9283</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>500240.9283</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>500699.15</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>500699.15</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>500699.15</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>500699.15</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>484089.964</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>579625.9353</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>579625.9353</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>579625.9353</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>523497.3881</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-1316265.0225</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,22 +2959,15 @@
         <v>-2133870.66</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K78" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3234,154 +2994,124 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="F80" t="n">
+        <v>76179.1583</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2210049.8183</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>3.05</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="C81" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F81" t="n">
+        <v>33456.5232</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2176593.2951</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.078</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.078</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F82" t="n">
+        <v>176486.6483</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2000106.6468</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="F80" t="n">
-        <v>76179.1583</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-2210049.8183</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K80" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E81" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F81" t="n">
-        <v>33456.5232</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-2176593.2951</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.078</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.078</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F82" t="n">
-        <v>176486.6483</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-2000106.6468</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3406,26 +3136,23 @@
         <v>-159142.4514999997</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3.078</v>
       </c>
       <c r="J83" t="n">
-        <v>3.078</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>3.044</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3452,22 +3179,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3494,22 +3212,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3536,22 +3245,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3578,22 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3620,22 +3311,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3662,22 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3704,22 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3746,22 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3788,22 +3443,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3830,22 +3476,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3872,22 +3509,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3914,22 +3542,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3956,22 +3575,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3998,22 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,22 +3641,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4082,22 +3674,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4122,24 +3705,15 @@
         <v>1010602.961290974</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4166,22 +3740,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4208,22 +3773,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4250,22 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4292,22 +3839,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4334,22 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4376,22 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4418,22 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4460,22 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4502,22 +4004,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4544,22 +4037,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4586,22 +4070,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4628,22 +4103,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4670,22 +4136,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4712,22 +4169,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4754,22 +4202,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4796,22 +4235,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4838,22 +4268,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4880,22 +4301,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4922,22 +4334,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4964,22 +4367,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5006,22 +4400,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5048,22 +4433,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5090,22 +4466,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5132,22 +4499,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5174,22 +4532,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5216,22 +4565,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5258,22 +4598,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5300,22 +4631,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5342,22 +4664,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5384,22 +4697,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5426,22 +4730,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5468,22 +4763,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5510,22 +4796,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5552,22 +4829,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5594,22 +4862,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5636,22 +4895,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5678,22 +4928,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5720,22 +4961,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5762,22 +4994,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5804,22 +5027,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5846,22 +5060,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5888,22 +5093,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5930,22 +5126,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5972,22 +5159,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6014,22 +5192,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6056,22 +5225,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6098,22 +5258,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6140,22 +5291,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6182,22 +5324,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6224,22 +5357,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6266,22 +5390,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6308,22 +5423,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6350,22 +5456,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6392,22 +5489,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6434,22 +5522,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6476,22 +5555,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6518,22 +5588,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6560,22 +5621,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6602,22 +5654,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6644,22 +5687,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6686,22 +5720,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6728,22 +5753,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6770,22 +5786,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6812,22 +5819,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6854,22 +5852,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6896,22 +5885,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6938,22 +5918,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6980,22 +5951,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7022,22 +5984,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7064,22 +6017,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7106,22 +6050,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7148,22 +6083,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7190,22 +6116,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7232,22 +6149,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7274,22 +6182,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7316,22 +6215,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7358,22 +6248,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7400,22 +6281,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7442,22 +6314,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7482,24 +6345,19 @@
         <v>-4348472.349509024</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>3.11</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7526,22 +6384,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7568,22 +6423,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7610,22 +6462,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7652,22 +6495,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7694,22 +6528,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7736,22 +6561,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7778,22 +6594,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7820,22 +6627,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7862,22 +6660,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7904,22 +6693,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7946,22 +6726,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7988,22 +6759,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8030,22 +6792,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8072,22 +6825,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8114,22 +6858,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8156,22 +6891,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8198,22 +6924,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8240,22 +6957,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8282,22 +6990,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8324,22 +7023,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8366,22 +7056,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8408,22 +7089,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8450,22 +7122,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8492,22 +7155,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8534,22 +7188,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8576,22 +7221,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8618,22 +7254,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8660,22 +7287,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8702,22 +7320,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8744,22 +7353,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8786,22 +7386,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8828,22 +7419,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8870,22 +7452,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8912,22 +7485,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8954,22 +7518,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8996,22 +7551,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9038,22 +7584,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9080,22 +7617,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9122,22 +7650,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9164,22 +7683,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9206,22 +7716,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9248,22 +7749,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9290,22 +7782,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9332,22 +7815,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9374,22 +7848,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9416,22 +7881,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9458,22 +7914,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9500,22 +7947,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9542,22 +7980,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9584,22 +8013,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9626,22 +8046,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9668,22 +8079,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9710,22 +8112,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9752,22 +8145,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9794,22 +8178,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9836,22 +8211,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9878,22 +8244,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9920,22 +8277,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9962,22 +8310,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10004,22 +8343,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10046,22 +8376,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10088,22 +8409,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10130,22 +8442,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10172,22 +8475,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10214,22 +8508,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10256,22 +8541,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10298,22 +8574,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10340,22 +8607,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10382,22 +8640,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10424,22 +8673,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10466,22 +8706,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10508,22 +8739,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10550,22 +8772,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10592,22 +8805,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10634,22 +8838,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10676,22 +8871,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10718,22 +8904,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10760,22 +8937,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10802,22 +8970,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10844,22 +9003,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10886,22 +9036,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10928,22 +9069,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10970,22 +9102,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11012,22 +9135,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11054,22 +9168,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11096,22 +9201,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11138,22 +9234,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11180,22 +9267,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11222,22 +9300,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11264,22 +9333,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11306,22 +9366,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11348,24 +9399,15 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>75009.6069</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>45209.6069</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>9042.281299999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>18659.95</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-27309.92260000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-42230.5613</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1558.133999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-46332.4774</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-52598.83</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-79922.40549999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-79922.40549999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-41670.88919999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-72632.02859999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-28359.37669999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-136778.1719</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>483626.9637000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>497364.5362</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>500699.15</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>500699.15</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>500699.15</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>500699.15</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>484089.964</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>523497.3881</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1316265.0225</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1210588.8665</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1176368.2635</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1163065.9573</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1256054.9123</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1568002.4923</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1590495.3402</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1923674.5202</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1918137.3321</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2133870.66</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,14 +3058,10 @@
         <v>-2176593.2951</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3095,19 +3091,11 @@
         <v>-2000106.6468</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3136,19 +3124,11 @@
         <v>-159142.4514999997</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.078</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3388,7 @@
         <v>-131521.3575999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3441,7 +3421,7 @@
         <v>-129159.5810999997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3474,7 +3454,7 @@
         <v>-135231.9354999997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3507,7 +3487,7 @@
         <v>1190951.545390974</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3540,7 +3520,7 @@
         <v>1181814.239490974</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3705,7 +3685,7 @@
         <v>1010602.961290974</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3837,7 +3817,7 @@
         <v>979782.9612909741</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3870,7 +3850,7 @@
         <v>979782.9612909741</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3903,7 +3883,7 @@
         <v>1055843.133490974</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3936,7 +3916,7 @@
         <v>1077574.578490974</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3969,7 +3949,7 @@
         <v>1025206.921490974</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4200,7 +4180,7 @@
         <v>842505.2005909742</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4332,7 +4312,7 @@
         <v>843498.0708909741</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4365,7 +4345,7 @@
         <v>828948.0708909741</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4398,7 +4378,7 @@
         <v>514488.0191909741</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4431,7 +4411,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4464,7 +4444,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4497,7 +4477,7 @@
         <v>1099410.377790974</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4596,7 +4576,7 @@
         <v>343212.2509909743</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4629,7 +4609,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4662,7 +4642,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4695,7 +4675,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4728,7 +4708,7 @@
         <v>345217.5404909743</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4827,7 +4807,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4860,7 +4840,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4893,7 +4873,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4926,7 +4906,7 @@
         <v>6566.134390974243</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4959,7 +4939,7 @@
         <v>-156703.6676090258</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4992,7 +4972,7 @@
         <v>-153754.5122090258</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5025,7 +5005,7 @@
         <v>-169995.1504090258</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5058,7 +5038,7 @@
         <v>-27093.28820902575</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5091,7 +5071,7 @@
         <v>-1109688.937009026</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5124,7 +5104,7 @@
         <v>-1109688.937009026</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5157,7 +5137,7 @@
         <v>-1019575.860509026</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5190,7 +5170,7 @@
         <v>-2931866.765809026</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6345,7 +6325,7 @@
         <v>-4348472.349509024</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>3.11</v>
@@ -6724,10 +6704,14 @@
         <v>-4729594.592609025</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3.125</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6760,8 +6744,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +6783,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +6822,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +6861,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +6900,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +6939,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +6978,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6988,11 +7014,19 @@
         <v>-4522641.604709025</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7021,11 +7055,19 @@
         <v>-4593783.434709025</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7054,11 +7096,19 @@
         <v>-4096474.987209025</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7087,11 +7137,19 @@
         <v>-4247120.200609025</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7120,11 +7178,19 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="J203" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +7222,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7186,11 +7258,19 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +7302,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +7341,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +7380,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +7416,19 @@
         <v>-4451948.997409025</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J209" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7351,11 +7457,19 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J210" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7384,11 +7498,19 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J211" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7417,11 +7539,19 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7450,11 +7580,19 @@
         <v>-4467558.051509025</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +7624,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +7702,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +7741,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +7780,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7648,11 +7816,19 @@
         <v>-4603502.784609025</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J219" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7681,11 +7857,19 @@
         <v>-4655533.034209025</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="J220" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7714,11 +7898,19 @@
         <v>-4655533.034209025</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7747,11 +7939,19 @@
         <v>-4654257.478709025</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J222" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +7980,19 @@
         <v>-4673353.010109025</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="J223" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7816,8 +8024,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8063,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8102,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +8141,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +8177,19 @@
         <v>-4752503.108609025</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="J228" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +8218,19 @@
         <v>-4690841.406509025</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="J229" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +8259,19 @@
         <v>-4690841.406509025</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="J230" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +8300,19 @@
         <v>-4690641.406509025</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8113,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8146,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8179,8 +8461,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8212,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8245,8 +8539,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8278,8 +8578,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +8617,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8344,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8377,8 +8695,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8410,8 +8734,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8443,8 +8773,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8476,8 +8812,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8509,8 +8851,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +8890,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +8929,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +8968,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8641,8 +9007,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +9046,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +9085,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +9163,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +9202,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +9241,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8872,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8905,8 +9319,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8938,8 +9358,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8971,8 +9397,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +9436,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9037,8 +9475,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9070,8 +9514,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9103,8 +9553,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9136,8 +9592,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +9670,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +9709,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +9745,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J268" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9301,8 +9789,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +9828,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +9864,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9397,17 +9905,25 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
       <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>75009.6069</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>45209.6069</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>9042.281299999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>18659.95</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1558.133999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-46332.4774</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-52598.83</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-79922.40549999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-79922.40549999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-41670.88919999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-72632.02859999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-28359.37669999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-136778.1719</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>483626.9637000001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>497364.5362</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>500699.15</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>500699.15</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>523497.3881</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1316265.0225</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1210588.8665</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1176368.2635</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1163065.9573</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1256054.9123</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1568002.4923</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1590495.3402</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1923674.5202</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1918137.3321</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2133870.66</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-131521.3575999997</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-129159.5810999997</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-135231.9354999997</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1181814.239490974</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>979782.9612909741</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>979782.9612909741</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1055843.133490974</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1077574.578490974</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1025206.921490974</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>842505.2005909742</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>842505.2005909742</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1099410.377790974</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>477042.8580909742</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>316395.0767909742</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6566.134390974243</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-156703.6676090258</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-153754.5122090258</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-169995.1504090258</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-27093.28820902575</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1109688.937009026</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1109688.937009026</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1019575.860509026</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2931866.765809026</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6325,14 +6325,10 @@
         <v>-4348472.349509024</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6365,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6704,14 +6688,10 @@
         <v>-4729594.592609025</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6744,1452 +6724,1226 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K192" t="inlineStr">
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="F193" t="n">
+        <v>200200</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-4529394.592609025</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="F194" t="n">
+        <v>15939.5973</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-4529394.592609025</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="F195" t="n">
+        <v>46000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-4483394.592609025</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="F196" t="n">
+        <v>39080</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-4522474.592609025</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="F197" t="n">
+        <v>22950</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-4522474.592609025</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="F198" t="n">
+        <v>500</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-4522974.592609025</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="F199" t="n">
+        <v>332.9879</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-4522641.604709025</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="F200" t="n">
+        <v>71141.83</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-4593783.434709025</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="F201" t="n">
+        <v>497308.4475</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-4096474.987209025</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="F202" t="n">
+        <v>150645.2134</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-4247120.200609025</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F203" t="n">
+        <v>81786.0668</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-4328906.267409025</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F204" t="n">
+        <v>32496.7872</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-4328906.267409025</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F205" t="n">
+        <v>29528.8146</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-4328906.267409025</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3672.38</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-4328906.267409025</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="F207" t="n">
+        <v>33753.1037</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-4328906.267409025</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2662.33</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-4331568.597409025</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F209" t="n">
+        <v>120380.4</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-4451948.997409025</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="F210" t="n">
+        <v>16111.3286</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-4468060.326009025</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="F211" t="n">
+        <v>85449.52680000001</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-4468060.326009025</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="F212" t="n">
+        <v>696.35</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-4468060.326009025</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F213" t="n">
+        <v>502.2745</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-4467558.051509025</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F214" t="n">
+        <v>997.28</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-4468555.331509025</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F215" t="n">
+        <v>44986.8978</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-4468555.331509025</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F216" t="n">
+        <v>16043.7579</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-4452511.573609025</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F217" t="n">
+        <v>90596.0003</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-4543107.573909026</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F218" t="n">
+        <v>84913.29519999999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-4628020.869109025</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F219" t="n">
+        <v>24518.0845</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-4603502.784609025</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F220" t="n">
+        <v>52030.2496</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-4655533.034209025</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F221" t="n">
+        <v>12900</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-4655533.034209025</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1275.5555</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-4654257.478709025</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="F223" t="n">
+        <v>19095.5314</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-4673353.010109025</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="F224" t="n">
+        <v>904.4686</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-4673353.010109025</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="J224" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="F225" t="n">
+        <v>15142.8286</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-4673353.010109025</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="D193" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="F193" t="n">
-        <v>200200</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-4529394.592609025</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K193" t="inlineStr">
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="F226" t="n">
+        <v>46178.2822</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-4719531.292309025</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="F227" t="n">
+        <v>379049.7462</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-4719531.292309025</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="J227" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="F228" t="n">
+        <v>32971.8163</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-4752503.108609025</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="J228" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="F194" t="n">
-        <v>15939.5973</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-4529394.592609025</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="D195" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="E195" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="F195" t="n">
-        <v>46000</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-4483394.592609025</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="D196" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="E196" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="F196" t="n">
-        <v>39080</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-4522474.592609025</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="D197" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="F197" t="n">
-        <v>22950</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-4522474.592609025</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="D198" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="F198" t="n">
-        <v>500</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-4522974.592609025</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="D199" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="E199" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="F199" t="n">
-        <v>332.9879</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-4522641.604709025</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J199" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="F200" t="n">
-        <v>71141.83</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-4593783.434709025</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D201" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="F201" t="n">
-        <v>497308.4475</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-4096474.987209025</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="D202" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E202" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="F202" t="n">
-        <v>150645.2134</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-4247120.200609025</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J202" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D203" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E203" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F203" t="n">
-        <v>81786.0668</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="J203" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D204" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E204" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F204" t="n">
-        <v>32496.7872</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D205" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E205" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F205" t="n">
-        <v>29528.8146</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D206" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E206" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F206" t="n">
-        <v>3672.38</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C207" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D207" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E207" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="F207" t="n">
-        <v>33753.1037</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="D208" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2662.33</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-4331568.597409025</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D209" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F209" t="n">
-        <v>120380.4</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-4451948.997409025</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J209" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="D210" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="E210" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="F210" t="n">
-        <v>16111.3286</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-4468060.326009025</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="D211" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="E211" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="F211" t="n">
-        <v>85449.52680000001</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-4468060.326009025</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J211" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="D212" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="E212" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="F212" t="n">
-        <v>696.35</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-4468060.326009025</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J212" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D213" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E213" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F213" t="n">
-        <v>502.2745</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-4467558.051509025</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D214" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E214" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F214" t="n">
-        <v>997.28</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-4468555.331509025</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D215" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E215" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F215" t="n">
-        <v>44986.8978</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-4468555.331509025</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="D216" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E216" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F216" t="n">
-        <v>16043.7579</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-4452511.573609025</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D217" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E217" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F217" t="n">
-        <v>90596.0003</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-4543107.573909026</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D218" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E218" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F218" t="n">
-        <v>84913.29519999999</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-4628020.869109025</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D219" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E219" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F219" t="n">
-        <v>24518.0845</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-4603502.784609025</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D220" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E220" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F220" t="n">
-        <v>52030.2496</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-4655533.034209025</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D221" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E221" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F221" t="n">
-        <v>12900</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-4655533.034209025</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D222" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E222" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1275.5555</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-4654257.478709025</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="D223" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="E223" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="F223" t="n">
-        <v>19095.5314</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-4673353.010109025</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="C224" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="D224" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="E224" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="F224" t="n">
-        <v>904.4686</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-4673353.010109025</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="D225" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="E225" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="F225" t="n">
-        <v>15142.8286</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-4673353.010109025</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="C226" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="D226" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="E226" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="F226" t="n">
-        <v>46178.2822</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-4719531.292309025</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="C227" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="D227" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="E227" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="F227" t="n">
-        <v>379049.7462</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-4719531.292309025</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="C228" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="D228" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="E228" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="F228" t="n">
-        <v>32971.8163</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-4752503.108609025</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J228" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8224,7 +7978,7 @@
         <v>3.104</v>
       </c>
       <c r="J229" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8259,13 +8013,11 @@
         <v>-4690841.406509025</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
         <v>3.106</v>
-      </c>
-      <c r="J230" t="n">
-        <v>3.125</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8306,7 +8058,7 @@
         <v>3.106</v>
       </c>
       <c r="J231" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8345,7 +8097,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8384,7 +8136,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8423,7 +8175,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8462,7 +8214,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8501,7 +8253,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8540,7 +8292,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8575,11 +8327,13 @@
         <v>-4689790.884109026</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>3.104</v>
+      </c>
       <c r="J238" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8614,11 +8368,13 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>3.109</v>
+      </c>
       <c r="J239" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8653,11 +8409,13 @@
         <v>-4090649.600909026</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J240" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8692,11 +8450,13 @@
         <v>-4090649.600909026</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>3.103</v>
+      </c>
       <c r="J241" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8735,7 +8495,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8770,11 +8530,13 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J243" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8813,7 +8575,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8852,7 +8614,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8891,7 +8653,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8930,7 +8692,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8969,7 +8731,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9008,7 +8770,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9047,7 +8809,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9086,7 +8848,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9125,7 +8887,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9164,7 +8926,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9203,7 +8965,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9242,7 +9004,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9281,7 +9043,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9320,7 +9082,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9359,7 +9121,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9394,19 +9156,19 @@
         <v>-4125277.512809025</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1</v>
+        <v>1.008200257566001</v>
       </c>
       <c r="M259" t="inlineStr"/>
     </row>
@@ -9436,14 +9198,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9475,14 +9231,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9514,14 +9264,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9553,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9592,14 +9330,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9631,14 +9363,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9670,14 +9396,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9709,14 +9429,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9745,19 +9459,11 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J268" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9789,14 +9495,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9828,14 +9528,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9864,19 +9558,11 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J271" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9905,25 +9591,17 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J272" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
       <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -451,7 +451,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>75009.6069</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>45209.6069</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>9042.281299999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>18659.95</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-27309.92260000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-42230.5613</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1558.133999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-46332.4774</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-52598.83</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-79922.40549999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-72632.02859999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-136778.1719</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>483626.9637000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>497364.5362</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>500699.15</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>500699.15</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>484089.964</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>523497.3881</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1316265.0225</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1190951.545390974</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1084100.063690974</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1025206.921490974</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>842505.2005909742</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>843498.0708909741</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>828948.0708909741</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>514488.0191909741</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>477042.8580909742</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>343212.2509909743</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>345217.5404909743</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>316395.0767909742</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6556,10 +6556,14 @@
         <v>-4346408.307509024</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3.113</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
@@ -6589,11 +6593,19 @@
         <v>-4392724.306309024</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6634,19 @@
         <v>-4729964.962309024</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6675,19 @@
         <v>-4729594.592609025</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +6719,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6755,19 @@
         <v>-4729594.592609025</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6799,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6835,19 @@
         <v>-4529394.592609025</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6876,19 @@
         <v>-4483394.592609025</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +6920,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +6959,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6995,19 @@
         <v>-4522974.592609025</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7036,19 @@
         <v>-4522641.604709025</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7077,19 @@
         <v>-4593783.434709025</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7118,19 @@
         <v>-4096474.987209025</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7159,19 @@
         <v>-4247120.200609025</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7200,19 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="J203" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7241,19 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J204" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7282,19 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7323,19 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7364,19 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7405,19 @@
         <v>-4331568.597409025</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J208" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7446,19 @@
         <v>-4451948.997409025</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="J209" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7487,19 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J210" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7528,19 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J211" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7569,19 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7610,19 @@
         <v>-4467558.051509025</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7651,19 @@
         <v>-4468555.331509025</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J214" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7692,19 @@
         <v>-4468555.331509025</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J215" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7733,19 @@
         <v>-4452511.573609025</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J216" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7777,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7813,19 @@
         <v>-4628020.869109025</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="J218" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7854,19 @@
         <v>-4603502.784609025</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J219" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7895,19 @@
         <v>-4655533.034209025</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="J220" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7936,19 @@
         <v>-4655533.034209025</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7977,19 @@
         <v>-4654257.478709025</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J222" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8018,19 @@
         <v>-4673353.010109025</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="J223" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7783,9 +8065,13 @@
         <v>3.108</v>
       </c>
       <c r="J224" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+        <v>3.113</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +8106,11 @@
         <v>3.108</v>
       </c>
       <c r="J225" t="n">
-        <v>3.108</v>
+        <v>3.113</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -7855,15 +8141,17 @@
         <v>-4719531.292309025</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3.108</v>
+      </c>
       <c r="J226" t="n">
-        <v>3.108</v>
+        <v>3.113</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -7900,9 +8188,13 @@
         <v>3.106</v>
       </c>
       <c r="J227" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+        <v>3.113</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7937,11 +8229,11 @@
         <v>3.106</v>
       </c>
       <c r="J228" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -7978,7 +8270,7 @@
         <v>3.104</v>
       </c>
       <c r="J229" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8013,11 +8305,13 @@
         <v>-4690841.406509025</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3.106</v>
+      </c>
       <c r="J230" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8058,7 +8352,7 @@
         <v>3.106</v>
       </c>
       <c r="J231" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8093,11 +8387,13 @@
         <v>-4691141.406509025</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3.139</v>
+      </c>
       <c r="J232" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8132,11 +8428,13 @@
         <v>-4691141.406509025</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>3.106</v>
+      </c>
       <c r="J233" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8171,11 +8469,13 @@
         <v>-4690452.084509025</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>3.106</v>
+      </c>
       <c r="J234" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8210,11 +8510,13 @@
         <v>-4690952.084509025</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>3.128</v>
+      </c>
       <c r="J235" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8249,11 +8551,13 @@
         <v>-4689951.707609026</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>3.103</v>
+      </c>
       <c r="J236" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8288,11 +8592,13 @@
         <v>-4689951.707609026</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>3.104</v>
+      </c>
       <c r="J237" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8333,7 +8639,7 @@
         <v>3.104</v>
       </c>
       <c r="J238" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8374,7 +8680,7 @@
         <v>3.109</v>
       </c>
       <c r="J239" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8415,7 +8721,7 @@
         <v>3.119</v>
       </c>
       <c r="J240" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8456,7 +8762,7 @@
         <v>3.103</v>
       </c>
       <c r="J241" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8491,11 +8797,13 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>3.103</v>
+      </c>
       <c r="J242" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8536,7 +8844,7 @@
         <v>3.119</v>
       </c>
       <c r="J243" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8575,7 +8883,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8614,7 +8922,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8649,11 +8957,13 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J246" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8688,11 +8998,13 @@
         <v>-4089667.737009026</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>3.119</v>
+      </c>
       <c r="J247" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8731,7 +9043,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8766,11 +9078,13 @@
         <v>-4084795.348609026</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3.136</v>
+      </c>
       <c r="J249" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8805,11 +9119,13 @@
         <v>-4084202.677409025</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>3.137</v>
+      </c>
       <c r="J250" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8844,11 +9160,13 @@
         <v>-4052412.432409025</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3.138</v>
+      </c>
       <c r="J251" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8883,11 +9201,13 @@
         <v>-4029716.569309025</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J252" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8922,11 +9242,13 @@
         <v>-4043066.901209025</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3.147</v>
+      </c>
       <c r="J253" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8961,11 +9283,13 @@
         <v>-4042903.942109025</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>3.138</v>
+      </c>
       <c r="J254" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9000,11 +9324,13 @@
         <v>-4135943.942109025</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>3.147</v>
+      </c>
       <c r="J255" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9039,11 +9365,13 @@
         <v>-4135943.942109025</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J256" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9078,11 +9406,13 @@
         <v>-4135943.942109025</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J257" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9117,11 +9447,13 @@
         <v>-4125443.942109025</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J258" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9156,19 +9488,21 @@
         <v>-4125277.512809025</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3.146</v>
+      </c>
       <c r="J259" t="n">
-        <v>3.106</v>
+        <v>3.113</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
-        <v>1.008200257566001</v>
+        <v>1</v>
       </c>
       <c r="M259" t="inlineStr"/>
     </row>
@@ -9195,11 +9529,19 @@
         <v>-4135277.512809025</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="J260" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +9570,19 @@
         <v>-4134870.766809025</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J261" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9261,11 +9611,19 @@
         <v>-4178227.943809025</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="J262" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9294,11 +9652,19 @@
         <v>-4178227.943809025</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="J263" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9327,11 +9693,19 @@
         <v>-4479069.783809026</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="J264" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9360,11 +9734,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J265" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9393,11 +9775,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9426,11 +9816,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J267" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9459,11 +9857,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J268" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9492,11 +9898,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J269" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9525,11 +9939,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9558,11 +9980,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9591,11 +10021,19 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest MIX.xlsx
+++ b/BackTest/2020-01-12 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:L272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>171.16</v>
       </c>
       <c r="G2" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3012.27</v>
       </c>
       <c r="G3" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>995.13</v>
       </c>
       <c r="G4" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3380.32</v>
       </c>
       <c r="G5" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>581.98</v>
       </c>
       <c r="G6" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2337.28</v>
       </c>
       <c r="G7" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2329.98</v>
       </c>
       <c r="G8" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2745.08</v>
       </c>
       <c r="G9" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1452.18</v>
       </c>
       <c r="G10" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>979.2</v>
       </c>
       <c r="G11" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3267.43</v>
       </c>
       <c r="G12" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>4136.55</v>
       </c>
       <c r="G13" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3802.01</v>
       </c>
       <c r="G14" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>726.67</v>
       </c>
       <c r="G15" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>25002</v>
       </c>
       <c r="G16" t="n">
-        <v>74609.6069</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>400</v>
       </c>
       <c r="G17" t="n">
-        <v>75009.6069</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>30000</v>
       </c>
       <c r="G18" t="n">
-        <v>45009.6069</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7541.5079</v>
       </c>
       <c r="G19" t="n">
-        <v>45009.6069</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1952.9834</v>
       </c>
       <c r="G20" t="n">
-        <v>45009.6069</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>200</v>
       </c>
       <c r="G21" t="n">
-        <v>45209.6069</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>18911.0524</v>
       </c>
       <c r="G22" t="n">
-        <v>26298.5545</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24932.2731</v>
       </c>
       <c r="G23" t="n">
-        <v>26298.5545</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>17256.2732</v>
       </c>
       <c r="G24" t="n">
-        <v>9042.281299999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>9617.6687</v>
       </c>
       <c r="G25" t="n">
-        <v>18659.95</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>45969.8726</v>
       </c>
       <c r="G26" t="n">
-        <v>-27309.92260000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>14920.6387</v>
       </c>
       <c r="G27" t="n">
-        <v>-42230.5613</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>43788.6953</v>
       </c>
       <c r="G28" t="n">
-        <v>1558.133999999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>47890.6114</v>
       </c>
       <c r="G29" t="n">
-        <v>-46332.4774</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>38007.3427</v>
       </c>
       <c r="G30" t="n">
-        <v>-8325.134700000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>38970.7325</v>
       </c>
       <c r="G31" t="n">
-        <v>-8325.134700000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>44273.6953</v>
       </c>
       <c r="G32" t="n">
-        <v>-52598.83</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>27323.5755</v>
       </c>
       <c r="G33" t="n">
-        <v>-79922.40549999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>32088.0936</v>
       </c>
       <c r="G34" t="n">
-        <v>-79922.40549999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>38251.5163</v>
       </c>
       <c r="G35" t="n">
-        <v>-41670.88919999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>30961.1394</v>
       </c>
       <c r="G36" t="n">
-        <v>-72632.02859999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>44272.6519</v>
       </c>
       <c r="G37" t="n">
-        <v>-28359.37669999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>62859.9327</v>
       </c>
       <c r="G38" t="n">
-        <v>-91219.3094</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>79112.15119999999</v>
       </c>
       <c r="G39" t="n">
-        <v>-91219.3094</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>405.3461</v>
       </c>
       <c r="G40" t="n">
-        <v>-91219.3094</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>6337.7139</v>
       </c>
       <c r="G41" t="n">
-        <v>-84881.5955</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>35465.8753</v>
       </c>
       <c r="G42" t="n">
-        <v>-84881.5955</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>51896.5764</v>
       </c>
       <c r="G43" t="n">
-        <v>-136778.1719</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>620405.1356</v>
       </c>
       <c r="G44" t="n">
-        <v>483626.9637000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>6246.2216</v>
       </c>
       <c r="G45" t="n">
-        <v>489873.1853000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>214668.0955</v>
       </c>
       <c r="G46" t="n">
-        <v>489873.1853000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2405.2569</v>
       </c>
       <c r="G47" t="n">
-        <v>492278.4422</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>3820.239</v>
       </c>
       <c r="G48" t="n">
-        <v>492278.4422</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>30938.9195</v>
       </c>
       <c r="G49" t="n">
-        <v>492278.4422</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>8866.17</v>
       </c>
       <c r="G50" t="n">
-        <v>492278.4422</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>5086.094</v>
       </c>
       <c r="G51" t="n">
-        <v>497364.5362</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2876.3921</v>
       </c>
       <c r="G52" t="n">
-        <v>500240.9283</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2993.7314</v>
       </c>
       <c r="G53" t="n">
-        <v>500240.9283</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1964.187</v>
       </c>
       <c r="G54" t="n">
-        <v>500240.9283</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>772.8717</v>
       </c>
       <c r="G55" t="n">
-        <v>500240.9283</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>32314.4965</v>
       </c>
       <c r="G56" t="n">
-        <v>500240.9283</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>458.2217</v>
       </c>
       <c r="G57" t="n">
-        <v>500699.15</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>231.449</v>
       </c>
       <c r="G58" t="n">
-        <v>500699.15</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>5845.9963</v>
       </c>
       <c r="G59" t="n">
-        <v>500699.15</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>833.9232</v>
       </c>
       <c r="G60" t="n">
-        <v>500699.15</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>16609.186</v>
       </c>
       <c r="G61" t="n">
-        <v>484089.964</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>95535.9713</v>
       </c>
       <c r="G62" t="n">
-        <v>579625.9353</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>16359.1787</v>
       </c>
       <c r="G63" t="n">
-        <v>579625.9353</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>32464.6698</v>
       </c>
       <c r="G64" t="n">
-        <v>579625.9353</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>56128.5472</v>
       </c>
       <c r="G65" t="n">
-        <v>523497.3881</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1839762.4106</v>
       </c>
       <c r="G66" t="n">
-        <v>-1316265.0225</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>105476.156</v>
       </c>
       <c r="G67" t="n">
-        <v>-1210788.8665</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>195483.6047</v>
       </c>
       <c r="G68" t="n">
-        <v>-1210788.8665</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>200</v>
       </c>
       <c r="G69" t="n">
-        <v>-1210588.8665</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>34220.603</v>
       </c>
       <c r="G70" t="n">
-        <v>-1176368.2635</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>13302.3062</v>
       </c>
       <c r="G71" t="n">
-        <v>-1163065.9573</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>92988.955</v>
       </c>
       <c r="G72" t="n">
-        <v>-1256054.9123</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>311947.58</v>
       </c>
       <c r="G73" t="n">
-        <v>-1568002.4923</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>22492.8479</v>
       </c>
       <c r="G74" t="n">
-        <v>-1590495.3402</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>333179.18</v>
       </c>
       <c r="G75" t="n">
-        <v>-1923674.5202</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>5537.1881</v>
       </c>
       <c r="G76" t="n">
-        <v>-1918137.3321</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>215733.3279</v>
       </c>
       <c r="G77" t="n">
-        <v>-2133870.66</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>52367.657</v>
       </c>
       <c r="G78" t="n">
-        <v>-2133870.66</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>40000</v>
       </c>
       <c r="G79" t="n">
-        <v>-2133870.66</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>76179.1583</v>
       </c>
       <c r="G80" t="n">
-        <v>-2210049.8183</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>33456.5232</v>
       </c>
       <c r="G81" t="n">
-        <v>-2176593.2951</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,21 @@
         <v>176486.6483</v>
       </c>
       <c r="G82" t="n">
-        <v>-2000106.6468</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2879,21 @@
         <v>1840964.1953</v>
       </c>
       <c r="G83" t="n">
-        <v>-159142.4514999997</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>3.078</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2915,21 @@
         <v>16219.5121</v>
       </c>
       <c r="G84" t="n">
-        <v>-159142.4514999997</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2951,19 @@
         <v>830000</v>
       </c>
       <c r="G85" t="n">
-        <v>-159142.4514999997</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2985,19 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>-158942.4514999997</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3019,19 @@
         <v>19934.7854</v>
       </c>
       <c r="G87" t="n">
-        <v>-158942.4514999997</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3053,19 @@
         <v>334.4651</v>
       </c>
       <c r="G88" t="n">
-        <v>-158607.9863999997</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3087,19 @@
         <v>128325.5232</v>
       </c>
       <c r="G89" t="n">
-        <v>-158607.9863999997</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3121,19 @@
         <v>8717.686299999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-149890.3000999997</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3155,19 @@
         <v>18368.9425</v>
       </c>
       <c r="G91" t="n">
-        <v>-131521.3575999997</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3189,19 @@
         <v>2361.7765</v>
       </c>
       <c r="G92" t="n">
-        <v>-129159.5810999997</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3223,19 @@
         <v>6072.3544</v>
       </c>
       <c r="G93" t="n">
-        <v>-135231.9354999997</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3257,19 @@
         <v>1326183.480890974</v>
       </c>
       <c r="G94" t="n">
-        <v>1190951.545390974</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3291,19 @@
         <v>9137.305899999999</v>
       </c>
       <c r="G95" t="n">
-        <v>1181814.239490974</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3325,19 @@
         <v>97714.1758</v>
       </c>
       <c r="G96" t="n">
-        <v>1084100.063690974</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3359,17 @@
         <v>5833.14</v>
       </c>
       <c r="G97" t="n">
-        <v>1089933.203690974</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3391,15 @@
         <v>4371.83</v>
       </c>
       <c r="G98" t="n">
-        <v>1089933.203690974</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3421,15 @@
         <v>1761.22</v>
       </c>
       <c r="G99" t="n">
-        <v>1089933.203690974</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3451,15 @@
         <v>79330.2424</v>
       </c>
       <c r="G100" t="n">
-        <v>1010602.961290974</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3481,15 @@
         <v>95352.15150000001</v>
       </c>
       <c r="G101" t="n">
-        <v>1010602.961290974</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3511,15 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>1010802.961290974</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3541,15 @@
         <v>27020.7402</v>
       </c>
       <c r="G103" t="n">
-        <v>1010802.961290974</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3571,15 @@
         <v>31020</v>
       </c>
       <c r="G104" t="n">
-        <v>979782.9612909741</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3601,15 @@
         <v>90500.0711</v>
       </c>
       <c r="G105" t="n">
-        <v>979782.9612909741</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3631,15 @@
         <v>76060.1722</v>
       </c>
       <c r="G106" t="n">
-        <v>1055843.133490974</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3661,15 @@
         <v>21731.445</v>
       </c>
       <c r="G107" t="n">
-        <v>1077574.578490974</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3691,15 @@
         <v>52367.657</v>
       </c>
       <c r="G108" t="n">
-        <v>1025206.921490974</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3721,15 @@
         <v>15150</v>
       </c>
       <c r="G109" t="n">
-        <v>1025206.921490974</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3751,15 @@
         <v>23911.8796</v>
       </c>
       <c r="G110" t="n">
-        <v>1001295.041890974</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3781,15 @@
         <v>58859.2573</v>
       </c>
       <c r="G111" t="n">
-        <v>942435.7845909742</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3811,15 @@
         <v>275290.62</v>
       </c>
       <c r="G112" t="n">
-        <v>942435.7845909742</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3841,15 @@
         <v>12489.6492</v>
       </c>
       <c r="G113" t="n">
-        <v>942435.7845909742</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3871,15 @@
         <v>106370.0712</v>
       </c>
       <c r="G114" t="n">
-        <v>836065.7133909742</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3901,15 @@
         <v>6439.4872</v>
       </c>
       <c r="G115" t="n">
-        <v>842505.2005909742</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3931,15 @@
         <v>3282.1178</v>
       </c>
       <c r="G116" t="n">
-        <v>842505.2005909742</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3961,15 @@
         <v>3265.7485</v>
       </c>
       <c r="G117" t="n">
-        <v>842505.2005909742</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3991,15 @@
         <v>40566.6027</v>
       </c>
       <c r="G118" t="n">
-        <v>842505.2005909742</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4021,15 @@
         <v>992.8703</v>
       </c>
       <c r="G119" t="n">
-        <v>843498.0708909741</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4051,15 @@
         <v>14550</v>
       </c>
       <c r="G120" t="n">
-        <v>828948.0708909741</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4081,15 @@
         <v>314460.0517</v>
       </c>
       <c r="G121" t="n">
-        <v>514488.0191909741</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4111,15 @@
         <v>220416.1795</v>
       </c>
       <c r="G122" t="n">
-        <v>734904.1986909742</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4141,15 @@
         <v>294000</v>
       </c>
       <c r="G123" t="n">
-        <v>734904.1986909742</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4171,15 @@
         <v>364506.1791</v>
       </c>
       <c r="G124" t="n">
-        <v>1099410.377790974</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4201,15 @@
         <v>643392.8205</v>
       </c>
       <c r="G125" t="n">
-        <v>456017.5572909742</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4231,15 @@
         <v>21025.3008</v>
       </c>
       <c r="G126" t="n">
-        <v>477042.8580909742</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4261,15 @@
         <v>133830.6071</v>
       </c>
       <c r="G127" t="n">
-        <v>343212.2509909743</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4291,15 @@
         <v>822.3694</v>
       </c>
       <c r="G128" t="n">
-        <v>344034.6203909743</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4321,15 @@
         <v>150270.8744</v>
       </c>
       <c r="G129" t="n">
-        <v>344034.6203909743</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4351,15 @@
         <v>86978.8936</v>
       </c>
       <c r="G130" t="n">
-        <v>344034.6203909743</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4381,15 @@
         <v>1182.9201</v>
       </c>
       <c r="G131" t="n">
-        <v>345217.5404909743</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4411,15 @@
         <v>28822.4637</v>
       </c>
       <c r="G132" t="n">
-        <v>316395.0767909742</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4441,15 @@
         <v>135044.1922</v>
       </c>
       <c r="G133" t="n">
-        <v>181350.8845909743</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4471,15 @@
         <v>29907.3886</v>
       </c>
       <c r="G134" t="n">
-        <v>181350.8845909743</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4501,15 @@
         <v>22571.2777</v>
       </c>
       <c r="G135" t="n">
-        <v>181350.8845909743</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4531,15 @@
         <v>105618.362</v>
       </c>
       <c r="G136" t="n">
-        <v>181350.8845909743</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4561,15 @@
         <v>174784.7502</v>
       </c>
       <c r="G137" t="n">
-        <v>6566.134390974243</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4591,15 @@
         <v>163269.802</v>
       </c>
       <c r="G138" t="n">
-        <v>-156703.6676090258</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4621,15 @@
         <v>2949.1554</v>
       </c>
       <c r="G139" t="n">
-        <v>-153754.5122090258</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4651,15 @@
         <v>16240.6382</v>
       </c>
       <c r="G140" t="n">
-        <v>-169995.1504090258</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4681,15 @@
         <v>142901.8622</v>
       </c>
       <c r="G141" t="n">
-        <v>-27093.28820902575</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4711,21 @@
         <v>1082595.6488</v>
       </c>
       <c r="G142" t="n">
-        <v>-1109688.937009026</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>3.074</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4747,19 @@
         <v>64490.4353</v>
       </c>
       <c r="G143" t="n">
-        <v>-1109688.937009026</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4781,21 @@
         <v>90113.0765</v>
       </c>
       <c r="G144" t="n">
-        <v>-1019575.860509026</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4817,19 @@
         <v>1912290.9053</v>
       </c>
       <c r="G145" t="n">
-        <v>-2931866.765809026</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4851,21 @@
         <v>247.7505</v>
       </c>
       <c r="G146" t="n">
-        <v>-2931619.015309026</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4887,21 @@
         <v>152591.8159</v>
       </c>
       <c r="G147" t="n">
-        <v>-3084210.831209025</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4923,21 @@
         <v>16698.8353</v>
       </c>
       <c r="G148" t="n">
-        <v>-3067511.995909025</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4959,21 @@
         <v>9650.5152</v>
       </c>
       <c r="G149" t="n">
-        <v>-3067511.995909025</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4995,19 @@
         <v>14522.945</v>
       </c>
       <c r="G150" t="n">
-        <v>-3067511.995909025</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5029,19 @@
         <v>48706.0786</v>
       </c>
       <c r="G151" t="n">
-        <v>-3067511.995909025</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5063,19 @@
         <v>166.9142</v>
       </c>
       <c r="G152" t="n">
-        <v>-3067345.081709025</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5097,19 @@
         <v>5349.651</v>
       </c>
       <c r="G153" t="n">
-        <v>-3067345.081709025</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5131,19 @@
         <v>32163.9957</v>
       </c>
       <c r="G154" t="n">
-        <v>-3067345.081709025</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5165,19 @@
         <v>66556.5209</v>
       </c>
       <c r="G155" t="n">
-        <v>-3133901.602609025</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5199,19 @@
         <v>374.5594</v>
       </c>
       <c r="G156" t="n">
-        <v>-3133527.043209025</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5233,19 @@
         <v>203777.1082</v>
       </c>
       <c r="G157" t="n">
-        <v>-3337304.151409025</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5267,19 @@
         <v>281.1245</v>
       </c>
       <c r="G158" t="n">
-        <v>-3337023.026909025</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5301,19 @@
         <v>2651.1363</v>
       </c>
       <c r="G159" t="n">
-        <v>-3339674.163209025</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5335,19 @@
         <v>4807.1011</v>
       </c>
       <c r="G160" t="n">
-        <v>-3334867.062109025</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5369,19 @@
         <v>205005</v>
       </c>
       <c r="G161" t="n">
-        <v>-3539872.062109025</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5403,19 @@
         <v>278644.782</v>
       </c>
       <c r="G162" t="n">
-        <v>-3539872.062109025</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5437,19 @@
         <v>280</v>
       </c>
       <c r="G163" t="n">
-        <v>-3539592.062109025</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5471,19 @@
         <v>16031.7624</v>
       </c>
       <c r="G164" t="n">
-        <v>-3539592.062109025</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5505,19 @@
         <v>1136.6059</v>
       </c>
       <c r="G165" t="n">
-        <v>-3540728.668009025</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5539,19 @@
         <v>459.0808</v>
       </c>
       <c r="G166" t="n">
-        <v>-3540269.587209025</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5573,19 @@
         <v>144106.3789</v>
       </c>
       <c r="G167" t="n">
-        <v>-3684375.966109025</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5607,19 @@
         <v>985378.7565</v>
       </c>
       <c r="G168" t="n">
-        <v>-4669754.722609024</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5641,19 @@
         <v>4943.3986</v>
       </c>
       <c r="G169" t="n">
-        <v>-4674698.121209024</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5675,19 @@
         <v>108008.0449</v>
       </c>
       <c r="G170" t="n">
-        <v>-4566690.076309024</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5709,19 @@
         <v>31658.0991</v>
       </c>
       <c r="G171" t="n">
-        <v>-4535031.977209024</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5743,19 @@
         <v>162614.129</v>
       </c>
       <c r="G172" t="n">
-        <v>-4535031.977209024</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5777,19 @@
         <v>124800</v>
       </c>
       <c r="G173" t="n">
-        <v>-4410231.977209024</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5811,19 @@
         <v>3082.9894</v>
       </c>
       <c r="G174" t="n">
-        <v>-4410231.977209024</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5845,19 @@
         <v>245.38</v>
       </c>
       <c r="G175" t="n">
-        <v>-4410477.357209024</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5879,19 @@
         <v>643.1874</v>
       </c>
       <c r="G176" t="n">
-        <v>-4410477.357209024</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5913,19 @@
         <v>21339.2855</v>
       </c>
       <c r="G177" t="n">
-        <v>-4410477.357209024</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5947,19 @@
         <v>6153.7444</v>
       </c>
       <c r="G178" t="n">
-        <v>-4410477.357209024</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5981,19 @@
         <v>62005.0077</v>
       </c>
       <c r="G179" t="n">
-        <v>-4348472.349509024</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6015,19 @@
         <v>16088.7096</v>
       </c>
       <c r="G180" t="n">
-        <v>-4348472.349509024</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6049,19 @@
         <v>411.422</v>
       </c>
       <c r="G181" t="n">
-        <v>-4348060.927509024</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6083,19 @@
         <v>26644.6553</v>
       </c>
       <c r="G182" t="n">
-        <v>-4348060.927509024</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6117,19 @@
         <v>1330.92</v>
       </c>
       <c r="G183" t="n">
-        <v>-4349391.847509024</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6151,19 @@
         <v>2683.51</v>
       </c>
       <c r="G184" t="n">
-        <v>-4346708.337509024</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6185,19 @@
         <v>922.4299999999999</v>
       </c>
       <c r="G185" t="n">
-        <v>-4346708.337509024</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6219,19 @@
         <v>300.03</v>
       </c>
       <c r="G186" t="n">
-        <v>-4346408.307509024</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,22 +6253,19 @@
         <v>16654.1939</v>
       </c>
       <c r="G187" t="n">
-        <v>-4346408.307509024</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6590,26 +6287,19 @@
         <v>46315.9988</v>
       </c>
       <c r="G188" t="n">
-        <v>-4392724.306309024</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6631,26 +6321,19 @@
         <v>337240.656</v>
       </c>
       <c r="G189" t="n">
-        <v>-4729964.962309024</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6672,26 +6355,19 @@
         <v>370.3697</v>
       </c>
       <c r="G190" t="n">
-        <v>-4729594.592609025</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6713,24 +6389,19 @@
         <v>63007.6021</v>
       </c>
       <c r="G191" t="n">
-        <v>-4729594.592609025</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6752,26 +6423,19 @@
         <v>1063123.3712</v>
       </c>
       <c r="G192" t="n">
-        <v>-4729594.592609025</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6793,24 +6457,19 @@
         <v>200200</v>
       </c>
       <c r="G193" t="n">
-        <v>-4529394.592609025</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6832,26 +6491,19 @@
         <v>15939.5973</v>
       </c>
       <c r="G194" t="n">
-        <v>-4529394.592609025</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6873,26 +6525,19 @@
         <v>46000</v>
       </c>
       <c r="G195" t="n">
-        <v>-4483394.592609025</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="J195" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6914,24 +6559,19 @@
         <v>39080</v>
       </c>
       <c r="G196" t="n">
-        <v>-4522474.592609025</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6953,24 +6593,19 @@
         <v>22950</v>
       </c>
       <c r="G197" t="n">
-        <v>-4522474.592609025</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6992,26 +6627,19 @@
         <v>500</v>
       </c>
       <c r="G198" t="n">
-        <v>-4522974.592609025</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.112</v>
-      </c>
-      <c r="J198" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7033,26 +6661,19 @@
         <v>332.9879</v>
       </c>
       <c r="G199" t="n">
-        <v>-4522641.604709025</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J199" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7074,26 +6695,19 @@
         <v>71141.83</v>
       </c>
       <c r="G200" t="n">
-        <v>-4593783.434709025</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7115,26 +6729,19 @@
         <v>497308.4475</v>
       </c>
       <c r="G201" t="n">
-        <v>-4096474.987209025</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7156,26 +6763,19 @@
         <v>150645.2134</v>
       </c>
       <c r="G202" t="n">
-        <v>-4247120.200609025</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J202" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7197,26 +6797,19 @@
         <v>81786.0668</v>
       </c>
       <c r="G203" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3.129</v>
-      </c>
-      <c r="J203" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7238,26 +6831,19 @@
         <v>32496.7872</v>
       </c>
       <c r="G204" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J204" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7279,26 +6865,19 @@
         <v>29528.8146</v>
       </c>
       <c r="G205" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7320,26 +6899,19 @@
         <v>3672.38</v>
       </c>
       <c r="G206" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J206" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7361,26 +6933,19 @@
         <v>33753.1037</v>
       </c>
       <c r="G207" t="n">
-        <v>-4328906.267409025</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J207" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7402,26 +6967,19 @@
         <v>2662.33</v>
       </c>
       <c r="G208" t="n">
-        <v>-4331568.597409025</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7443,26 +7001,19 @@
         <v>120380.4</v>
       </c>
       <c r="G209" t="n">
-        <v>-4451948.997409025</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="J209" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7484,26 +7035,19 @@
         <v>16111.3286</v>
       </c>
       <c r="G210" t="n">
-        <v>-4468060.326009025</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7525,26 +7069,19 @@
         <v>85449.52680000001</v>
       </c>
       <c r="G211" t="n">
-        <v>-4468060.326009025</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J211" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7566,26 +7103,19 @@
         <v>696.35</v>
       </c>
       <c r="G212" t="n">
-        <v>-4468060.326009025</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J212" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7607,26 +7137,19 @@
         <v>502.2745</v>
       </c>
       <c r="G213" t="n">
-        <v>-4467558.051509025</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>3.102</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7648,26 +7171,19 @@
         <v>997.28</v>
       </c>
       <c r="G214" t="n">
-        <v>-4468555.331509025</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7689,26 +7205,19 @@
         <v>44986.8978</v>
       </c>
       <c r="G215" t="n">
-        <v>-4468555.331509025</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J215" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7730,26 +7239,19 @@
         <v>16043.7579</v>
       </c>
       <c r="G216" t="n">
-        <v>-4452511.573609025</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J216" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7771,24 +7273,19 @@
         <v>90596.0003</v>
       </c>
       <c r="G217" t="n">
-        <v>-4543107.573909026</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7810,26 +7307,19 @@
         <v>84913.29519999999</v>
       </c>
       <c r="G218" t="n">
-        <v>-4628020.869109025</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7851,26 +7341,19 @@
         <v>24518.0845</v>
       </c>
       <c r="G219" t="n">
-        <v>-4603502.784609025</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7892,26 +7375,19 @@
         <v>52030.2496</v>
       </c>
       <c r="G220" t="n">
-        <v>-4655533.034209025</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7933,26 +7409,19 @@
         <v>12900</v>
       </c>
       <c r="G221" t="n">
-        <v>-4655533.034209025</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7974,26 +7443,19 @@
         <v>1275.5555</v>
       </c>
       <c r="G222" t="n">
-        <v>-4654257.478709025</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8015,26 +7477,19 @@
         <v>19095.5314</v>
       </c>
       <c r="G223" t="n">
-        <v>-4673353.010109025</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8056,26 +7511,19 @@
         <v>904.4686</v>
       </c>
       <c r="G224" t="n">
-        <v>-4673353.010109025</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="J224" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8097,26 +7545,19 @@
         <v>15142.8286</v>
       </c>
       <c r="G225" t="n">
-        <v>-4673353.010109025</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="J225" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8138,26 +7579,19 @@
         <v>46178.2822</v>
       </c>
       <c r="G226" t="n">
-        <v>-4719531.292309025</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>3.108</v>
-      </c>
-      <c r="J226" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8179,26 +7613,19 @@
         <v>379049.7462</v>
       </c>
       <c r="G227" t="n">
-        <v>-4719531.292309025</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J227" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8220,26 +7647,19 @@
         <v>32971.8163</v>
       </c>
       <c r="G228" t="n">
-        <v>-4752503.108609025</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J228" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8261,26 +7681,19 @@
         <v>61661.7021</v>
       </c>
       <c r="G229" t="n">
-        <v>-4690841.406509025</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="J229" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8302,26 +7715,19 @@
         <v>457.107</v>
       </c>
       <c r="G230" t="n">
-        <v>-4690841.406509025</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J230" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8343,26 +7749,19 @@
         <v>200</v>
       </c>
       <c r="G231" t="n">
-        <v>-4690641.406509025</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J231" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8384,26 +7783,19 @@
         <v>500</v>
       </c>
       <c r="G232" t="n">
-        <v>-4691141.406509025</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>3.139</v>
-      </c>
-      <c r="J232" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8425,26 +7817,19 @@
         <v>805.0055</v>
       </c>
       <c r="G233" t="n">
-        <v>-4691141.406509025</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J233" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8466,26 +7851,19 @@
         <v>689.322</v>
       </c>
       <c r="G234" t="n">
-        <v>-4690452.084509025</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>3.106</v>
-      </c>
-      <c r="J234" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8507,26 +7885,19 @@
         <v>500</v>
       </c>
       <c r="G235" t="n">
-        <v>-4690952.084509025</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="J235" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8548,26 +7919,19 @@
         <v>1000.3769</v>
       </c>
       <c r="G236" t="n">
-        <v>-4689951.707609026</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="J236" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8589,26 +7953,19 @@
         <v>199.6231</v>
       </c>
       <c r="G237" t="n">
-        <v>-4689951.707609026</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="J237" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8630,26 +7987,19 @@
         <v>160.8235</v>
       </c>
       <c r="G238" t="n">
-        <v>-4689790.884109026</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>3.104</v>
-      </c>
-      <c r="J238" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8671,26 +8021,19 @@
         <v>599641.2831999999</v>
       </c>
       <c r="G239" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3.109</v>
-      </c>
-      <c r="J239" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8712,26 +8055,19 @@
         <v>500</v>
       </c>
       <c r="G240" t="n">
-        <v>-4090649.600909026</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J240" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8753,26 +8089,19 @@
         <v>243656.3451</v>
       </c>
       <c r="G241" t="n">
-        <v>-4090649.600909026</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="J241" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8794,26 +8123,19 @@
         <v>500</v>
       </c>
       <c r="G242" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="J242" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8835,26 +8157,19 @@
         <v>3569.5979</v>
       </c>
       <c r="G243" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J243" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8876,24 +8191,19 @@
         <v>13574.8676</v>
       </c>
       <c r="G244" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8915,24 +8225,19 @@
         <v>6116.83</v>
       </c>
       <c r="G245" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8954,26 +8259,19 @@
         <v>52303.8959</v>
       </c>
       <c r="G246" t="n">
-        <v>-4090149.600909026</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J246" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8995,26 +8293,19 @@
         <v>481.8639</v>
       </c>
       <c r="G247" t="n">
-        <v>-4089667.737009026</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="J247" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9036,24 +8327,19 @@
         <v>2261.3874</v>
       </c>
       <c r="G248" t="n">
-        <v>-4091929.124409026</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9075,26 +8361,19 @@
         <v>7133.7758</v>
       </c>
       <c r="G249" t="n">
-        <v>-4084795.348609026</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="J249" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9116,26 +8395,19 @@
         <v>592.6712</v>
       </c>
       <c r="G250" t="n">
-        <v>-4084202.677409025</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="J250" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9157,26 +8429,19 @@
         <v>31790.245</v>
       </c>
       <c r="G251" t="n">
-        <v>-4052412.432409025</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="J251" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9198,26 +8463,19 @@
         <v>22695.8631</v>
       </c>
       <c r="G252" t="n">
-        <v>-4029716.569309025</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J252" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9239,26 +8497,19 @@
         <v>13350.3319</v>
       </c>
       <c r="G253" t="n">
-        <v>-4043066.901209025</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J253" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9280,26 +8531,19 @@
         <v>162.9591</v>
       </c>
       <c r="G254" t="n">
-        <v>-4042903.942109025</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="J254" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9321,26 +8565,19 @@
         <v>93040</v>
       </c>
       <c r="G255" t="n">
-        <v>-4135943.942109025</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J255" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9362,26 +8599,19 @@
         <v>108008.0449</v>
       </c>
       <c r="G256" t="n">
-        <v>-4135943.942109025</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J256" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9403,26 +8633,19 @@
         <v>264.4952</v>
       </c>
       <c r="G257" t="n">
-        <v>-4135943.942109025</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J257" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9444,26 +8667,19 @@
         <v>10500</v>
       </c>
       <c r="G258" t="n">
-        <v>-4125443.942109025</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J258" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9485,26 +8701,19 @@
         <v>166.4293</v>
       </c>
       <c r="G259" t="n">
-        <v>-4125277.512809025</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="J259" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9526,26 +8735,19 @@
         <v>10000</v>
       </c>
       <c r="G260" t="n">
-        <v>-4135277.512809025</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J260" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9567,26 +8769,19 @@
         <v>406.746</v>
       </c>
       <c r="G261" t="n">
-        <v>-4134870.766809025</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="J261" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9608,26 +8803,19 @@
         <v>43357.177</v>
       </c>
       <c r="G262" t="n">
-        <v>-4178227.943809025</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>3.147</v>
-      </c>
-      <c r="J262" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9649,26 +8837,19 @@
         <v>996.6122</v>
       </c>
       <c r="G263" t="n">
-        <v>-4178227.943809025</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J263" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9690,26 +8871,19 @@
         <v>300841.84</v>
       </c>
       <c r="G264" t="n">
-        <v>-4479069.783809026</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3.124</v>
-      </c>
-      <c r="J264" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9731,26 +8905,19 @@
         <v>2272.68</v>
       </c>
       <c r="G265" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="J265" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9772,26 +8939,19 @@
         <v>6258.6</v>
       </c>
       <c r="G266" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J266" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9813,26 +8973,19 @@
         <v>2036.58</v>
       </c>
       <c r="G267" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J267" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9854,26 +9007,19 @@
         <v>4637.15</v>
       </c>
       <c r="G268" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J268" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9895,26 +9041,19 @@
         <v>4118.35</v>
       </c>
       <c r="G269" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J269" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9936,26 +9075,19 @@
         <v>1524.77</v>
       </c>
       <c r="G270" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J270" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9977,26 +9109,19 @@
         <v>2443.52</v>
       </c>
       <c r="G271" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J271" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10018,26 +9143,19 @@
         <v>3045.05</v>
       </c>
       <c r="G272" t="n">
-        <v>-4476797.103809026</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.121</v>
-      </c>
-      <c r="J272" t="n">
-        <v>3.113</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
